--- a/assets/必开燃机列表.xlsx
+++ b/assets/必开燃机列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\zidan\Desktop\myUCApp\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AFCDC0-E69E-405E-B40B-47C4FCC16A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>时刻</t>
   </si>
@@ -124,19 +124,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -160,12 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf fillId="0" fontId="0" numFmtId="22" xfId="0" borderId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -181,7 +174,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -481,12 +474,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,1353 +571,3943 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>44763.291666666664</v>
       </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
       <c r="Q2">
         <v>1</v>
       </c>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
       <c r="W2">
         <v>1</v>
       </c>
       <c r="X2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>44763.302083333336</v>
       </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
       <c r="Q3">
         <v>1</v>
       </c>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
       <c r="W3">
         <v>1</v>
       </c>
       <c r="X3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="1">
         <v>44763.3125</v>
       </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
       <c r="Q4">
         <v>1</v>
       </c>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
       <c r="W4">
         <v>1</v>
       </c>
       <c r="X4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="1">
         <v>44763.322916666664</v>
       </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
       <c r="Q5">
         <v>1</v>
       </c>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
       <c r="W5">
         <v>1</v>
       </c>
       <c r="X5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="1">
         <v>44763.333333333336</v>
       </c>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
       <c r="Q6">
         <v>1</v>
       </c>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="1">
         <v>44763.34375</v>
       </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
       <c r="Q7">
         <v>1</v>
       </c>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
       <c r="W7">
         <v>1</v>
       </c>
       <c r="X7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="1">
         <v>44763.354166666664</v>
       </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8">
         <v>1</v>
       </c>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
       <c r="W8">
         <v>1</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="1">
         <v>44763.364583333336</v>
       </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
       <c r="Q9">
         <v>1</v>
       </c>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
       <c r="W9">
         <v>1</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="1">
         <v>44763.375</v>
       </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
       <c r="Q10">
         <v>1</v>
       </c>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
       <c r="W10">
         <v>1</v>
       </c>
       <c r="X10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="1">
         <v>44763.385416666664</v>
       </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
       <c r="Q11">
         <v>1</v>
       </c>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
       <c r="W11">
         <v>1</v>
       </c>
       <c r="X11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="1">
         <v>44763.395833333336</v>
       </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
       <c r="Q12">
         <v>1</v>
       </c>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
       <c r="W12">
         <v>1</v>
       </c>
       <c r="X12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="1">
         <v>44763.40625</v>
       </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
       <c r="Q13">
         <v>1</v>
       </c>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
       <c r="W13">
         <v>1</v>
       </c>
       <c r="X13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="1">
         <v>44763.416666666664</v>
       </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
       <c r="Q14">
         <v>1</v>
       </c>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
       <c r="W14">
         <v>1</v>
       </c>
       <c r="X14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="1">
         <v>44763.427083333336</v>
       </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
       <c r="Q15">
         <v>1</v>
       </c>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
       <c r="W15">
         <v>1</v>
       </c>
       <c r="X15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="1">
         <v>44763.4375</v>
       </c>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
       <c r="Q16">
         <v>1</v>
       </c>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
       <c r="W16">
         <v>1</v>
       </c>
       <c r="X16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="1">
         <v>44763.447916666664</v>
       </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
       <c r="Q17">
         <v>1</v>
       </c>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
       <c r="W17">
         <v>1</v>
       </c>
       <c r="X17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="1">
         <v>44763.458333333336</v>
       </c>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
       <c r="Q18">
         <v>1</v>
       </c>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
       <c r="W18">
         <v>1</v>
       </c>
       <c r="X18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" s="1">
         <v>44763.46875</v>
       </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
       <c r="Q19">
         <v>1</v>
       </c>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
       <c r="W19">
         <v>1</v>
       </c>
       <c r="X19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="1">
         <v>44763.479166666664</v>
       </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
       <c r="Q20">
         <v>1</v>
       </c>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
       <c r="W20">
         <v>1</v>
       </c>
       <c r="X20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="1">
         <v>44763.489583333336</v>
       </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
       <c r="Q21">
         <v>1</v>
       </c>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
       <c r="W21">
         <v>1</v>
       </c>
       <c r="X21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="1">
         <v>44763.5</v>
       </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
       <c r="Q22">
         <v>1</v>
       </c>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
       <c r="W22">
         <v>1</v>
       </c>
       <c r="X22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" s="1">
         <v>44763.510416666664</v>
       </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
       <c r="Q23">
         <v>1</v>
       </c>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
       <c r="W23">
         <v>1</v>
       </c>
       <c r="X23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" s="1">
         <v>44763.520833333336</v>
       </c>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
       <c r="Q24">
         <v>1</v>
       </c>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
       <c r="W24">
         <v>1</v>
       </c>
       <c r="X24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" s="1">
         <v>44763.53125</v>
       </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
       <c r="Q25">
         <v>1</v>
       </c>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
       <c r="W25">
         <v>1</v>
       </c>
       <c r="X25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" s="1">
         <v>44763.541666666664</v>
       </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
       <c r="Q26">
         <v>1</v>
       </c>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
       <c r="W26">
         <v>1</v>
       </c>
       <c r="X26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" s="1">
         <v>44763.552083333336</v>
       </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
       <c r="Q27">
         <v>1</v>
       </c>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
       <c r="W27">
         <v>1</v>
       </c>
       <c r="X27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" s="1">
         <v>44763.5625</v>
       </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
       <c r="Q28">
         <v>1</v>
       </c>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
       <c r="W28">
         <v>1</v>
       </c>
       <c r="X28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" s="1">
         <v>44763.572916666664</v>
       </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
       <c r="Q29">
         <v>1</v>
       </c>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
       <c r="W29">
         <v>1</v>
       </c>
       <c r="X29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" s="1">
         <v>44763.583333333336</v>
       </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
       <c r="Q30">
         <v>1</v>
       </c>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
       <c r="W30">
         <v>1</v>
       </c>
       <c r="X30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" s="1">
         <v>44763.59375</v>
       </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
       <c r="Q31">
         <v>1</v>
       </c>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
       <c r="W31">
         <v>1</v>
       </c>
       <c r="X31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" s="1">
         <v>44763.604166666664</v>
       </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
       <c r="Q32">
         <v>1</v>
       </c>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
       <c r="W32">
         <v>1</v>
       </c>
       <c r="X32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" s="1">
         <v>44763.614583333336</v>
       </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
       <c r="Q33">
         <v>1</v>
       </c>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
       <c r="W33">
         <v>1</v>
       </c>
       <c r="X33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" s="1">
         <v>44763.625</v>
       </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
       <c r="Q34">
         <v>1</v>
       </c>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
       <c r="W34">
         <v>1</v>
       </c>
       <c r="X34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" s="1">
         <v>44763.635416666664</v>
       </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
       <c r="Q35">
         <v>1</v>
       </c>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
       <c r="W35">
         <v>1</v>
       </c>
       <c r="X35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" s="1">
         <v>44763.645833333336</v>
       </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
       <c r="Q36">
         <v>1</v>
       </c>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
       <c r="W36">
         <v>1</v>
       </c>
       <c r="X36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" s="1">
         <v>44763.65625</v>
       </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
       <c r="Q37">
         <v>1</v>
       </c>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
       <c r="W37">
         <v>1</v>
       </c>
       <c r="X37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" s="1">
         <v>44763.666666666664</v>
       </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
       <c r="Q38">
         <v>1</v>
       </c>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
       <c r="W38">
         <v>1</v>
       </c>
       <c r="X38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" s="1">
         <v>44763.677083333336</v>
       </c>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
       <c r="Q39">
         <v>1</v>
       </c>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
       <c r="W39">
         <v>1</v>
       </c>
       <c r="X39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" s="1">
         <v>44763.6875</v>
       </c>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
       <c r="Q40">
         <v>1</v>
       </c>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
       <c r="W40">
         <v>1</v>
       </c>
       <c r="X40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" s="1">
         <v>44763.697916666664</v>
       </c>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
       <c r="Q41">
         <v>1</v>
       </c>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
       <c r="W41">
         <v>1</v>
       </c>
       <c r="X41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" s="1">
         <v>44763.708333333336</v>
       </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
       <c r="Q42">
         <v>1</v>
       </c>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
       <c r="W42">
         <v>1</v>
       </c>
       <c r="X42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" s="1">
         <v>44763.71875</v>
       </c>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
       <c r="Q43">
         <v>1</v>
       </c>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
       <c r="W43">
         <v>1</v>
       </c>
       <c r="X43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" s="1">
         <v>44763.729166666664</v>
       </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
       <c r="Q44">
         <v>1</v>
       </c>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
       <c r="W44">
         <v>1</v>
       </c>
       <c r="X44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" s="1">
         <v>44763.739583333336</v>
       </c>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
       <c r="Q45">
         <v>1</v>
       </c>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
       <c r="W45">
         <v>1</v>
       </c>
       <c r="X45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" s="1">
         <v>44763.75</v>
       </c>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
       <c r="Q46">
         <v>1</v>
       </c>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
       <c r="W46">
         <v>1</v>
       </c>
       <c r="X46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" s="1">
         <v>44763.760416666664</v>
       </c>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
       <c r="Q47">
         <v>1</v>
       </c>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
       <c r="W47">
         <v>1</v>
       </c>
       <c r="X47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" s="1">
         <v>44763.770833333336</v>
       </c>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
       <c r="Q48">
         <v>1</v>
       </c>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
       <c r="W48">
         <v>1</v>
       </c>
       <c r="X48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" s="1">
         <v>44763.78125</v>
       </c>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
       <c r="Q49">
         <v>1</v>
       </c>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
       <c r="W49">
         <v>1</v>
       </c>
       <c r="X49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" s="1">
         <v>44763.791666666664</v>
       </c>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
       <c r="Q50">
         <v>1</v>
       </c>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
       <c r="W50">
         <v>1</v>
       </c>
       <c r="X50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51" s="1">
         <v>44763.802083333336</v>
       </c>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
       <c r="Q51">
         <v>1</v>
       </c>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
       <c r="W51">
         <v>1</v>
       </c>
       <c r="X51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" s="1">
         <v>44763.8125</v>
       </c>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
       <c r="Q52">
         <v>1</v>
       </c>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
       <c r="W52">
         <v>1</v>
       </c>
       <c r="X52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53" s="1">
         <v>44763.822916666664</v>
       </c>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
       <c r="Q53">
         <v>1</v>
       </c>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
       <c r="W53">
         <v>1</v>
       </c>
       <c r="X53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" s="1">
         <v>44763.833333333336</v>
       </c>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
       <c r="Q54">
         <v>1</v>
       </c>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
       <c r="W54">
         <v>1</v>
       </c>
       <c r="X54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" s="1">
         <v>44763.84375</v>
       </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
       <c r="Q55">
         <v>1</v>
       </c>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
       <c r="W55">
         <v>1</v>
       </c>
       <c r="X55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" s="1">
         <v>44763.854166666664</v>
       </c>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
       <c r="Q56">
         <v>1</v>
       </c>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
       <c r="W56">
         <v>1</v>
       </c>
       <c r="X56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" s="1">
         <v>44763.864583333336</v>
       </c>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
       <c r="Q57">
         <v>1</v>
       </c>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
       <c r="W57">
         <v>1</v>
       </c>
       <c r="X57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" s="1">
         <v>44763.875</v>
       </c>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
       <c r="Q58">
         <v>1</v>
       </c>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
       <c r="W58">
         <v>1</v>
       </c>
       <c r="X58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+    </row>
+    <row r="59" spans="1:31">
       <c r="A59" s="1">
         <v>44763.885416666664</v>
       </c>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
       <c r="Q59">
         <v>1</v>
       </c>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
       <c r="W59">
         <v>1</v>
       </c>
       <c r="X59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" s="1">
         <v>44763.895833333336</v>
       </c>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
       <c r="Q60">
         <v>1</v>
       </c>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
       <c r="W60">
         <v>1</v>
       </c>
       <c r="X60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" s="1">
         <v>44763.90625</v>
       </c>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
       <c r="Q61">
         <v>1</v>
       </c>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
       <c r="W61">
         <v>1</v>
       </c>
       <c r="X61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" s="1">
         <v>44763.916666666664</v>
       </c>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
       <c r="Q62">
         <v>1</v>
       </c>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
       <c r="W62">
         <v>1</v>
       </c>
       <c r="X62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+    </row>
+    <row r="63" spans="1:31">
       <c r="A63" s="1">
         <v>44763.927083333336</v>
       </c>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
       <c r="Q63">
         <v>1</v>
       </c>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
       <c r="W63">
         <v>1</v>
       </c>
       <c r="X63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+    </row>
+    <row r="64" spans="1:31">
       <c r="A64" s="1">
         <v>44763.9375</v>
       </c>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
       <c r="Q64">
         <v>1</v>
       </c>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
       <c r="W64">
         <v>1</v>
       </c>
       <c r="X64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+    </row>
+    <row r="65" spans="1:31">
       <c r="A65" s="1">
         <v>44763.947916666664</v>
       </c>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
       <c r="Q65">
         <v>1</v>
       </c>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
       <c r="W65">
         <v>1</v>
       </c>
       <c r="X65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
+    </row>
+    <row r="66" spans="1:31">
       <c r="A66" s="1">
         <v>44763.958333333336</v>
       </c>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
       <c r="Q66">
         <v>1</v>
       </c>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
       <c r="W66">
         <v>1</v>
       </c>
       <c r="X66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+    </row>
+    <row r="67" spans="1:31">
       <c r="A67" s="1">
         <v>44763.96875</v>
       </c>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
       <c r="Q67">
         <v>1</v>
       </c>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
       <c r="W67">
         <v>1</v>
       </c>
       <c r="X67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+      <c r="AE67"/>
+    </row>
+    <row r="68" spans="1:31">
       <c r="A68" s="1">
         <v>44763.979166666664</v>
       </c>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
       <c r="Q68">
         <v>1</v>
       </c>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
       <c r="W68">
         <v>1</v>
       </c>
       <c r="X68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+      <c r="AE68"/>
+    </row>
+    <row r="69" spans="1:31">
       <c r="A69" s="1">
         <v>44763.989583333336</v>
       </c>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
       <c r="Q69">
         <v>1</v>
       </c>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
       <c r="W69">
         <v>1</v>
       </c>
       <c r="X69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+      <c r="AE69"/>
+    </row>
+    <row r="70" spans="1:31">
       <c r="A70" s="1">
-        <v>44764</v>
-      </c>
+        <v>44764.0</v>
+      </c>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
       <c r="Q70">
         <v>1</v>
       </c>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
       <c r="W70">
         <v>1</v>
       </c>
       <c r="X70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+      <c r="AE70"/>
+    </row>
+    <row r="71" spans="1:31">
       <c r="A71" s="1">
         <v>44764.010416666664</v>
       </c>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
       <c r="Q71">
         <v>1</v>
       </c>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
       <c r="W71">
         <v>1</v>
       </c>
       <c r="X71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+      <c r="AE71"/>
+    </row>
+    <row r="72" spans="1:31">
       <c r="A72" s="1">
         <v>44764.020833333336</v>
       </c>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
       <c r="Q72">
         <v>1</v>
       </c>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
       <c r="W72">
         <v>1</v>
       </c>
       <c r="X72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+      <c r="AE72"/>
+    </row>
+    <row r="73" spans="1:31">
       <c r="A73" s="1">
         <v>44764.03125</v>
       </c>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
       <c r="Q73">
         <v>1</v>
       </c>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
       <c r="W73">
         <v>1</v>
       </c>
       <c r="X73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+      <c r="AE73"/>
+    </row>
+    <row r="74" spans="1:31">
       <c r="A74" s="1">
         <v>44764.041666666664</v>
       </c>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
       <c r="Q74">
         <v>1</v>
       </c>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
       <c r="W74">
         <v>1</v>
       </c>
       <c r="X74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+    </row>
+    <row r="75" spans="1:31">
       <c r="A75" s="1">
         <v>44764.052083333336</v>
       </c>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
       <c r="Q75">
         <v>1</v>
       </c>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
       <c r="W75">
         <v>1</v>
       </c>
       <c r="X75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+      <c r="AE75"/>
+    </row>
+    <row r="76" spans="1:31">
       <c r="A76" s="1">
         <v>44764.0625</v>
       </c>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
       <c r="Q76">
         <v>1</v>
       </c>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
       <c r="W76">
         <v>1</v>
       </c>
       <c r="X76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+      <c r="AE76"/>
+    </row>
+    <row r="77" spans="1:31">
       <c r="A77" s="1">
         <v>44764.072916666664</v>
       </c>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
       <c r="Q77">
         <v>1</v>
       </c>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
       <c r="W77">
         <v>1</v>
       </c>
       <c r="X77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+    </row>
+    <row r="78" spans="1:31">
       <c r="A78" s="1">
         <v>44764.083333333336</v>
       </c>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
       <c r="Q78">
         <v>1</v>
       </c>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
       <c r="W78">
         <v>1</v>
       </c>
       <c r="X78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+      <c r="AE78"/>
+    </row>
+    <row r="79" spans="1:31">
       <c r="A79" s="1">
         <v>44764.09375</v>
       </c>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
       <c r="Q79">
         <v>1</v>
       </c>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
       <c r="W79">
         <v>1</v>
       </c>
       <c r="X79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+    </row>
+    <row r="80" spans="1:31">
       <c r="A80" s="1">
         <v>44764.104166666664</v>
       </c>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
       <c r="Q80">
         <v>1</v>
       </c>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
       <c r="W80">
         <v>1</v>
       </c>
       <c r="X80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+    </row>
+    <row r="81" spans="1:31">
       <c r="A81" s="1">
         <v>44764.114583333336</v>
       </c>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
       <c r="Q81">
         <v>1</v>
       </c>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
       <c r="W81">
         <v>1</v>
       </c>
       <c r="X81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+    </row>
+    <row r="82" spans="1:31">
       <c r="A82" s="1">
         <v>44764.125</v>
       </c>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
       <c r="Q82">
         <v>1</v>
       </c>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
       <c r="W82">
         <v>1</v>
       </c>
       <c r="X82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+      <c r="AE82"/>
+    </row>
+    <row r="83" spans="1:31">
       <c r="A83" s="1">
         <v>44764.135416666664</v>
       </c>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
       <c r="Q83">
         <v>1</v>
       </c>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
       <c r="W83">
         <v>1</v>
       </c>
       <c r="X83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+    </row>
+    <row r="84" spans="1:31">
       <c r="A84" s="1">
         <v>44764.145833333336</v>
       </c>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
       <c r="Q84">
         <v>1</v>
       </c>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
       <c r="W84">
         <v>1</v>
       </c>
       <c r="X84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+      <c r="AE84"/>
+    </row>
+    <row r="85" spans="1:31">
       <c r="A85" s="1">
         <v>44764.15625</v>
       </c>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
       <c r="Q85">
         <v>1</v>
       </c>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
       <c r="W85">
         <v>1</v>
       </c>
       <c r="X85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+      <c r="AE85"/>
+    </row>
+    <row r="86" spans="1:31">
       <c r="A86" s="1">
         <v>44764.166666666664</v>
       </c>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
       <c r="Q86">
         <v>1</v>
       </c>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
       <c r="W86">
         <v>1</v>
       </c>
       <c r="X86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+      <c r="AE86"/>
+    </row>
+    <row r="87" spans="1:31">
       <c r="A87" s="1">
         <v>44764.177083333336</v>
       </c>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
       <c r="Q87">
         <v>1</v>
       </c>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
       <c r="W87">
         <v>1</v>
       </c>
       <c r="X87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+      <c r="AE87"/>
+    </row>
+    <row r="88" spans="1:31">
       <c r="A88" s="1">
         <v>44764.1875</v>
       </c>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
       <c r="Q88">
         <v>1</v>
       </c>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
       <c r="W88">
         <v>1</v>
       </c>
       <c r="X88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88"/>
+      <c r="AB88"/>
+      <c r="AC88"/>
+      <c r="AD88"/>
+      <c r="AE88"/>
+    </row>
+    <row r="89" spans="1:31">
       <c r="A89" s="1">
         <v>44764.197916666664</v>
       </c>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
       <c r="Q89">
         <v>1</v>
       </c>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
       <c r="W89">
         <v>1</v>
       </c>
       <c r="X89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+      <c r="AB89"/>
+      <c r="AC89"/>
+      <c r="AD89"/>
+      <c r="AE89"/>
+    </row>
+    <row r="90" spans="1:31">
       <c r="A90" s="1">
         <v>44764.208333333336</v>
       </c>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
       <c r="Q90">
         <v>1</v>
       </c>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
       <c r="W90">
         <v>1</v>
       </c>
       <c r="X90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90"/>
+      <c r="AB90"/>
+      <c r="AC90"/>
+      <c r="AD90"/>
+      <c r="AE90"/>
+    </row>
+    <row r="91" spans="1:31">
       <c r="A91" s="1">
         <v>44764.21875</v>
       </c>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
       <c r="Q91">
         <v>1</v>
       </c>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
       <c r="W91">
         <v>1</v>
       </c>
       <c r="X91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+      <c r="AB91"/>
+      <c r="AC91"/>
+      <c r="AD91"/>
+      <c r="AE91"/>
+    </row>
+    <row r="92" spans="1:31">
       <c r="A92" s="1">
         <v>44764.229166666664</v>
       </c>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
       <c r="Q92">
         <v>1</v>
       </c>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
       <c r="W92">
         <v>1</v>
       </c>
       <c r="X92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+      <c r="AC92"/>
+      <c r="AD92"/>
+      <c r="AE92"/>
+    </row>
+    <row r="93" spans="1:31">
       <c r="A93" s="1">
         <v>44764.239583333336</v>
       </c>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
       <c r="Q93">
         <v>1</v>
       </c>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
       <c r="W93">
         <v>1</v>
       </c>
       <c r="X93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+      <c r="AB93"/>
+      <c r="AC93"/>
+      <c r="AD93"/>
+      <c r="AE93"/>
+    </row>
+    <row r="94" spans="1:31">
       <c r="A94" s="1">
         <v>44764.25</v>
       </c>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
       <c r="Q94">
         <v>1</v>
       </c>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
       <c r="W94">
         <v>1</v>
       </c>
       <c r="X94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+      <c r="AC94"/>
+      <c r="AD94"/>
+      <c r="AE94"/>
+    </row>
+    <row r="95" spans="1:31">
       <c r="A95" s="1">
         <v>44764.260416666664</v>
       </c>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
       <c r="Q95">
         <v>1</v>
       </c>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
       <c r="W95">
         <v>1</v>
       </c>
       <c r="X95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+      <c r="AB95"/>
+      <c r="AC95"/>
+      <c r="AD95"/>
+      <c r="AE95"/>
+    </row>
+    <row r="96" spans="1:31">
       <c r="A96" s="1">
         <v>44764.270833333336</v>
       </c>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
       <c r="Q96">
         <v>1</v>
       </c>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
       <c r="W96">
         <v>1</v>
       </c>
       <c r="X96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y96"/>
+      <c r="Z96"/>
+      <c r="AA96"/>
+      <c r="AB96"/>
+      <c r="AC96"/>
+      <c r="AD96"/>
+      <c r="AE96"/>
+    </row>
+    <row r="97" spans="1:31">
       <c r="A97" s="1">
         <v>44764.28125</v>
       </c>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
       <c r="Q97">
         <v>1</v>
       </c>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
       <c r="W97">
         <v>1</v>
       </c>
       <c r="X97">
         <v>1</v>
       </c>
+      <c r="Y97"/>
+      <c r="Z97"/>
+      <c r="AA97"/>
+      <c r="AB97"/>
+      <c r="AC97"/>
+      <c r="AD97"/>
+      <c r="AE97"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/必开燃机列表.xlsx
+++ b/assets/必开燃机列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\TheFourthDispatcher\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyunhui/Code/TheFourthDispatcher/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84731DAA-9E84-41ED-AEA1-8EF5A569C001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA62D44-FD6B-4943-8AA7-DBFD4AAEF019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -480,12 +480,15 @@
   <dimension ref="A1:AE97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
         <v>44763.291666666664</v>
       </c>
@@ -594,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
         <v>44763.302083333336</v>
       </c>
@@ -608,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" s="1">
         <v>44763.3125</v>
       </c>
@@ -622,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="1">
         <v>44763.322916666664</v>
       </c>
@@ -636,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" s="1">
         <v>44763.333333333336</v>
       </c>
@@ -650,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" s="1">
         <v>44763.34375</v>
       </c>
@@ -664,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="1">
         <v>44763.354166666664</v>
       </c>
@@ -678,7 +681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="1">
         <v>44763.364583333336</v>
       </c>
@@ -692,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="1">
         <v>44763.375</v>
       </c>
@@ -706,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="1">
         <v>44763.385416666664</v>
       </c>
@@ -720,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="1">
         <v>44763.395833333336</v>
       </c>
@@ -734,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="1">
         <v>44763.40625</v>
       </c>
@@ -748,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="1">
         <v>44763.416666666664</v>
       </c>
@@ -762,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="1">
         <v>44763.427083333336</v>
       </c>
@@ -776,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="1">
         <v>44763.4375</v>
       </c>
@@ -790,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>44763.447916666664</v>
       </c>
@@ -804,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>44763.458333333336</v>
       </c>
@@ -818,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>44763.46875</v>
       </c>
@@ -832,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>44763.479166666664</v>
       </c>
@@ -846,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24">
       <c r="A21" s="1">
         <v>44763.489583333336</v>
       </c>
@@ -860,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24">
       <c r="A22" s="1">
         <v>44763.5</v>
       </c>
@@ -874,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24">
       <c r="A23" s="1">
         <v>44763.510416666664</v>
       </c>
@@ -888,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24">
       <c r="A24" s="1">
         <v>44763.520833333336</v>
       </c>
@@ -902,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24">
       <c r="A25" s="1">
         <v>44763.53125</v>
       </c>
@@ -916,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24">
       <c r="A26" s="1">
         <v>44763.541666666664</v>
       </c>
@@ -930,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24">
       <c r="A27" s="1">
         <v>44763.552083333336</v>
       </c>
@@ -944,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24">
       <c r="A28" s="1">
         <v>44763.5625</v>
       </c>
@@ -958,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24">
       <c r="A29" s="1">
         <v>44763.572916666664</v>
       </c>
@@ -972,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24">
       <c r="A30" s="1">
         <v>44763.583333333336</v>
       </c>
@@ -986,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24">
       <c r="A31" s="1">
         <v>44763.59375</v>
       </c>
@@ -1000,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24">
       <c r="A32" s="1">
         <v>44763.604166666664</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24">
       <c r="A33" s="1">
         <v>44763.614583333336</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24">
       <c r="A34" s="1">
         <v>44763.625</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24">
       <c r="A35" s="1">
         <v>44763.635416666664</v>
       </c>
@@ -1056,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24">
       <c r="A36" s="1">
         <v>44763.645833333336</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24">
       <c r="A37" s="1">
         <v>44763.65625</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24">
       <c r="A38" s="1">
         <v>44763.666666666664</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24">
       <c r="A39" s="1">
         <v>44763.677083333336</v>
       </c>
@@ -1112,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24">
       <c r="A40" s="1">
         <v>44763.6875</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24">
       <c r="A41" s="1">
         <v>44763.697916666664</v>
       </c>
@@ -1140,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24">
       <c r="A42" s="1">
         <v>44763.708333333336</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24">
       <c r="A43" s="1">
         <v>44763.71875</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24">
       <c r="A44" s="1">
         <v>44763.729166666664</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24">
       <c r="A45" s="1">
         <v>44763.739583333336</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24">
       <c r="A46" s="1">
         <v>44763.75</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24">
       <c r="A47" s="1">
         <v>44763.760416666664</v>
       </c>
@@ -1224,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24">
       <c r="A48" s="1">
         <v>44763.770833333336</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24">
       <c r="A49" s="1">
         <v>44763.78125</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24">
       <c r="A50" s="1">
         <v>44763.791666666664</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24">
       <c r="A51" s="1">
         <v>44763.802083333336</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24">
       <c r="A52" s="1">
         <v>44763.8125</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24">
       <c r="A53" s="1">
         <v>44763.822916666664</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24">
       <c r="A54" s="1">
         <v>44763.833333333336</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24">
       <c r="A55" s="1">
         <v>44763.84375</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24">
       <c r="A56" s="1">
         <v>44763.854166666664</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24">
       <c r="A57" s="1">
         <v>44763.864583333336</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24">
       <c r="A58" s="1">
         <v>44763.875</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24">
       <c r="A59" s="1">
         <v>44763.885416666664</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24">
       <c r="A60" s="1">
         <v>44763.895833333336</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24">
       <c r="A61" s="1">
         <v>44763.90625</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24">
       <c r="A62" s="1">
         <v>44763.916666666664</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24">
       <c r="A63" s="1">
         <v>44763.927083333336</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24">
       <c r="A64" s="1">
         <v>44763.9375</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24">
       <c r="A65" s="1">
         <v>44763.947916666664</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24">
       <c r="A66" s="1">
         <v>44763.958333333336</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24">
       <c r="A67" s="1">
         <v>44763.96875</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24">
       <c r="A68" s="1">
         <v>44763.979166666664</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24">
       <c r="A69" s="1">
         <v>44763.989583333336</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24">
       <c r="A70" s="1">
         <v>44764</v>
       </c>
@@ -1546,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24">
       <c r="A71" s="1">
         <v>44764.010416666664</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24">
       <c r="A72" s="1">
         <v>44764.020833333336</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24">
       <c r="A73" s="1">
         <v>44764.03125</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24">
       <c r="A74" s="1">
         <v>44764.041666666664</v>
       </c>
@@ -1602,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24">
       <c r="A75" s="1">
         <v>44764.052083333336</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24">
       <c r="A76" s="1">
         <v>44764.0625</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24">
       <c r="A77" s="1">
         <v>44764.072916666664</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24">
       <c r="A78" s="1">
         <v>44764.083333333336</v>
       </c>
@@ -1658,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24">
       <c r="A79" s="1">
         <v>44764.09375</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24">
       <c r="A80" s="1">
         <v>44764.104166666664</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24">
       <c r="A81" s="1">
         <v>44764.114583333336</v>
       </c>
@@ -1700,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24">
       <c r="A82" s="1">
         <v>44764.125</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24">
       <c r="A83" s="1">
         <v>44764.135416666664</v>
       </c>
@@ -1728,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24">
       <c r="A84" s="1">
         <v>44764.145833333336</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24">
       <c r="A85" s="1">
         <v>44764.15625</v>
       </c>
@@ -1756,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24">
       <c r="A86" s="1">
         <v>44764.166666666664</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24">
       <c r="A87" s="1">
         <v>44764.177083333336</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24">
       <c r="A88" s="1">
         <v>44764.1875</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24">
       <c r="A89" s="1">
         <v>44764.197916666664</v>
       </c>
@@ -1812,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24">
       <c r="A90" s="1">
         <v>44764.208333333336</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24">
       <c r="A91" s="1">
         <v>44764.21875</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24">
       <c r="A92" s="1">
         <v>44764.229166666664</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24">
       <c r="A93" s="1">
         <v>44764.239583333336</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24">
       <c r="A94" s="1">
         <v>44764.25</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24">
       <c r="A95" s="1">
         <v>44764.260416666664</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24">
       <c r="A96" s="1">
         <v>44764.270833333336</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24">
       <c r="A97" s="1">
         <v>44764.28125</v>
       </c>

--- a/assets/必开燃机列表.xlsx
+++ b/assets/必开燃机列表.xlsx
@@ -25,123 +25,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>时刻</t>
   </si>
   <si>
-    <t>半燃#1机</t>
+    <t>半燃厂#1机</t>
   </si>
   <si>
-    <t>半燃#2机</t>
+    <t>半燃厂#2机</t>
   </si>
   <si>
-    <t>半燃#3机</t>
+    <t>半燃厂#3机</t>
   </si>
   <si>
-    <t>半燃#4机</t>
+    <t>半燃厂#4机</t>
   </si>
   <si>
-    <t>半燃#5机</t>
+    <t>半燃厂#5机</t>
   </si>
   <si>
-    <t>半燃#6机</t>
+    <t>镇燃厂#1机</t>
   </si>
   <si>
-    <t>镇燃#1机</t>
+    <t>镇燃厂#2机</t>
   </si>
   <si>
-    <t>镇燃#2机</t>
+    <t>萧燃厂#1机</t>
   </si>
   <si>
-    <t>萧燃#1机</t>
+    <t>萧燃厂#2机</t>
   </si>
   <si>
-    <t>萧燃#2机</t>
+    <t>华舜厂#1机</t>
   </si>
   <si>
-    <t>萧燃#3机</t>
+    <t>华舜厂#2机</t>
   </si>
   <si>
-    <t>华舜#1机</t>
+    <t>蓝天厂#1机</t>
   </si>
   <si>
-    <t>华舜#2机</t>
+    <t>德能厂#1机</t>
   </si>
   <si>
-    <t>唐绍#1机</t>
+    <t>唐绍厂#1机</t>
   </si>
   <si>
-    <t>唐绍#2机</t>
+    <t>唐绍厂#2机</t>
   </si>
   <si>
-    <t>桐燃#1机</t>
+    <t>长燃厂#1机</t>
   </si>
   <si>
-    <t>江东#1机</t>
+    <t>长燃厂#2机</t>
   </si>
   <si>
-    <t>江东#2机</t>
+    <t>新城厂#1机</t>
   </si>
   <si>
-    <t>长燃#1机</t>
-  </si>
-  <si>
-    <t>长燃#2机</t>
-  </si>
-  <si>
-    <t>常山#1机</t>
-  </si>
-  <si>
-    <t>新城#1机</t>
-  </si>
-  <si>
-    <t>新城#2机</t>
-  </si>
-  <si>
-    <t>下沙#1机</t>
-  </si>
-  <si>
-    <t>下沙#2机</t>
-  </si>
-  <si>
-    <t>金华#1机</t>
-  </si>
-  <si>
-    <t>龙游#1机</t>
-  </si>
-  <si>
-    <t>龙游#2机</t>
-  </si>
-  <si>
-    <t>浔宝#1机</t>
-  </si>
-  <si>
-    <t>龙湾#1机</t>
-  </si>
-  <si>
-    <t>龙湾#2机</t>
+    <t>下沙厂#1机</t>
   </si>
   <si>
     <t>新泓口#1机</t>
   </si>
   <si>
-    <t>镇油#1机</t>
+    <t>常山厂#1机</t>
   </si>
   <si>
-    <t>镇油#2机</t>
+    <t>桐燃厂#1机</t>
   </si>
   <si>
-    <t>蓝天#1机</t>
+    <t>金油气#1机</t>
   </si>
   <si>
-    <t>蓝天#2机</t>
+    <t>江东厂#1机</t>
   </si>
   <si>
-    <t>柯城#1机</t>
+    <t>江东厂#2机</t>
   </si>
   <si>
-    <t>柯城#2机</t>
+    <t>龙游厂#1机</t>
+  </si>
+  <si>
+    <t>龙游厂#2机</t>
+  </si>
+  <si>
+    <t>浔宝厂#1机</t>
+  </si>
+  <si>
+    <t>龙油气#1机</t>
+  </si>
+  <si>
+    <t>龙油气#2机</t>
   </si>
 </sst>
 </file>
@@ -494,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:AM97"/>
+  <dimension ref="A1:AE162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,34 +570,10 @@
       <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39">
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="1">
-        <v>44755.291666666664</v>
+        <v>44762.666666666664</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -629,25 +581,19 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2">
-        <v>1</v>
-      </c>
+      <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
-      <c r="M2">
-        <v>1</v>
-      </c>
+      <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
-      <c r="T2">
-        <v>1</v>
-      </c>
+      <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
       <c r="W2"/>
@@ -659,18 +605,10 @@
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-    </row>
-    <row r="3" spans="1:39">
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="1">
-        <v>44755.302083333336</v>
+        <v>44762.677083333336</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -678,25 +616,19 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3">
-        <v>1</v>
-      </c>
+      <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3">
-        <v>1</v>
-      </c>
+      <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
       <c r="S3"/>
-      <c r="T3">
-        <v>1</v>
-      </c>
+      <c r="T3"/>
       <c r="U3"/>
       <c r="V3"/>
       <c r="W3"/>
@@ -708,18 +640,10 @@
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
-      <c r="AJ3"/>
-      <c r="AK3"/>
-      <c r="AL3"/>
-      <c r="AM3"/>
-    </row>
-    <row r="4" spans="1:39">
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="1">
-        <v>44755.3125</v>
+        <v>44762.6875</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -727,25 +651,19 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4">
-        <v>1</v>
-      </c>
+      <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
-      <c r="M4">
-        <v>1</v>
-      </c>
+      <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
       <c r="S4"/>
-      <c r="T4">
-        <v>1</v>
-      </c>
+      <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4"/>
@@ -757,18 +675,10 @@
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
-      <c r="AJ4"/>
-      <c r="AK4"/>
-      <c r="AL4"/>
-      <c r="AM4"/>
-    </row>
-    <row r="5" spans="1:39">
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="1">
-        <v>44755.322916666664</v>
+        <v>44762.697916666664</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -776,25 +686,19 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5">
-        <v>1</v>
-      </c>
+      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5">
-        <v>1</v>
-      </c>
+      <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
-      <c r="T5">
-        <v>1</v>
-      </c>
+      <c r="T5"/>
       <c r="U5"/>
       <c r="V5"/>
       <c r="W5"/>
@@ -806,18 +710,10 @@
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
-      <c r="AJ5"/>
-      <c r="AK5"/>
-      <c r="AL5"/>
-      <c r="AM5"/>
-    </row>
-    <row r="6" spans="1:39">
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="1">
-        <v>44755.333333333336</v>
+        <v>44762.708333333336</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -825,25 +721,19 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6">
-        <v>1</v>
-      </c>
+      <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
-      <c r="M6">
-        <v>1</v>
-      </c>
+      <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6">
-        <v>1</v>
-      </c>
+      <c r="T6"/>
       <c r="U6"/>
       <c r="V6"/>
       <c r="W6"/>
@@ -855,18 +745,10 @@
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
-      <c r="AF6"/>
-      <c r="AG6"/>
-      <c r="AH6"/>
-      <c r="AI6"/>
-      <c r="AJ6"/>
-      <c r="AK6"/>
-      <c r="AL6"/>
-      <c r="AM6"/>
-    </row>
-    <row r="7" spans="1:39">
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="1">
-        <v>44755.34375</v>
+        <v>44762.71875</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -874,25 +756,19 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="H7">
-        <v>1</v>
-      </c>
+      <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="M7">
-        <v>1</v>
-      </c>
+      <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
-      <c r="T7">
-        <v>1</v>
-      </c>
+      <c r="T7"/>
       <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
@@ -904,18 +780,10 @@
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
-      <c r="AF7"/>
-      <c r="AG7"/>
-      <c r="AH7"/>
-      <c r="AI7"/>
-      <c r="AJ7"/>
-      <c r="AK7"/>
-      <c r="AL7"/>
-      <c r="AM7"/>
-    </row>
-    <row r="8" spans="1:39">
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="1">
-        <v>44755.354166666664</v>
+        <v>44762.729166666664</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -923,25 +791,19 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8">
-        <v>1</v>
-      </c>
+      <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8">
-        <v>1</v>
-      </c>
+      <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
-      <c r="T8">
-        <v>1</v>
-      </c>
+      <c r="T8"/>
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
@@ -953,18 +815,10 @@
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
-      <c r="AF8"/>
-      <c r="AG8"/>
-      <c r="AH8"/>
-      <c r="AI8"/>
-      <c r="AJ8"/>
-      <c r="AK8"/>
-      <c r="AL8"/>
-      <c r="AM8"/>
-    </row>
-    <row r="9" spans="1:39">
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="1">
-        <v>44755.364583333336</v>
+        <v>44762.739583333336</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -972,25 +826,19 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9">
-        <v>1</v>
-      </c>
+      <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="M9">
-        <v>1</v>
-      </c>
+      <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
-      <c r="T9">
-        <v>1</v>
-      </c>
+      <c r="T9"/>
       <c r="U9"/>
       <c r="V9"/>
       <c r="W9"/>
@@ -1002,18 +850,10 @@
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
-      <c r="AM9"/>
-    </row>
-    <row r="10" spans="1:39">
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="1">
-        <v>44755.375</v>
+        <v>44762.75</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -1021,25 +861,19 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10">
-        <v>1</v>
-      </c>
+      <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
-      <c r="M10">
-        <v>1</v>
-      </c>
+      <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
-      <c r="T10">
-        <v>1</v>
-      </c>
+      <c r="T10"/>
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
@@ -1051,18 +885,10 @@
       <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
-      <c r="AF10"/>
-      <c r="AG10"/>
-      <c r="AH10"/>
-      <c r="AI10"/>
-      <c r="AJ10"/>
-      <c r="AK10"/>
-      <c r="AL10"/>
-      <c r="AM10"/>
-    </row>
-    <row r="11" spans="1:39">
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="1">
-        <v>44755.385416666664</v>
+        <v>44762.760416666664</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -1070,25 +896,19 @@
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="H11">
-        <v>1</v>
-      </c>
+      <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="M11">
-        <v>1</v>
-      </c>
+      <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
-      <c r="T11">
-        <v>1</v>
-      </c>
+      <c r="T11"/>
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
@@ -1100,18 +920,10 @@
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-      <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11"/>
-      <c r="AK11"/>
-      <c r="AL11"/>
-      <c r="AM11"/>
-    </row>
-    <row r="12" spans="1:39">
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="1">
-        <v>44755.395833333336</v>
+        <v>44762.770833333336</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -1119,25 +931,19 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12">
-        <v>1</v>
-      </c>
+      <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
-      <c r="M12">
-        <v>1</v>
-      </c>
+      <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
-      <c r="T12">
-        <v>1</v>
-      </c>
+      <c r="T12"/>
       <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
@@ -1149,18 +955,10 @@
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12"/>
-      <c r="AF12"/>
-      <c r="AG12"/>
-      <c r="AH12"/>
-      <c r="AI12"/>
-      <c r="AJ12"/>
-      <c r="AK12"/>
-      <c r="AL12"/>
-      <c r="AM12"/>
-    </row>
-    <row r="13" spans="1:39">
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="1">
-        <v>44755.40625</v>
+        <v>44762.78125</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -1168,25 +966,19 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13">
-        <v>1</v>
-      </c>
+      <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-      <c r="M13">
-        <v>1</v>
-      </c>
+      <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
-      <c r="T13">
-        <v>1</v>
-      </c>
+      <c r="T13"/>
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
@@ -1198,18 +990,10 @@
       <c r="AC13"/>
       <c r="AD13"/>
       <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-      <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13"/>
-      <c r="AK13"/>
-      <c r="AL13"/>
-      <c r="AM13"/>
-    </row>
-    <row r="14" spans="1:39">
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="1">
-        <v>44755.416666666664</v>
+        <v>44762.791666666664</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -1217,25 +1001,19 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="H14">
-        <v>1</v>
-      </c>
+      <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-      <c r="M14">
-        <v>1</v>
-      </c>
+      <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
       <c r="S14"/>
-      <c r="T14">
-        <v>1</v>
-      </c>
+      <c r="T14"/>
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14"/>
@@ -1247,18 +1025,10 @@
       <c r="AC14"/>
       <c r="AD14"/>
       <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
-      <c r="AH14"/>
-      <c r="AI14"/>
-      <c r="AJ14"/>
-      <c r="AK14"/>
-      <c r="AL14"/>
-      <c r="AM14"/>
-    </row>
-    <row r="15" spans="1:39">
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="1">
-        <v>44755.427083333336</v>
+        <v>44762.802083333336</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -1266,25 +1036,19 @@
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="H15">
-        <v>1</v>
-      </c>
+      <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-      <c r="M15">
-        <v>1</v>
-      </c>
+      <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
       <c r="S15"/>
-      <c r="T15">
-        <v>1</v>
-      </c>
+      <c r="T15"/>
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
@@ -1296,18 +1060,10 @@
       <c r="AC15"/>
       <c r="AD15"/>
       <c r="AE15"/>
-      <c r="AF15"/>
-      <c r="AG15"/>
-      <c r="AH15"/>
-      <c r="AI15"/>
-      <c r="AJ15"/>
-      <c r="AK15"/>
-      <c r="AL15"/>
-      <c r="AM15"/>
-    </row>
-    <row r="16" spans="1:39">
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="1">
-        <v>44755.4375</v>
+        <v>44762.8125</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -1315,25 +1071,19 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16">
-        <v>1</v>
-      </c>
+      <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="M16">
-        <v>1</v>
-      </c>
+      <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
       <c r="S16"/>
-      <c r="T16">
-        <v>1</v>
-      </c>
+      <c r="T16"/>
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16"/>
@@ -1345,18 +1095,10 @@
       <c r="AC16"/>
       <c r="AD16"/>
       <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16"/>
-      <c r="AK16"/>
-      <c r="AL16"/>
-      <c r="AM16"/>
-    </row>
-    <row r="17" spans="1:39">
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="1">
-        <v>44755.447916666664</v>
+        <v>44762.822916666664</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -1364,25 +1106,19 @@
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="H17">
-        <v>1</v>
-      </c>
+      <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="M17">
-        <v>1</v>
-      </c>
+      <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
       <c r="S17"/>
-      <c r="T17">
-        <v>1</v>
-      </c>
+      <c r="T17"/>
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
@@ -1394,18 +1130,10 @@
       <c r="AC17"/>
       <c r="AD17"/>
       <c r="AE17"/>
-      <c r="AF17"/>
-      <c r="AG17"/>
-      <c r="AH17"/>
-      <c r="AI17"/>
-      <c r="AJ17"/>
-      <c r="AK17"/>
-      <c r="AL17"/>
-      <c r="AM17"/>
-    </row>
-    <row r="18" spans="1:39">
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="1">
-        <v>44755.458333333336</v>
+        <v>44762.833333333336</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -1413,25 +1141,19 @@
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
-      <c r="H18">
-        <v>1</v>
-      </c>
+      <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="M18">
-        <v>1</v>
-      </c>
+      <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
-      <c r="T18">
-        <v>1</v>
-      </c>
+      <c r="T18"/>
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
@@ -1443,18 +1165,10 @@
       <c r="AC18"/>
       <c r="AD18"/>
       <c r="AE18"/>
-      <c r="AF18"/>
-      <c r="AG18"/>
-      <c r="AH18"/>
-      <c r="AI18"/>
-      <c r="AJ18"/>
-      <c r="AK18"/>
-      <c r="AL18"/>
-      <c r="AM18"/>
-    </row>
-    <row r="19" spans="1:39">
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" s="1">
-        <v>44755.46875</v>
+        <v>44762.84375</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -1462,25 +1176,19 @@
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="H19">
-        <v>1</v>
-      </c>
+      <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="M19">
-        <v>1</v>
-      </c>
+      <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
-      <c r="T19">
-        <v>1</v>
-      </c>
+      <c r="T19"/>
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
@@ -1492,18 +1200,10 @@
       <c r="AC19"/>
       <c r="AD19"/>
       <c r="AE19"/>
-      <c r="AF19"/>
-      <c r="AG19"/>
-      <c r="AH19"/>
-      <c r="AI19"/>
-      <c r="AJ19"/>
-      <c r="AK19"/>
-      <c r="AL19"/>
-      <c r="AM19"/>
-    </row>
-    <row r="20" spans="1:39">
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="1">
-        <v>44755.479166666664</v>
+        <v>44762.854166666664</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -1511,25 +1211,19 @@
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="H20">
-        <v>1</v>
-      </c>
+      <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20">
-        <v>1</v>
-      </c>
+      <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
       <c r="S20"/>
-      <c r="T20">
-        <v>1</v>
-      </c>
+      <c r="T20"/>
       <c r="U20"/>
       <c r="V20"/>
       <c r="W20"/>
@@ -1541,18 +1235,10 @@
       <c r="AC20"/>
       <c r="AD20"/>
       <c r="AE20"/>
-      <c r="AF20"/>
-      <c r="AG20"/>
-      <c r="AH20"/>
-      <c r="AI20"/>
-      <c r="AJ20"/>
-      <c r="AK20"/>
-      <c r="AL20"/>
-      <c r="AM20"/>
-    </row>
-    <row r="21" spans="1:39">
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="1">
-        <v>44755.489583333336</v>
+        <v>44762.864583333336</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -1560,25 +1246,19 @@
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="H21">
-        <v>1</v>
-      </c>
+      <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="M21">
-        <v>1</v>
-      </c>
+      <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
       <c r="S21"/>
-      <c r="T21">
-        <v>1</v>
-      </c>
+      <c r="T21"/>
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21"/>
@@ -1590,18 +1270,10 @@
       <c r="AC21"/>
       <c r="AD21"/>
       <c r="AE21"/>
-      <c r="AF21"/>
-      <c r="AG21"/>
-      <c r="AH21"/>
-      <c r="AI21"/>
-      <c r="AJ21"/>
-      <c r="AK21"/>
-      <c r="AL21"/>
-      <c r="AM21"/>
-    </row>
-    <row r="22" spans="1:39">
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="1">
-        <v>44755.5</v>
+        <v>44762.875</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -1609,25 +1281,19 @@
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
-      <c r="H22">
-        <v>1</v>
-      </c>
+      <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22">
-        <v>1</v>
-      </c>
+      <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
       <c r="S22"/>
-      <c r="T22">
-        <v>1</v>
-      </c>
+      <c r="T22"/>
       <c r="U22"/>
       <c r="V22"/>
       <c r="W22"/>
@@ -1639,18 +1305,10 @@
       <c r="AC22"/>
       <c r="AD22"/>
       <c r="AE22"/>
-      <c r="AF22"/>
-      <c r="AG22"/>
-      <c r="AH22"/>
-      <c r="AI22"/>
-      <c r="AJ22"/>
-      <c r="AK22"/>
-      <c r="AL22"/>
-      <c r="AM22"/>
-    </row>
-    <row r="23" spans="1:39">
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" s="1">
-        <v>44755.510416666664</v>
+        <v>44762.885416666664</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -1658,25 +1316,19 @@
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23">
-        <v>1</v>
-      </c>
+      <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
-      <c r="M23">
-        <v>1</v>
-      </c>
+      <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
-      <c r="T23">
-        <v>1</v>
-      </c>
+      <c r="T23"/>
       <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
@@ -1688,18 +1340,10 @@
       <c r="AC23"/>
       <c r="AD23"/>
       <c r="AE23"/>
-      <c r="AF23"/>
-      <c r="AG23"/>
-      <c r="AH23"/>
-      <c r="AI23"/>
-      <c r="AJ23"/>
-      <c r="AK23"/>
-      <c r="AL23"/>
-      <c r="AM23"/>
-    </row>
-    <row r="24" spans="1:39">
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" s="1">
-        <v>44755.520833333336</v>
+        <v>44762.895833333336</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -1707,25 +1351,19 @@
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24">
-        <v>1</v>
-      </c>
+      <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
-      <c r="M24">
-        <v>1</v>
-      </c>
+      <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
-      <c r="T24">
-        <v>1</v>
-      </c>
+      <c r="T24"/>
       <c r="U24"/>
       <c r="V24"/>
       <c r="W24"/>
@@ -1737,18 +1375,10 @@
       <c r="AC24"/>
       <c r="AD24"/>
       <c r="AE24"/>
-      <c r="AF24"/>
-      <c r="AG24"/>
-      <c r="AH24"/>
-      <c r="AI24"/>
-      <c r="AJ24"/>
-      <c r="AK24"/>
-      <c r="AL24"/>
-      <c r="AM24"/>
-    </row>
-    <row r="25" spans="1:39">
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" s="1">
-        <v>44755.53125</v>
+        <v>44762.90625</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -1756,25 +1386,19 @@
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="H25">
-        <v>1</v>
-      </c>
+      <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
-      <c r="M25">
-        <v>1</v>
-      </c>
+      <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
       <c r="S25"/>
-      <c r="T25">
-        <v>1</v>
-      </c>
+      <c r="T25"/>
       <c r="U25"/>
       <c r="V25"/>
       <c r="W25"/>
@@ -1786,18 +1410,10 @@
       <c r="AC25"/>
       <c r="AD25"/>
       <c r="AE25"/>
-      <c r="AF25"/>
-      <c r="AG25"/>
-      <c r="AH25"/>
-      <c r="AI25"/>
-      <c r="AJ25"/>
-      <c r="AK25"/>
-      <c r="AL25"/>
-      <c r="AM25"/>
-    </row>
-    <row r="26" spans="1:39">
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" s="1">
-        <v>44755.541666666664</v>
+        <v>44762.916666666664</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -1805,25 +1421,19 @@
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26">
-        <v>1</v>
-      </c>
+      <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
-      <c r="M26">
-        <v>1</v>
-      </c>
+      <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26"/>
       <c r="S26"/>
-      <c r="T26">
-        <v>1</v>
-      </c>
+      <c r="T26"/>
       <c r="U26"/>
       <c r="V26"/>
       <c r="W26"/>
@@ -1835,18 +1445,10 @@
       <c r="AC26"/>
       <c r="AD26"/>
       <c r="AE26"/>
-      <c r="AF26"/>
-      <c r="AG26"/>
-      <c r="AH26"/>
-      <c r="AI26"/>
-      <c r="AJ26"/>
-      <c r="AK26"/>
-      <c r="AL26"/>
-      <c r="AM26"/>
-    </row>
-    <row r="27" spans="1:39">
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" s="1">
-        <v>44755.552083333336</v>
+        <v>44762.927083333336</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -1854,25 +1456,19 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="H27">
-        <v>1</v>
-      </c>
+      <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27">
-        <v>1</v>
-      </c>
+      <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
-      <c r="T27">
-        <v>1</v>
-      </c>
+      <c r="T27"/>
       <c r="U27"/>
       <c r="V27"/>
       <c r="W27"/>
@@ -1884,18 +1480,10 @@
       <c r="AC27"/>
       <c r="AD27"/>
       <c r="AE27"/>
-      <c r="AF27"/>
-      <c r="AG27"/>
-      <c r="AH27"/>
-      <c r="AI27"/>
-      <c r="AJ27"/>
-      <c r="AK27"/>
-      <c r="AL27"/>
-      <c r="AM27"/>
-    </row>
-    <row r="28" spans="1:39">
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" s="1">
-        <v>44755.5625</v>
+        <v>44762.9375</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -1903,25 +1491,19 @@
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="H28">
-        <v>1</v>
-      </c>
+      <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
-      <c r="M28">
-        <v>1</v>
-      </c>
+      <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
-      <c r="T28">
-        <v>1</v>
-      </c>
+      <c r="T28"/>
       <c r="U28"/>
       <c r="V28"/>
       <c r="W28"/>
@@ -1933,18 +1515,10 @@
       <c r="AC28"/>
       <c r="AD28"/>
       <c r="AE28"/>
-      <c r="AF28"/>
-      <c r="AG28"/>
-      <c r="AH28"/>
-      <c r="AI28"/>
-      <c r="AJ28"/>
-      <c r="AK28"/>
-      <c r="AL28"/>
-      <c r="AM28"/>
-    </row>
-    <row r="29" spans="1:39">
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" s="1">
-        <v>44755.572916666664</v>
+        <v>44762.947916666664</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -1952,25 +1526,19 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="H29">
-        <v>1</v>
-      </c>
+      <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
-      <c r="M29">
-        <v>1</v>
-      </c>
+      <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
-      <c r="T29">
-        <v>1</v>
-      </c>
+      <c r="T29"/>
       <c r="U29"/>
       <c r="V29"/>
       <c r="W29"/>
@@ -1982,18 +1550,10 @@
       <c r="AC29"/>
       <c r="AD29"/>
       <c r="AE29"/>
-      <c r="AF29"/>
-      <c r="AG29"/>
-      <c r="AH29"/>
-      <c r="AI29"/>
-      <c r="AJ29"/>
-      <c r="AK29"/>
-      <c r="AL29"/>
-      <c r="AM29"/>
-    </row>
-    <row r="30" spans="1:39">
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" s="1">
-        <v>44755.583333333336</v>
+        <v>44762.958333333336</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -2001,25 +1561,19 @@
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="H30">
-        <v>1</v>
-      </c>
+      <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
-      <c r="M30">
-        <v>1</v>
-      </c>
+      <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30"/>
-      <c r="T30">
-        <v>1</v>
-      </c>
+      <c r="T30"/>
       <c r="U30"/>
       <c r="V30"/>
       <c r="W30"/>
@@ -2031,18 +1585,10 @@
       <c r="AC30"/>
       <c r="AD30"/>
       <c r="AE30"/>
-      <c r="AF30"/>
-      <c r="AG30"/>
-      <c r="AH30"/>
-      <c r="AI30"/>
-      <c r="AJ30"/>
-      <c r="AK30"/>
-      <c r="AL30"/>
-      <c r="AM30"/>
-    </row>
-    <row r="31" spans="1:39">
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" s="1">
-        <v>44755.59375</v>
+        <v>44762.96875</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -2050,25 +1596,19 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="H31">
-        <v>1</v>
-      </c>
+      <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
-      <c r="M31">
-        <v>1</v>
-      </c>
+      <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31"/>
       <c r="S31"/>
-      <c r="T31">
-        <v>1</v>
-      </c>
+      <c r="T31"/>
       <c r="U31"/>
       <c r="V31"/>
       <c r="W31"/>
@@ -2080,18 +1620,10 @@
       <c r="AC31"/>
       <c r="AD31"/>
       <c r="AE31"/>
-      <c r="AF31"/>
-      <c r="AG31"/>
-      <c r="AH31"/>
-      <c r="AI31"/>
-      <c r="AJ31"/>
-      <c r="AK31"/>
-      <c r="AL31"/>
-      <c r="AM31"/>
-    </row>
-    <row r="32" spans="1:39">
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" s="1">
-        <v>44755.604166666664</v>
+        <v>44762.979166666664</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -2099,25 +1631,19 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="H32">
-        <v>1</v>
-      </c>
+      <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
-      <c r="M32">
-        <v>1</v>
-      </c>
+      <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32"/>
-      <c r="T32">
-        <v>1</v>
-      </c>
+      <c r="T32"/>
       <c r="U32"/>
       <c r="V32"/>
       <c r="W32"/>
@@ -2129,18 +1655,10 @@
       <c r="AC32"/>
       <c r="AD32"/>
       <c r="AE32"/>
-      <c r="AF32"/>
-      <c r="AG32"/>
-      <c r="AH32"/>
-      <c r="AI32"/>
-      <c r="AJ32"/>
-      <c r="AK32"/>
-      <c r="AL32"/>
-      <c r="AM32"/>
-    </row>
-    <row r="33" spans="1:39">
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" s="1">
-        <v>44755.614583333336</v>
+        <v>44762.989583333336</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -2148,25 +1666,19 @@
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
-      <c r="H33">
-        <v>1</v>
-      </c>
+      <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
-      <c r="M33">
-        <v>1</v>
-      </c>
+      <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
-      <c r="T33">
-        <v>1</v>
-      </c>
+      <c r="T33"/>
       <c r="U33"/>
       <c r="V33"/>
       <c r="W33"/>
@@ -2178,18 +1690,10 @@
       <c r="AC33"/>
       <c r="AD33"/>
       <c r="AE33"/>
-      <c r="AF33"/>
-      <c r="AG33"/>
-      <c r="AH33"/>
-      <c r="AI33"/>
-      <c r="AJ33"/>
-      <c r="AK33"/>
-      <c r="AL33"/>
-      <c r="AM33"/>
-    </row>
-    <row r="34" spans="1:39">
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" s="1">
-        <v>44755.625</v>
+        <v>44763.0</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -2197,25 +1701,19 @@
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
-      <c r="H34">
-        <v>1</v>
-      </c>
+      <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
-      <c r="M34">
-        <v>1</v>
-      </c>
+      <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
-      <c r="T34">
-        <v>1</v>
-      </c>
+      <c r="T34"/>
       <c r="U34"/>
       <c r="V34"/>
       <c r="W34"/>
@@ -2227,18 +1725,10 @@
       <c r="AC34"/>
       <c r="AD34"/>
       <c r="AE34"/>
-      <c r="AF34"/>
-      <c r="AG34"/>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34"/>
-      <c r="AK34"/>
-      <c r="AL34"/>
-      <c r="AM34"/>
-    </row>
-    <row r="35" spans="1:39">
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" s="1">
-        <v>44755.635416666664</v>
+        <v>44763.010416666664</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
@@ -2246,28 +1736,24 @@
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
-      <c r="H35">
-        <v>1</v>
-      </c>
+      <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
-      <c r="M35">
-        <v>1</v>
-      </c>
+      <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
-      <c r="T35">
-        <v>1</v>
-      </c>
+      <c r="T35"/>
       <c r="U35"/>
       <c r="V35"/>
-      <c r="W35"/>
+      <c r="W35">
+        <v>1</v>
+      </c>
       <c r="X35"/>
       <c r="Y35"/>
       <c r="Z35"/>
@@ -2276,18 +1762,10 @@
       <c r="AC35"/>
       <c r="AD35"/>
       <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35"/>
-      <c r="AM35"/>
-    </row>
-    <row r="36" spans="1:39">
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" s="1">
-        <v>44755.645833333336</v>
+        <v>44763.020833333336</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
@@ -2295,28 +1773,24 @@
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
-      <c r="H36">
-        <v>1</v>
-      </c>
+      <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
-      <c r="M36">
-        <v>1</v>
-      </c>
+      <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36"/>
-      <c r="T36">
-        <v>1</v>
-      </c>
+      <c r="T36"/>
       <c r="U36"/>
       <c r="V36"/>
-      <c r="W36"/>
+      <c r="W36">
+        <v>1</v>
+      </c>
       <c r="X36"/>
       <c r="Y36"/>
       <c r="Z36"/>
@@ -2325,18 +1799,10 @@
       <c r="AC36"/>
       <c r="AD36"/>
       <c r="AE36"/>
-      <c r="AF36"/>
-      <c r="AG36"/>
-      <c r="AH36"/>
-      <c r="AI36"/>
-      <c r="AJ36"/>
-      <c r="AK36"/>
-      <c r="AL36"/>
-      <c r="AM36"/>
-    </row>
-    <row r="37" spans="1:39">
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" s="1">
-        <v>44755.65625</v>
+        <v>44763.03125</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
@@ -2344,28 +1810,24 @@
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
-      <c r="H37">
-        <v>1</v>
-      </c>
+      <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
-      <c r="M37">
-        <v>1</v>
-      </c>
+      <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
-      <c r="T37">
-        <v>1</v>
-      </c>
+      <c r="T37"/>
       <c r="U37"/>
       <c r="V37"/>
-      <c r="W37"/>
+      <c r="W37">
+        <v>1</v>
+      </c>
       <c r="X37"/>
       <c r="Y37"/>
       <c r="Z37"/>
@@ -2374,18 +1836,10 @@
       <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37"/>
-      <c r="AF37"/>
-      <c r="AG37"/>
-      <c r="AH37"/>
-      <c r="AI37"/>
-      <c r="AJ37"/>
-      <c r="AK37"/>
-      <c r="AL37"/>
-      <c r="AM37"/>
-    </row>
-    <row r="38" spans="1:39">
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" s="1">
-        <v>44755.666666666664</v>
+        <v>44763.041666666664</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
@@ -2393,28 +1847,24 @@
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
-      <c r="H38">
-        <v>1</v>
-      </c>
+      <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
-      <c r="M38">
-        <v>1</v>
-      </c>
+      <c r="M38"/>
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38"/>
-      <c r="T38">
-        <v>1</v>
-      </c>
+      <c r="T38"/>
       <c r="U38"/>
       <c r="V38"/>
-      <c r="W38"/>
+      <c r="W38">
+        <v>1</v>
+      </c>
       <c r="X38"/>
       <c r="Y38"/>
       <c r="Z38"/>
@@ -2423,18 +1873,10 @@
       <c r="AC38"/>
       <c r="AD38"/>
       <c r="AE38"/>
-      <c r="AF38"/>
-      <c r="AG38"/>
-      <c r="AH38"/>
-      <c r="AI38"/>
-      <c r="AJ38"/>
-      <c r="AK38"/>
-      <c r="AL38"/>
-      <c r="AM38"/>
-    </row>
-    <row r="39" spans="1:39">
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" s="1">
-        <v>44755.677083333336</v>
+        <v>44763.052083333336</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
@@ -2442,28 +1884,24 @@
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
-      <c r="H39">
-        <v>1</v>
-      </c>
+      <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
-      <c r="M39">
-        <v>1</v>
-      </c>
+      <c r="M39"/>
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
-      <c r="T39">
-        <v>1</v>
-      </c>
+      <c r="T39"/>
       <c r="U39"/>
       <c r="V39"/>
-      <c r="W39"/>
+      <c r="W39">
+        <v>1</v>
+      </c>
       <c r="X39"/>
       <c r="Y39"/>
       <c r="Z39"/>
@@ -2472,18 +1910,10 @@
       <c r="AC39"/>
       <c r="AD39"/>
       <c r="AE39"/>
-      <c r="AF39"/>
-      <c r="AG39"/>
-      <c r="AH39"/>
-      <c r="AI39"/>
-      <c r="AJ39"/>
-      <c r="AK39"/>
-      <c r="AL39"/>
-      <c r="AM39"/>
-    </row>
-    <row r="40" spans="1:39">
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" s="1">
-        <v>44755.6875</v>
+        <v>44763.0625</v>
       </c>
       <c r="B40"/>
       <c r="C40"/>
@@ -2491,28 +1921,24 @@
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
-      <c r="H40">
-        <v>1</v>
-      </c>
+      <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
-      <c r="M40">
-        <v>1</v>
-      </c>
+      <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
-      <c r="T40">
-        <v>1</v>
-      </c>
+      <c r="T40"/>
       <c r="U40"/>
       <c r="V40"/>
-      <c r="W40"/>
+      <c r="W40">
+        <v>1</v>
+      </c>
       <c r="X40"/>
       <c r="Y40"/>
       <c r="Z40"/>
@@ -2521,18 +1947,10 @@
       <c r="AC40"/>
       <c r="AD40"/>
       <c r="AE40"/>
-      <c r="AF40"/>
-      <c r="AG40"/>
-      <c r="AH40"/>
-      <c r="AI40"/>
-      <c r="AJ40"/>
-      <c r="AK40"/>
-      <c r="AL40"/>
-      <c r="AM40"/>
-    </row>
-    <row r="41" spans="1:39">
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" s="1">
-        <v>44755.697916666664</v>
+        <v>44763.072916666664</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
@@ -2540,28 +1958,24 @@
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
-      <c r="H41">
-        <v>1</v>
-      </c>
+      <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
-      <c r="M41">
-        <v>1</v>
-      </c>
+      <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41"/>
       <c r="S41"/>
-      <c r="T41">
-        <v>1</v>
-      </c>
+      <c r="T41"/>
       <c r="U41"/>
       <c r="V41"/>
-      <c r="W41"/>
+      <c r="W41">
+        <v>1</v>
+      </c>
       <c r="X41"/>
       <c r="Y41"/>
       <c r="Z41"/>
@@ -2570,18 +1984,10 @@
       <c r="AC41"/>
       <c r="AD41"/>
       <c r="AE41"/>
-      <c r="AF41"/>
-      <c r="AG41"/>
-      <c r="AH41"/>
-      <c r="AI41"/>
-      <c r="AJ41"/>
-      <c r="AK41"/>
-      <c r="AL41"/>
-      <c r="AM41"/>
-    </row>
-    <row r="42" spans="1:39">
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" s="1">
-        <v>44755.708333333336</v>
+        <v>44763.083333333336</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
@@ -2589,28 +1995,24 @@
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
-      <c r="H42">
-        <v>1</v>
-      </c>
+      <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
-      <c r="M42">
-        <v>1</v>
-      </c>
+      <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42"/>
-      <c r="T42">
-        <v>1</v>
-      </c>
+      <c r="T42"/>
       <c r="U42"/>
       <c r="V42"/>
-      <c r="W42"/>
+      <c r="W42">
+        <v>1</v>
+      </c>
       <c r="X42"/>
       <c r="Y42"/>
       <c r="Z42"/>
@@ -2619,18 +2021,10 @@
       <c r="AC42"/>
       <c r="AD42"/>
       <c r="AE42"/>
-      <c r="AF42"/>
-      <c r="AG42"/>
-      <c r="AH42"/>
-      <c r="AI42"/>
-      <c r="AJ42"/>
-      <c r="AK42"/>
-      <c r="AL42"/>
-      <c r="AM42"/>
-    </row>
-    <row r="43" spans="1:39">
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" s="1">
-        <v>44755.71875</v>
+        <v>44763.09375</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
@@ -2638,28 +2032,24 @@
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
-      <c r="H43">
-        <v>1</v>
-      </c>
+      <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
-      <c r="M43">
-        <v>1</v>
-      </c>
+      <c r="M43"/>
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43"/>
-      <c r="T43">
-        <v>1</v>
-      </c>
+      <c r="T43"/>
       <c r="U43"/>
       <c r="V43"/>
-      <c r="W43"/>
+      <c r="W43">
+        <v>1</v>
+      </c>
       <c r="X43"/>
       <c r="Y43"/>
       <c r="Z43"/>
@@ -2668,18 +2058,10 @@
       <c r="AC43"/>
       <c r="AD43"/>
       <c r="AE43"/>
-      <c r="AF43"/>
-      <c r="AG43"/>
-      <c r="AH43"/>
-      <c r="AI43"/>
-      <c r="AJ43"/>
-      <c r="AK43"/>
-      <c r="AL43"/>
-      <c r="AM43"/>
-    </row>
-    <row r="44" spans="1:39">
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" s="1">
-        <v>44755.729166666664</v>
+        <v>44763.104166666664</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
@@ -2687,28 +2069,24 @@
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
-      <c r="H44">
-        <v>1</v>
-      </c>
+      <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
-      <c r="M44">
-        <v>1</v>
-      </c>
+      <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44"/>
-      <c r="T44">
-        <v>1</v>
-      </c>
+      <c r="T44"/>
       <c r="U44"/>
       <c r="V44"/>
-      <c r="W44"/>
+      <c r="W44">
+        <v>1</v>
+      </c>
       <c r="X44"/>
       <c r="Y44"/>
       <c r="Z44"/>
@@ -2717,18 +2095,10 @@
       <c r="AC44"/>
       <c r="AD44"/>
       <c r="AE44"/>
-      <c r="AF44"/>
-      <c r="AG44"/>
-      <c r="AH44"/>
-      <c r="AI44"/>
-      <c r="AJ44"/>
-      <c r="AK44"/>
-      <c r="AL44"/>
-      <c r="AM44"/>
-    </row>
-    <row r="45" spans="1:39">
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" s="1">
-        <v>44755.739583333336</v>
+        <v>44763.114583333336</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -2736,28 +2106,24 @@
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
-      <c r="H45">
-        <v>1</v>
-      </c>
+      <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
-      <c r="M45">
-        <v>1</v>
-      </c>
+      <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45"/>
       <c r="S45"/>
-      <c r="T45">
-        <v>1</v>
-      </c>
+      <c r="T45"/>
       <c r="U45"/>
       <c r="V45"/>
-      <c r="W45"/>
+      <c r="W45">
+        <v>1</v>
+      </c>
       <c r="X45"/>
       <c r="Y45"/>
       <c r="Z45"/>
@@ -2766,18 +2132,10 @@
       <c r="AC45"/>
       <c r="AD45"/>
       <c r="AE45"/>
-      <c r="AF45"/>
-      <c r="AG45"/>
-      <c r="AH45"/>
-      <c r="AI45"/>
-      <c r="AJ45"/>
-      <c r="AK45"/>
-      <c r="AL45"/>
-      <c r="AM45"/>
-    </row>
-    <row r="46" spans="1:39">
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" s="1">
-        <v>44755.75</v>
+        <v>44763.125</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
@@ -2785,28 +2143,24 @@
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
-      <c r="H46">
-        <v>1</v>
-      </c>
+      <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
-      <c r="M46">
-        <v>1</v>
-      </c>
+      <c r="M46"/>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46"/>
       <c r="S46"/>
-      <c r="T46">
-        <v>1</v>
-      </c>
+      <c r="T46"/>
       <c r="U46"/>
       <c r="V46"/>
-      <c r="W46"/>
+      <c r="W46">
+        <v>1</v>
+      </c>
       <c r="X46"/>
       <c r="Y46"/>
       <c r="Z46"/>
@@ -2815,18 +2169,10 @@
       <c r="AC46"/>
       <c r="AD46"/>
       <c r="AE46"/>
-      <c r="AF46"/>
-      <c r="AG46"/>
-      <c r="AH46"/>
-      <c r="AI46"/>
-      <c r="AJ46"/>
-      <c r="AK46"/>
-      <c r="AL46"/>
-      <c r="AM46"/>
-    </row>
-    <row r="47" spans="1:39">
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" s="1">
-        <v>44755.760416666664</v>
+        <v>44763.135416666664</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -2834,28 +2180,24 @@
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47"/>
-      <c r="H47">
-        <v>1</v>
-      </c>
+      <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
-      <c r="M47">
-        <v>1</v>
-      </c>
+      <c r="M47"/>
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
-      <c r="T47">
-        <v>1</v>
-      </c>
+      <c r="T47"/>
       <c r="U47"/>
       <c r="V47"/>
-      <c r="W47"/>
+      <c r="W47">
+        <v>1</v>
+      </c>
       <c r="X47"/>
       <c r="Y47"/>
       <c r="Z47"/>
@@ -2864,18 +2206,10 @@
       <c r="AC47"/>
       <c r="AD47"/>
       <c r="AE47"/>
-      <c r="AF47"/>
-      <c r="AG47"/>
-      <c r="AH47"/>
-      <c r="AI47"/>
-      <c r="AJ47"/>
-      <c r="AK47"/>
-      <c r="AL47"/>
-      <c r="AM47"/>
-    </row>
-    <row r="48" spans="1:39">
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" s="1">
-        <v>44755.770833333336</v>
+        <v>44763.145833333336</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
@@ -2883,28 +2217,24 @@
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
-      <c r="H48">
-        <v>1</v>
-      </c>
+      <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
-      <c r="M48">
-        <v>1</v>
-      </c>
+      <c r="M48"/>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
-      <c r="T48">
-        <v>1</v>
-      </c>
+      <c r="T48"/>
       <c r="U48"/>
       <c r="V48"/>
-      <c r="W48"/>
+      <c r="W48">
+        <v>1</v>
+      </c>
       <c r="X48"/>
       <c r="Y48"/>
       <c r="Z48"/>
@@ -2913,18 +2243,10 @@
       <c r="AC48"/>
       <c r="AD48"/>
       <c r="AE48"/>
-      <c r="AF48"/>
-      <c r="AG48"/>
-      <c r="AH48"/>
-      <c r="AI48"/>
-      <c r="AJ48"/>
-      <c r="AK48"/>
-      <c r="AL48"/>
-      <c r="AM48"/>
-    </row>
-    <row r="49" spans="1:39">
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" s="1">
-        <v>44755.78125</v>
+        <v>44763.15625</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
@@ -2932,28 +2254,24 @@
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
-      <c r="H49">
-        <v>1</v>
-      </c>
+      <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
-      <c r="M49">
-        <v>1</v>
-      </c>
+      <c r="M49"/>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
       <c r="S49"/>
-      <c r="T49">
-        <v>1</v>
-      </c>
+      <c r="T49"/>
       <c r="U49"/>
       <c r="V49"/>
-      <c r="W49"/>
+      <c r="W49">
+        <v>1</v>
+      </c>
       <c r="X49"/>
       <c r="Y49"/>
       <c r="Z49"/>
@@ -2962,18 +2280,10 @@
       <c r="AC49"/>
       <c r="AD49"/>
       <c r="AE49"/>
-      <c r="AF49"/>
-      <c r="AG49"/>
-      <c r="AH49"/>
-      <c r="AI49"/>
-      <c r="AJ49"/>
-      <c r="AK49"/>
-      <c r="AL49"/>
-      <c r="AM49"/>
-    </row>
-    <row r="50" spans="1:39">
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" s="1">
-        <v>44755.791666666664</v>
+        <v>44763.166666666664</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
@@ -2981,28 +2291,24 @@
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50"/>
-      <c r="H50">
-        <v>1</v>
-      </c>
+      <c r="H50"/>
       <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
-      <c r="M50">
-        <v>1</v>
-      </c>
+      <c r="M50"/>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
       <c r="S50"/>
-      <c r="T50">
-        <v>1</v>
-      </c>
+      <c r="T50"/>
       <c r="U50"/>
       <c r="V50"/>
-      <c r="W50"/>
+      <c r="W50">
+        <v>1</v>
+      </c>
       <c r="X50"/>
       <c r="Y50"/>
       <c r="Z50"/>
@@ -3011,18 +2317,10 @@
       <c r="AC50"/>
       <c r="AD50"/>
       <c r="AE50"/>
-      <c r="AF50"/>
-      <c r="AG50"/>
-      <c r="AH50"/>
-      <c r="AI50"/>
-      <c r="AJ50"/>
-      <c r="AK50"/>
-      <c r="AL50"/>
-      <c r="AM50"/>
-    </row>
-    <row r="51" spans="1:39">
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51" s="1">
-        <v>44755.802083333336</v>
+        <v>44763.177083333336</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
@@ -3030,28 +2328,24 @@
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51"/>
-      <c r="H51">
-        <v>1</v>
-      </c>
+      <c r="H51"/>
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
-      <c r="M51">
-        <v>1</v>
-      </c>
+      <c r="M51"/>
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
       <c r="S51"/>
-      <c r="T51">
-        <v>1</v>
-      </c>
+      <c r="T51"/>
       <c r="U51"/>
       <c r="V51"/>
-      <c r="W51"/>
+      <c r="W51">
+        <v>1</v>
+      </c>
       <c r="X51"/>
       <c r="Y51"/>
       <c r="Z51"/>
@@ -3060,18 +2354,10 @@
       <c r="AC51"/>
       <c r="AD51"/>
       <c r="AE51"/>
-      <c r="AF51"/>
-      <c r="AG51"/>
-      <c r="AH51"/>
-      <c r="AI51"/>
-      <c r="AJ51"/>
-      <c r="AK51"/>
-      <c r="AL51"/>
-      <c r="AM51"/>
-    </row>
-    <row r="52" spans="1:39">
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" s="1">
-        <v>44755.8125</v>
+        <v>44763.1875</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
@@ -3079,28 +2365,24 @@
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
-      <c r="H52">
-        <v>1</v>
-      </c>
+      <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52"/>
-      <c r="M52">
-        <v>1</v>
-      </c>
+      <c r="M52"/>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52"/>
       <c r="S52"/>
-      <c r="T52">
-        <v>1</v>
-      </c>
+      <c r="T52"/>
       <c r="U52"/>
       <c r="V52"/>
-      <c r="W52"/>
+      <c r="W52">
+        <v>1</v>
+      </c>
       <c r="X52"/>
       <c r="Y52"/>
       <c r="Z52"/>
@@ -3109,18 +2391,10 @@
       <c r="AC52"/>
       <c r="AD52"/>
       <c r="AE52"/>
-      <c r="AF52"/>
-      <c r="AG52"/>
-      <c r="AH52"/>
-      <c r="AI52"/>
-      <c r="AJ52"/>
-      <c r="AK52"/>
-      <c r="AL52"/>
-      <c r="AM52"/>
-    </row>
-    <row r="53" spans="1:39">
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53" s="1">
-        <v>44755.822916666664</v>
+        <v>44763.197916666664</v>
       </c>
       <c r="B53"/>
       <c r="C53"/>
@@ -3128,28 +2402,24 @@
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
-      <c r="H53">
-        <v>1</v>
-      </c>
+      <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
-      <c r="M53">
-        <v>1</v>
-      </c>
+      <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
       <c r="S53"/>
-      <c r="T53">
-        <v>1</v>
-      </c>
+      <c r="T53"/>
       <c r="U53"/>
       <c r="V53"/>
-      <c r="W53"/>
+      <c r="W53">
+        <v>1</v>
+      </c>
       <c r="X53"/>
       <c r="Y53"/>
       <c r="Z53"/>
@@ -3158,18 +2428,10 @@
       <c r="AC53"/>
       <c r="AD53"/>
       <c r="AE53"/>
-      <c r="AF53"/>
-      <c r="AG53"/>
-      <c r="AH53"/>
-      <c r="AI53"/>
-      <c r="AJ53"/>
-      <c r="AK53"/>
-      <c r="AL53"/>
-      <c r="AM53"/>
-    </row>
-    <row r="54" spans="1:39">
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" s="1">
-        <v>44755.833333333336</v>
+        <v>44763.208333333336</v>
       </c>
       <c r="B54"/>
       <c r="C54"/>
@@ -3177,28 +2439,24 @@
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
-      <c r="H54">
-        <v>1</v>
-      </c>
+      <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
-      <c r="M54">
-        <v>1</v>
-      </c>
+      <c r="M54"/>
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54"/>
       <c r="S54"/>
-      <c r="T54">
-        <v>1</v>
-      </c>
+      <c r="T54"/>
       <c r="U54"/>
       <c r="V54"/>
-      <c r="W54"/>
+      <c r="W54">
+        <v>1</v>
+      </c>
       <c r="X54"/>
       <c r="Y54"/>
       <c r="Z54"/>
@@ -3207,18 +2465,10 @@
       <c r="AC54"/>
       <c r="AD54"/>
       <c r="AE54"/>
-      <c r="AF54"/>
-      <c r="AG54"/>
-      <c r="AH54"/>
-      <c r="AI54"/>
-      <c r="AJ54"/>
-      <c r="AK54"/>
-      <c r="AL54"/>
-      <c r="AM54"/>
-    </row>
-    <row r="55" spans="1:39">
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" s="1">
-        <v>44755.84375</v>
+        <v>44763.21875</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
@@ -3226,28 +2476,24 @@
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55"/>
-      <c r="H55">
-        <v>1</v>
-      </c>
+      <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
-      <c r="M55">
-        <v>1</v>
-      </c>
+      <c r="M55"/>
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55"/>
       <c r="S55"/>
-      <c r="T55">
-        <v>1</v>
-      </c>
+      <c r="T55"/>
       <c r="U55"/>
       <c r="V55"/>
-      <c r="W55"/>
+      <c r="W55">
+        <v>1</v>
+      </c>
       <c r="X55"/>
       <c r="Y55"/>
       <c r="Z55"/>
@@ -3256,18 +2502,10 @@
       <c r="AC55"/>
       <c r="AD55"/>
       <c r="AE55"/>
-      <c r="AF55"/>
-      <c r="AG55"/>
-      <c r="AH55"/>
-      <c r="AI55"/>
-      <c r="AJ55"/>
-      <c r="AK55"/>
-      <c r="AL55"/>
-      <c r="AM55"/>
-    </row>
-    <row r="56" spans="1:39">
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" s="1">
-        <v>44755.854166666664</v>
+        <v>44763.229166666664</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
@@ -3275,28 +2513,24 @@
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56"/>
-      <c r="H56">
-        <v>1</v>
-      </c>
+      <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
-      <c r="M56">
-        <v>1</v>
-      </c>
+      <c r="M56"/>
       <c r="N56"/>
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
       <c r="S56"/>
-      <c r="T56">
-        <v>1</v>
-      </c>
+      <c r="T56"/>
       <c r="U56"/>
       <c r="V56"/>
-      <c r="W56"/>
+      <c r="W56">
+        <v>1</v>
+      </c>
       <c r="X56"/>
       <c r="Y56"/>
       <c r="Z56"/>
@@ -3305,18 +2539,10 @@
       <c r="AC56"/>
       <c r="AD56"/>
       <c r="AE56"/>
-      <c r="AF56"/>
-      <c r="AG56"/>
-      <c r="AH56"/>
-      <c r="AI56"/>
-      <c r="AJ56"/>
-      <c r="AK56"/>
-      <c r="AL56"/>
-      <c r="AM56"/>
-    </row>
-    <row r="57" spans="1:39">
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" s="1">
-        <v>44755.864583333336</v>
+        <v>44763.239583333336</v>
       </c>
       <c r="B57"/>
       <c r="C57"/>
@@ -3324,28 +2550,24 @@
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57"/>
-      <c r="H57">
-        <v>1</v>
-      </c>
+      <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
-      <c r="M57">
-        <v>1</v>
-      </c>
+      <c r="M57"/>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57"/>
       <c r="S57"/>
-      <c r="T57">
-        <v>1</v>
-      </c>
+      <c r="T57"/>
       <c r="U57"/>
       <c r="V57"/>
-      <c r="W57"/>
+      <c r="W57">
+        <v>1</v>
+      </c>
       <c r="X57"/>
       <c r="Y57"/>
       <c r="Z57"/>
@@ -3354,18 +2576,10 @@
       <c r="AC57"/>
       <c r="AD57"/>
       <c r="AE57"/>
-      <c r="AF57"/>
-      <c r="AG57"/>
-      <c r="AH57"/>
-      <c r="AI57"/>
-      <c r="AJ57"/>
-      <c r="AK57"/>
-      <c r="AL57"/>
-      <c r="AM57"/>
-    </row>
-    <row r="58" spans="1:39">
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" s="1">
-        <v>44755.875</v>
+        <v>44763.25</v>
       </c>
       <c r="B58"/>
       <c r="C58"/>
@@ -3373,28 +2587,24 @@
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58"/>
-      <c r="H58">
-        <v>1</v>
-      </c>
+      <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
-      <c r="M58">
-        <v>1</v>
-      </c>
+      <c r="M58"/>
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
       <c r="Q58"/>
       <c r="R58"/>
       <c r="S58"/>
-      <c r="T58">
-        <v>1</v>
-      </c>
+      <c r="T58"/>
       <c r="U58"/>
       <c r="V58"/>
-      <c r="W58"/>
+      <c r="W58">
+        <v>1</v>
+      </c>
       <c r="X58"/>
       <c r="Y58"/>
       <c r="Z58"/>
@@ -3403,18 +2613,10 @@
       <c r="AC58"/>
       <c r="AD58"/>
       <c r="AE58"/>
-      <c r="AF58"/>
-      <c r="AG58"/>
-      <c r="AH58"/>
-      <c r="AI58"/>
-      <c r="AJ58"/>
-      <c r="AK58"/>
-      <c r="AL58"/>
-      <c r="AM58"/>
-    </row>
-    <row r="59" spans="1:39">
+    </row>
+    <row r="59" spans="1:31">
       <c r="A59" s="1">
-        <v>44755.885416666664</v>
+        <v>44763.260416666664</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
@@ -3422,28 +2624,24 @@
       <c r="E59"/>
       <c r="F59"/>
       <c r="G59"/>
-      <c r="H59">
-        <v>1</v>
-      </c>
+      <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
-      <c r="M59">
-        <v>1</v>
-      </c>
+      <c r="M59"/>
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59"/>
       <c r="R59"/>
       <c r="S59"/>
-      <c r="T59">
-        <v>1</v>
-      </c>
+      <c r="T59"/>
       <c r="U59"/>
       <c r="V59"/>
-      <c r="W59"/>
+      <c r="W59">
+        <v>1</v>
+      </c>
       <c r="X59"/>
       <c r="Y59"/>
       <c r="Z59"/>
@@ -3452,18 +2650,10 @@
       <c r="AC59"/>
       <c r="AD59"/>
       <c r="AE59"/>
-      <c r="AF59"/>
-      <c r="AG59"/>
-      <c r="AH59"/>
-      <c r="AI59"/>
-      <c r="AJ59"/>
-      <c r="AK59"/>
-      <c r="AL59"/>
-      <c r="AM59"/>
-    </row>
-    <row r="60" spans="1:39">
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" s="1">
-        <v>44755.895833333336</v>
+        <v>44763.270833333336</v>
       </c>
       <c r="B60"/>
       <c r="C60"/>
@@ -3471,28 +2661,24 @@
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
-      <c r="H60">
-        <v>1</v>
-      </c>
+      <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
-      <c r="M60">
-        <v>1</v>
-      </c>
+      <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
       <c r="R60"/>
       <c r="S60"/>
-      <c r="T60">
-        <v>1</v>
-      </c>
+      <c r="T60"/>
       <c r="U60"/>
       <c r="V60"/>
-      <c r="W60"/>
+      <c r="W60">
+        <v>1</v>
+      </c>
       <c r="X60"/>
       <c r="Y60"/>
       <c r="Z60"/>
@@ -3501,18 +2687,10 @@
       <c r="AC60"/>
       <c r="AD60"/>
       <c r="AE60"/>
-      <c r="AF60"/>
-      <c r="AG60"/>
-      <c r="AH60"/>
-      <c r="AI60"/>
-      <c r="AJ60"/>
-      <c r="AK60"/>
-      <c r="AL60"/>
-      <c r="AM60"/>
-    </row>
-    <row r="61" spans="1:39">
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" s="1">
-        <v>44755.90625</v>
+        <v>44763.28125</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
@@ -3520,28 +2698,24 @@
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61"/>
-      <c r="H61">
-        <v>1</v>
-      </c>
+      <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
-      <c r="M61">
-        <v>1</v>
-      </c>
+      <c r="M61"/>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
       <c r="Q61"/>
       <c r="R61"/>
       <c r="S61"/>
-      <c r="T61">
-        <v>1</v>
-      </c>
+      <c r="T61"/>
       <c r="U61"/>
       <c r="V61"/>
-      <c r="W61"/>
+      <c r="W61">
+        <v>1</v>
+      </c>
       <c r="X61"/>
       <c r="Y61"/>
       <c r="Z61"/>
@@ -3550,18 +2724,10 @@
       <c r="AC61"/>
       <c r="AD61"/>
       <c r="AE61"/>
-      <c r="AF61"/>
-      <c r="AG61"/>
-      <c r="AH61"/>
-      <c r="AI61"/>
-      <c r="AJ61"/>
-      <c r="AK61"/>
-      <c r="AL61"/>
-      <c r="AM61"/>
-    </row>
-    <row r="62" spans="1:39">
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" s="1">
-        <v>44755.916666666664</v>
+        <v>44763.291666666664</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
@@ -3569,28 +2735,24 @@
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62"/>
-      <c r="H62">
-        <v>1</v>
-      </c>
+      <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
-      <c r="M62">
-        <v>1</v>
-      </c>
+      <c r="M62"/>
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62"/>
       <c r="R62"/>
       <c r="S62"/>
-      <c r="T62">
-        <v>1</v>
-      </c>
+      <c r="T62"/>
       <c r="U62"/>
       <c r="V62"/>
-      <c r="W62"/>
+      <c r="W62">
+        <v>1</v>
+      </c>
       <c r="X62"/>
       <c r="Y62"/>
       <c r="Z62"/>
@@ -3599,18 +2761,10 @@
       <c r="AC62"/>
       <c r="AD62"/>
       <c r="AE62"/>
-      <c r="AF62"/>
-      <c r="AG62"/>
-      <c r="AH62"/>
-      <c r="AI62"/>
-      <c r="AJ62"/>
-      <c r="AK62"/>
-      <c r="AL62"/>
-      <c r="AM62"/>
-    </row>
-    <row r="63" spans="1:39">
+    </row>
+    <row r="63" spans="1:31">
       <c r="A63" s="1">
-        <v>44755.927083333336</v>
+        <v>44763.302083333336</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
@@ -3618,28 +2772,24 @@
       <c r="E63"/>
       <c r="F63"/>
       <c r="G63"/>
-      <c r="H63">
-        <v>1</v>
-      </c>
+      <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
-      <c r="M63">
-        <v>1</v>
-      </c>
+      <c r="M63"/>
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
       <c r="R63"/>
       <c r="S63"/>
-      <c r="T63">
-        <v>1</v>
-      </c>
+      <c r="T63"/>
       <c r="U63"/>
       <c r="V63"/>
-      <c r="W63"/>
+      <c r="W63">
+        <v>1</v>
+      </c>
       <c r="X63"/>
       <c r="Y63"/>
       <c r="Z63"/>
@@ -3648,18 +2798,10 @@
       <c r="AC63"/>
       <c r="AD63"/>
       <c r="AE63"/>
-      <c r="AF63"/>
-      <c r="AG63"/>
-      <c r="AH63"/>
-      <c r="AI63"/>
-      <c r="AJ63"/>
-      <c r="AK63"/>
-      <c r="AL63"/>
-      <c r="AM63"/>
-    </row>
-    <row r="64" spans="1:39">
+    </row>
+    <row r="64" spans="1:31">
       <c r="A64" s="1">
-        <v>44755.9375</v>
+        <v>44763.3125</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
@@ -3667,28 +2809,24 @@
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64"/>
-      <c r="H64">
-        <v>1</v>
-      </c>
+      <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
-      <c r="M64">
-        <v>1</v>
-      </c>
+      <c r="M64"/>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
       <c r="Q64"/>
       <c r="R64"/>
       <c r="S64"/>
-      <c r="T64">
-        <v>1</v>
-      </c>
+      <c r="T64"/>
       <c r="U64"/>
       <c r="V64"/>
-      <c r="W64"/>
+      <c r="W64">
+        <v>1</v>
+      </c>
       <c r="X64"/>
       <c r="Y64"/>
       <c r="Z64"/>
@@ -3697,18 +2835,10 @@
       <c r="AC64"/>
       <c r="AD64"/>
       <c r="AE64"/>
-      <c r="AF64"/>
-      <c r="AG64"/>
-      <c r="AH64"/>
-      <c r="AI64"/>
-      <c r="AJ64"/>
-      <c r="AK64"/>
-      <c r="AL64"/>
-      <c r="AM64"/>
-    </row>
-    <row r="65" spans="1:39">
+    </row>
+    <row r="65" spans="1:31">
       <c r="A65" s="1">
-        <v>44755.947916666664</v>
+        <v>44763.322916666664</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
@@ -3716,28 +2846,24 @@
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65"/>
-      <c r="H65">
-        <v>1</v>
-      </c>
+      <c r="H65"/>
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
-      <c r="M65">
-        <v>1</v>
-      </c>
+      <c r="M65"/>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65"/>
       <c r="R65"/>
       <c r="S65"/>
-      <c r="T65">
-        <v>1</v>
-      </c>
+      <c r="T65"/>
       <c r="U65"/>
       <c r="V65"/>
-      <c r="W65"/>
+      <c r="W65">
+        <v>1</v>
+      </c>
       <c r="X65"/>
       <c r="Y65"/>
       <c r="Z65"/>
@@ -3746,18 +2872,10 @@
       <c r="AC65"/>
       <c r="AD65"/>
       <c r="AE65"/>
-      <c r="AF65"/>
-      <c r="AG65"/>
-      <c r="AH65"/>
-      <c r="AI65"/>
-      <c r="AJ65"/>
-      <c r="AK65"/>
-      <c r="AL65"/>
-      <c r="AM65"/>
-    </row>
-    <row r="66" spans="1:39">
+    </row>
+    <row r="66" spans="1:31">
       <c r="A66" s="1">
-        <v>44755.958333333336</v>
+        <v>44763.333333333336</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
@@ -3765,28 +2883,24 @@
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66"/>
-      <c r="H66">
-        <v>1</v>
-      </c>
+      <c r="H66"/>
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66"/>
-      <c r="M66">
-        <v>1</v>
-      </c>
+      <c r="M66"/>
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
       <c r="R66"/>
       <c r="S66"/>
-      <c r="T66">
-        <v>1</v>
-      </c>
+      <c r="T66"/>
       <c r="U66"/>
       <c r="V66"/>
-      <c r="W66"/>
+      <c r="W66">
+        <v>1</v>
+      </c>
       <c r="X66"/>
       <c r="Y66"/>
       <c r="Z66"/>
@@ -3795,18 +2909,10 @@
       <c r="AC66"/>
       <c r="AD66"/>
       <c r="AE66"/>
-      <c r="AF66"/>
-      <c r="AG66"/>
-      <c r="AH66"/>
-      <c r="AI66"/>
-      <c r="AJ66"/>
-      <c r="AK66"/>
-      <c r="AL66"/>
-      <c r="AM66"/>
-    </row>
-    <row r="67" spans="1:39">
+    </row>
+    <row r="67" spans="1:31">
       <c r="A67" s="1">
-        <v>44755.96875</v>
+        <v>44763.34375</v>
       </c>
       <c r="B67"/>
       <c r="C67"/>
@@ -3814,25 +2920,19 @@
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67"/>
-      <c r="H67">
-        <v>1</v>
-      </c>
+      <c r="H67"/>
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67"/>
       <c r="L67"/>
-      <c r="M67">
-        <v>1</v>
-      </c>
+      <c r="M67"/>
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
       <c r="R67"/>
       <c r="S67"/>
-      <c r="T67">
-        <v>1</v>
-      </c>
+      <c r="T67"/>
       <c r="U67"/>
       <c r="V67"/>
       <c r="W67"/>
@@ -3844,18 +2944,10 @@
       <c r="AC67"/>
       <c r="AD67"/>
       <c r="AE67"/>
-      <c r="AF67"/>
-      <c r="AG67"/>
-      <c r="AH67"/>
-      <c r="AI67"/>
-      <c r="AJ67"/>
-      <c r="AK67"/>
-      <c r="AL67"/>
-      <c r="AM67"/>
-    </row>
-    <row r="68" spans="1:39">
+    </row>
+    <row r="68" spans="1:31">
       <c r="A68" s="1">
-        <v>44755.979166666664</v>
+        <v>44763.354166666664</v>
       </c>
       <c r="B68"/>
       <c r="C68"/>
@@ -3863,25 +2955,19 @@
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
-      <c r="H68">
-        <v>1</v>
-      </c>
+      <c r="H68"/>
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68"/>
-      <c r="M68">
-        <v>1</v>
-      </c>
+      <c r="M68"/>
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
       <c r="R68"/>
       <c r="S68"/>
-      <c r="T68">
-        <v>1</v>
-      </c>
+      <c r="T68"/>
       <c r="U68"/>
       <c r="V68"/>
       <c r="W68"/>
@@ -3893,18 +2979,10 @@
       <c r="AC68"/>
       <c r="AD68"/>
       <c r="AE68"/>
-      <c r="AF68"/>
-      <c r="AG68"/>
-      <c r="AH68"/>
-      <c r="AI68"/>
-      <c r="AJ68"/>
-      <c r="AK68"/>
-      <c r="AL68"/>
-      <c r="AM68"/>
-    </row>
-    <row r="69" spans="1:39">
+    </row>
+    <row r="69" spans="1:31">
       <c r="A69" s="1">
-        <v>44755.989583333336</v>
+        <v>44763.364583333336</v>
       </c>
       <c r="B69"/>
       <c r="C69"/>
@@ -3912,25 +2990,19 @@
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69"/>
-      <c r="H69">
-        <v>1</v>
-      </c>
+      <c r="H69"/>
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
-      <c r="M69">
-        <v>1</v>
-      </c>
+      <c r="M69"/>
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
       <c r="R69"/>
       <c r="S69"/>
-      <c r="T69">
-        <v>1</v>
-      </c>
+      <c r="T69"/>
       <c r="U69"/>
       <c r="V69"/>
       <c r="W69"/>
@@ -3942,18 +3014,10 @@
       <c r="AC69"/>
       <c r="AD69"/>
       <c r="AE69"/>
-      <c r="AF69"/>
-      <c r="AG69"/>
-      <c r="AH69"/>
-      <c r="AI69"/>
-      <c r="AJ69"/>
-      <c r="AK69"/>
-      <c r="AL69"/>
-      <c r="AM69"/>
-    </row>
-    <row r="70" spans="1:39">
+    </row>
+    <row r="70" spans="1:31">
       <c r="A70" s="1">
-        <v>44756.0</v>
+        <v>44763.375</v>
       </c>
       <c r="B70"/>
       <c r="C70"/>
@@ -3961,25 +3025,19 @@
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70"/>
-      <c r="H70">
-        <v>1</v>
-      </c>
+      <c r="H70"/>
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
-      <c r="M70">
-        <v>1</v>
-      </c>
+      <c r="M70"/>
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70"/>
       <c r="S70"/>
-      <c r="T70">
-        <v>1</v>
-      </c>
+      <c r="T70"/>
       <c r="U70"/>
       <c r="V70"/>
       <c r="W70"/>
@@ -3991,18 +3049,10 @@
       <c r="AC70"/>
       <c r="AD70"/>
       <c r="AE70"/>
-      <c r="AF70"/>
-      <c r="AG70"/>
-      <c r="AH70"/>
-      <c r="AI70"/>
-      <c r="AJ70"/>
-      <c r="AK70"/>
-      <c r="AL70"/>
-      <c r="AM70"/>
-    </row>
-    <row r="71" spans="1:39">
+    </row>
+    <row r="71" spans="1:31">
       <c r="A71" s="1">
-        <v>44756.010416666664</v>
+        <v>44763.385416666664</v>
       </c>
       <c r="B71"/>
       <c r="C71"/>
@@ -4010,25 +3060,19 @@
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71"/>
-      <c r="H71">
-        <v>1</v>
-      </c>
+      <c r="H71"/>
       <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
-      <c r="M71">
-        <v>1</v>
-      </c>
+      <c r="M71"/>
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71"/>
       <c r="S71"/>
-      <c r="T71">
-        <v>1</v>
-      </c>
+      <c r="T71"/>
       <c r="U71"/>
       <c r="V71"/>
       <c r="W71"/>
@@ -4040,18 +3084,10 @@
       <c r="AC71"/>
       <c r="AD71"/>
       <c r="AE71"/>
-      <c r="AF71"/>
-      <c r="AG71"/>
-      <c r="AH71"/>
-      <c r="AI71"/>
-      <c r="AJ71"/>
-      <c r="AK71"/>
-      <c r="AL71"/>
-      <c r="AM71"/>
-    </row>
-    <row r="72" spans="1:39">
+    </row>
+    <row r="72" spans="1:31">
       <c r="A72" s="1">
-        <v>44756.020833333336</v>
+        <v>44763.395833333336</v>
       </c>
       <c r="B72"/>
       <c r="C72"/>
@@ -4059,25 +3095,19 @@
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72"/>
-      <c r="H72">
-        <v>1</v>
-      </c>
+      <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
       <c r="L72"/>
-      <c r="M72">
-        <v>1</v>
-      </c>
+      <c r="M72"/>
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72"/>
       <c r="R72"/>
       <c r="S72"/>
-      <c r="T72">
-        <v>1</v>
-      </c>
+      <c r="T72"/>
       <c r="U72"/>
       <c r="V72"/>
       <c r="W72"/>
@@ -4089,18 +3119,10 @@
       <c r="AC72"/>
       <c r="AD72"/>
       <c r="AE72"/>
-      <c r="AF72"/>
-      <c r="AG72"/>
-      <c r="AH72"/>
-      <c r="AI72"/>
-      <c r="AJ72"/>
-      <c r="AK72"/>
-      <c r="AL72"/>
-      <c r="AM72"/>
-    </row>
-    <row r="73" spans="1:39">
+    </row>
+    <row r="73" spans="1:31">
       <c r="A73" s="1">
-        <v>44756.03125</v>
+        <v>44763.40625</v>
       </c>
       <c r="B73"/>
       <c r="C73"/>
@@ -4108,25 +3130,19 @@
       <c r="E73"/>
       <c r="F73"/>
       <c r="G73"/>
-      <c r="H73">
-        <v>1</v>
-      </c>
+      <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
-      <c r="M73">
-        <v>1</v>
-      </c>
+      <c r="M73"/>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
       <c r="R73"/>
       <c r="S73"/>
-      <c r="T73">
-        <v>1</v>
-      </c>
+      <c r="T73"/>
       <c r="U73"/>
       <c r="V73"/>
       <c r="W73"/>
@@ -4138,18 +3154,10 @@
       <c r="AC73"/>
       <c r="AD73"/>
       <c r="AE73"/>
-      <c r="AF73"/>
-      <c r="AG73"/>
-      <c r="AH73"/>
-      <c r="AI73"/>
-      <c r="AJ73"/>
-      <c r="AK73"/>
-      <c r="AL73"/>
-      <c r="AM73"/>
-    </row>
-    <row r="74" spans="1:39">
+    </row>
+    <row r="74" spans="1:31">
       <c r="A74" s="1">
-        <v>44756.041666666664</v>
+        <v>44763.416666666664</v>
       </c>
       <c r="B74"/>
       <c r="C74"/>
@@ -4157,25 +3165,19 @@
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74"/>
-      <c r="H74">
-        <v>1</v>
-      </c>
+      <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
-      <c r="M74">
-        <v>1</v>
-      </c>
+      <c r="M74"/>
       <c r="N74"/>
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
       <c r="R74"/>
       <c r="S74"/>
-      <c r="T74">
-        <v>1</v>
-      </c>
+      <c r="T74"/>
       <c r="U74"/>
       <c r="V74"/>
       <c r="W74"/>
@@ -4187,18 +3189,10 @@
       <c r="AC74"/>
       <c r="AD74"/>
       <c r="AE74"/>
-      <c r="AF74"/>
-      <c r="AG74"/>
-      <c r="AH74"/>
-      <c r="AI74"/>
-      <c r="AJ74"/>
-      <c r="AK74"/>
-      <c r="AL74"/>
-      <c r="AM74"/>
-    </row>
-    <row r="75" spans="1:39">
+    </row>
+    <row r="75" spans="1:31">
       <c r="A75" s="1">
-        <v>44756.052083333336</v>
+        <v>44763.427083333336</v>
       </c>
       <c r="B75"/>
       <c r="C75"/>
@@ -4206,25 +3200,19 @@
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75"/>
-      <c r="H75">
-        <v>1</v>
-      </c>
+      <c r="H75"/>
       <c r="I75"/>
       <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
-      <c r="M75">
-        <v>1</v>
-      </c>
+      <c r="M75"/>
       <c r="N75"/>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
       <c r="R75"/>
       <c r="S75"/>
-      <c r="T75">
-        <v>1</v>
-      </c>
+      <c r="T75"/>
       <c r="U75"/>
       <c r="V75"/>
       <c r="W75"/>
@@ -4236,18 +3224,10 @@
       <c r="AC75"/>
       <c r="AD75"/>
       <c r="AE75"/>
-      <c r="AF75"/>
-      <c r="AG75"/>
-      <c r="AH75"/>
-      <c r="AI75"/>
-      <c r="AJ75"/>
-      <c r="AK75"/>
-      <c r="AL75"/>
-      <c r="AM75"/>
-    </row>
-    <row r="76" spans="1:39">
+    </row>
+    <row r="76" spans="1:31">
       <c r="A76" s="1">
-        <v>44756.0625</v>
+        <v>44763.4375</v>
       </c>
       <c r="B76"/>
       <c r="C76"/>
@@ -4255,25 +3235,19 @@
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76"/>
-      <c r="H76">
-        <v>1</v>
-      </c>
+      <c r="H76"/>
       <c r="I76"/>
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76"/>
-      <c r="M76">
-        <v>1</v>
-      </c>
+      <c r="M76"/>
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
       <c r="R76"/>
       <c r="S76"/>
-      <c r="T76">
-        <v>1</v>
-      </c>
+      <c r="T76"/>
       <c r="U76"/>
       <c r="V76"/>
       <c r="W76"/>
@@ -4285,18 +3259,10 @@
       <c r="AC76"/>
       <c r="AD76"/>
       <c r="AE76"/>
-      <c r="AF76"/>
-      <c r="AG76"/>
-      <c r="AH76"/>
-      <c r="AI76"/>
-      <c r="AJ76"/>
-      <c r="AK76"/>
-      <c r="AL76"/>
-      <c r="AM76"/>
-    </row>
-    <row r="77" spans="1:39">
+    </row>
+    <row r="77" spans="1:31">
       <c r="A77" s="1">
-        <v>44756.072916666664</v>
+        <v>44763.447916666664</v>
       </c>
       <c r="B77"/>
       <c r="C77"/>
@@ -4304,25 +3270,19 @@
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77"/>
-      <c r="H77">
-        <v>1</v>
-      </c>
+      <c r="H77"/>
       <c r="I77"/>
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
-      <c r="M77">
-        <v>1</v>
-      </c>
+      <c r="M77"/>
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
       <c r="R77"/>
       <c r="S77"/>
-      <c r="T77">
-        <v>1</v>
-      </c>
+      <c r="T77"/>
       <c r="U77"/>
       <c r="V77"/>
       <c r="W77"/>
@@ -4334,18 +3294,10 @@
       <c r="AC77"/>
       <c r="AD77"/>
       <c r="AE77"/>
-      <c r="AF77"/>
-      <c r="AG77"/>
-      <c r="AH77"/>
-      <c r="AI77"/>
-      <c r="AJ77"/>
-      <c r="AK77"/>
-      <c r="AL77"/>
-      <c r="AM77"/>
-    </row>
-    <row r="78" spans="1:39">
+    </row>
+    <row r="78" spans="1:31">
       <c r="A78" s="1">
-        <v>44756.083333333336</v>
+        <v>44763.458333333336</v>
       </c>
       <c r="B78"/>
       <c r="C78"/>
@@ -4353,25 +3305,19 @@
       <c r="E78"/>
       <c r="F78"/>
       <c r="G78"/>
-      <c r="H78">
-        <v>1</v>
-      </c>
+      <c r="H78"/>
       <c r="I78"/>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
-      <c r="M78">
-        <v>1</v>
-      </c>
+      <c r="M78"/>
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
       <c r="R78"/>
       <c r="S78"/>
-      <c r="T78">
-        <v>1</v>
-      </c>
+      <c r="T78"/>
       <c r="U78"/>
       <c r="V78"/>
       <c r="W78"/>
@@ -4383,18 +3329,10 @@
       <c r="AC78"/>
       <c r="AD78"/>
       <c r="AE78"/>
-      <c r="AF78"/>
-      <c r="AG78"/>
-      <c r="AH78"/>
-      <c r="AI78"/>
-      <c r="AJ78"/>
-      <c r="AK78"/>
-      <c r="AL78"/>
-      <c r="AM78"/>
-    </row>
-    <row r="79" spans="1:39">
+    </row>
+    <row r="79" spans="1:31">
       <c r="A79" s="1">
-        <v>44756.09375</v>
+        <v>44763.46875</v>
       </c>
       <c r="B79"/>
       <c r="C79"/>
@@ -4402,25 +3340,19 @@
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79"/>
-      <c r="H79">
-        <v>1</v>
-      </c>
+      <c r="H79"/>
       <c r="I79"/>
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79"/>
-      <c r="M79">
-        <v>1</v>
-      </c>
+      <c r="M79"/>
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
       <c r="R79"/>
       <c r="S79"/>
-      <c r="T79">
-        <v>1</v>
-      </c>
+      <c r="T79"/>
       <c r="U79"/>
       <c r="V79"/>
       <c r="W79"/>
@@ -4432,18 +3364,10 @@
       <c r="AC79"/>
       <c r="AD79"/>
       <c r="AE79"/>
-      <c r="AF79"/>
-      <c r="AG79"/>
-      <c r="AH79"/>
-      <c r="AI79"/>
-      <c r="AJ79"/>
-      <c r="AK79"/>
-      <c r="AL79"/>
-      <c r="AM79"/>
-    </row>
-    <row r="80" spans="1:39">
+    </row>
+    <row r="80" spans="1:31">
       <c r="A80" s="1">
-        <v>44756.104166666664</v>
+        <v>44763.479166666664</v>
       </c>
       <c r="B80"/>
       <c r="C80"/>
@@ -4451,25 +3375,19 @@
       <c r="E80"/>
       <c r="F80"/>
       <c r="G80"/>
-      <c r="H80">
-        <v>1</v>
-      </c>
+      <c r="H80"/>
       <c r="I80"/>
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
-      <c r="M80">
-        <v>1</v>
-      </c>
+      <c r="M80"/>
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
       <c r="R80"/>
       <c r="S80"/>
-      <c r="T80">
-        <v>1</v>
-      </c>
+      <c r="T80"/>
       <c r="U80"/>
       <c r="V80"/>
       <c r="W80"/>
@@ -4481,18 +3399,10 @@
       <c r="AC80"/>
       <c r="AD80"/>
       <c r="AE80"/>
-      <c r="AF80"/>
-      <c r="AG80"/>
-      <c r="AH80"/>
-      <c r="AI80"/>
-      <c r="AJ80"/>
-      <c r="AK80"/>
-      <c r="AL80"/>
-      <c r="AM80"/>
-    </row>
-    <row r="81" spans="1:39">
+    </row>
+    <row r="81" spans="1:31">
       <c r="A81" s="1">
-        <v>44756.114583333336</v>
+        <v>44763.489583333336</v>
       </c>
       <c r="B81"/>
       <c r="C81"/>
@@ -4500,25 +3410,19 @@
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81"/>
-      <c r="H81">
-        <v>1</v>
-      </c>
+      <c r="H81"/>
       <c r="I81"/>
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81"/>
-      <c r="M81">
-        <v>1</v>
-      </c>
+      <c r="M81"/>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
       <c r="R81"/>
       <c r="S81"/>
-      <c r="T81">
-        <v>1</v>
-      </c>
+      <c r="T81"/>
       <c r="U81"/>
       <c r="V81"/>
       <c r="W81"/>
@@ -4530,18 +3434,10 @@
       <c r="AC81"/>
       <c r="AD81"/>
       <c r="AE81"/>
-      <c r="AF81"/>
-      <c r="AG81"/>
-      <c r="AH81"/>
-      <c r="AI81"/>
-      <c r="AJ81"/>
-      <c r="AK81"/>
-      <c r="AL81"/>
-      <c r="AM81"/>
-    </row>
-    <row r="82" spans="1:39">
+    </row>
+    <row r="82" spans="1:31">
       <c r="A82" s="1">
-        <v>44756.125</v>
+        <v>44763.5</v>
       </c>
       <c r="B82"/>
       <c r="C82"/>
@@ -4549,25 +3445,19 @@
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82"/>
-      <c r="H82">
-        <v>1</v>
-      </c>
+      <c r="H82"/>
       <c r="I82"/>
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82"/>
-      <c r="M82">
-        <v>1</v>
-      </c>
+      <c r="M82"/>
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
       <c r="R82"/>
       <c r="S82"/>
-      <c r="T82">
-        <v>1</v>
-      </c>
+      <c r="T82"/>
       <c r="U82"/>
       <c r="V82"/>
       <c r="W82"/>
@@ -4579,18 +3469,10 @@
       <c r="AC82"/>
       <c r="AD82"/>
       <c r="AE82"/>
-      <c r="AF82"/>
-      <c r="AG82"/>
-      <c r="AH82"/>
-      <c r="AI82"/>
-      <c r="AJ82"/>
-      <c r="AK82"/>
-      <c r="AL82"/>
-      <c r="AM82"/>
-    </row>
-    <row r="83" spans="1:39">
+    </row>
+    <row r="83" spans="1:31">
       <c r="A83" s="1">
-        <v>44756.135416666664</v>
+        <v>44763.510416666664</v>
       </c>
       <c r="B83"/>
       <c r="C83"/>
@@ -4598,25 +3480,19 @@
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83"/>
-      <c r="H83">
-        <v>1</v>
-      </c>
+      <c r="H83"/>
       <c r="I83"/>
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83"/>
-      <c r="M83">
-        <v>1</v>
-      </c>
+      <c r="M83"/>
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
       <c r="R83"/>
       <c r="S83"/>
-      <c r="T83">
-        <v>1</v>
-      </c>
+      <c r="T83"/>
       <c r="U83"/>
       <c r="V83"/>
       <c r="W83"/>
@@ -4628,18 +3504,10 @@
       <c r="AC83"/>
       <c r="AD83"/>
       <c r="AE83"/>
-      <c r="AF83"/>
-      <c r="AG83"/>
-      <c r="AH83"/>
-      <c r="AI83"/>
-      <c r="AJ83"/>
-      <c r="AK83"/>
-      <c r="AL83"/>
-      <c r="AM83"/>
-    </row>
-    <row r="84" spans="1:39">
+    </row>
+    <row r="84" spans="1:31">
       <c r="A84" s="1">
-        <v>44756.145833333336</v>
+        <v>44763.520833333336</v>
       </c>
       <c r="B84"/>
       <c r="C84"/>
@@ -4647,25 +3515,19 @@
       <c r="E84"/>
       <c r="F84"/>
       <c r="G84"/>
-      <c r="H84">
-        <v>1</v>
-      </c>
+      <c r="H84"/>
       <c r="I84"/>
       <c r="J84"/>
       <c r="K84"/>
       <c r="L84"/>
-      <c r="M84">
-        <v>1</v>
-      </c>
+      <c r="M84"/>
       <c r="N84"/>
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
       <c r="R84"/>
       <c r="S84"/>
-      <c r="T84">
-        <v>1</v>
-      </c>
+      <c r="T84"/>
       <c r="U84"/>
       <c r="V84"/>
       <c r="W84"/>
@@ -4677,18 +3539,10 @@
       <c r="AC84"/>
       <c r="AD84"/>
       <c r="AE84"/>
-      <c r="AF84"/>
-      <c r="AG84"/>
-      <c r="AH84"/>
-      <c r="AI84"/>
-      <c r="AJ84"/>
-      <c r="AK84"/>
-      <c r="AL84"/>
-      <c r="AM84"/>
-    </row>
-    <row r="85" spans="1:39">
+    </row>
+    <row r="85" spans="1:31">
       <c r="A85" s="1">
-        <v>44756.15625</v>
+        <v>44763.53125</v>
       </c>
       <c r="B85"/>
       <c r="C85"/>
@@ -4696,25 +3550,19 @@
       <c r="E85"/>
       <c r="F85"/>
       <c r="G85"/>
-      <c r="H85">
-        <v>1</v>
-      </c>
+      <c r="H85"/>
       <c r="I85"/>
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85"/>
-      <c r="M85">
-        <v>1</v>
-      </c>
+      <c r="M85"/>
       <c r="N85"/>
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
       <c r="R85"/>
       <c r="S85"/>
-      <c r="T85">
-        <v>1</v>
-      </c>
+      <c r="T85"/>
       <c r="U85"/>
       <c r="V85"/>
       <c r="W85"/>
@@ -4726,18 +3574,10 @@
       <c r="AC85"/>
       <c r="AD85"/>
       <c r="AE85"/>
-      <c r="AF85"/>
-      <c r="AG85"/>
-      <c r="AH85"/>
-      <c r="AI85"/>
-      <c r="AJ85"/>
-      <c r="AK85"/>
-      <c r="AL85"/>
-      <c r="AM85"/>
-    </row>
-    <row r="86" spans="1:39">
+    </row>
+    <row r="86" spans="1:31">
       <c r="A86" s="1">
-        <v>44756.166666666664</v>
+        <v>44763.541666666664</v>
       </c>
       <c r="B86"/>
       <c r="C86"/>
@@ -4745,25 +3585,19 @@
       <c r="E86"/>
       <c r="F86"/>
       <c r="G86"/>
-      <c r="H86">
-        <v>1</v>
-      </c>
+      <c r="H86"/>
       <c r="I86"/>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86"/>
-      <c r="M86">
-        <v>1</v>
-      </c>
+      <c r="M86"/>
       <c r="N86"/>
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
       <c r="R86"/>
       <c r="S86"/>
-      <c r="T86">
-        <v>1</v>
-      </c>
+      <c r="T86"/>
       <c r="U86"/>
       <c r="V86"/>
       <c r="W86"/>
@@ -4775,18 +3609,10 @@
       <c r="AC86"/>
       <c r="AD86"/>
       <c r="AE86"/>
-      <c r="AF86"/>
-      <c r="AG86"/>
-      <c r="AH86"/>
-      <c r="AI86"/>
-      <c r="AJ86"/>
-      <c r="AK86"/>
-      <c r="AL86"/>
-      <c r="AM86"/>
-    </row>
-    <row r="87" spans="1:39">
+    </row>
+    <row r="87" spans="1:31">
       <c r="A87" s="1">
-        <v>44756.177083333336</v>
+        <v>44763.552083333336</v>
       </c>
       <c r="B87"/>
       <c r="C87"/>
@@ -4794,25 +3620,19 @@
       <c r="E87"/>
       <c r="F87"/>
       <c r="G87"/>
-      <c r="H87">
-        <v>1</v>
-      </c>
+      <c r="H87"/>
       <c r="I87"/>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
-      <c r="M87">
-        <v>1</v>
-      </c>
+      <c r="M87"/>
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
       <c r="R87"/>
       <c r="S87"/>
-      <c r="T87">
-        <v>1</v>
-      </c>
+      <c r="T87"/>
       <c r="U87"/>
       <c r="V87"/>
       <c r="W87"/>
@@ -4824,18 +3644,10 @@
       <c r="AC87"/>
       <c r="AD87"/>
       <c r="AE87"/>
-      <c r="AF87"/>
-      <c r="AG87"/>
-      <c r="AH87"/>
-      <c r="AI87"/>
-      <c r="AJ87"/>
-      <c r="AK87"/>
-      <c r="AL87"/>
-      <c r="AM87"/>
-    </row>
-    <row r="88" spans="1:39">
+    </row>
+    <row r="88" spans="1:31">
       <c r="A88" s="1">
-        <v>44756.1875</v>
+        <v>44763.5625</v>
       </c>
       <c r="B88"/>
       <c r="C88"/>
@@ -4843,25 +3655,19 @@
       <c r="E88"/>
       <c r="F88"/>
       <c r="G88"/>
-      <c r="H88">
-        <v>1</v>
-      </c>
+      <c r="H88"/>
       <c r="I88"/>
       <c r="J88"/>
       <c r="K88"/>
       <c r="L88"/>
-      <c r="M88">
-        <v>1</v>
-      </c>
+      <c r="M88"/>
       <c r="N88"/>
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
       <c r="R88"/>
       <c r="S88"/>
-      <c r="T88">
-        <v>1</v>
-      </c>
+      <c r="T88"/>
       <c r="U88"/>
       <c r="V88"/>
       <c r="W88"/>
@@ -4873,18 +3679,10 @@
       <c r="AC88"/>
       <c r="AD88"/>
       <c r="AE88"/>
-      <c r="AF88"/>
-      <c r="AG88"/>
-      <c r="AH88"/>
-      <c r="AI88"/>
-      <c r="AJ88"/>
-      <c r="AK88"/>
-      <c r="AL88"/>
-      <c r="AM88"/>
-    </row>
-    <row r="89" spans="1:39">
+    </row>
+    <row r="89" spans="1:31">
       <c r="A89" s="1">
-        <v>44756.197916666664</v>
+        <v>44763.572916666664</v>
       </c>
       <c r="B89"/>
       <c r="C89"/>
@@ -4892,25 +3690,19 @@
       <c r="E89"/>
       <c r="F89"/>
       <c r="G89"/>
-      <c r="H89">
-        <v>1</v>
-      </c>
+      <c r="H89"/>
       <c r="I89"/>
       <c r="J89"/>
       <c r="K89"/>
       <c r="L89"/>
-      <c r="M89">
-        <v>1</v>
-      </c>
+      <c r="M89"/>
       <c r="N89"/>
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
       <c r="R89"/>
       <c r="S89"/>
-      <c r="T89">
-        <v>1</v>
-      </c>
+      <c r="T89"/>
       <c r="U89"/>
       <c r="V89"/>
       <c r="W89"/>
@@ -4922,18 +3714,10 @@
       <c r="AC89"/>
       <c r="AD89"/>
       <c r="AE89"/>
-      <c r="AF89"/>
-      <c r="AG89"/>
-      <c r="AH89"/>
-      <c r="AI89"/>
-      <c r="AJ89"/>
-      <c r="AK89"/>
-      <c r="AL89"/>
-      <c r="AM89"/>
-    </row>
-    <row r="90" spans="1:39">
+    </row>
+    <row r="90" spans="1:31">
       <c r="A90" s="1">
-        <v>44756.208333333336</v>
+        <v>44763.583333333336</v>
       </c>
       <c r="B90"/>
       <c r="C90"/>
@@ -4941,25 +3725,19 @@
       <c r="E90"/>
       <c r="F90"/>
       <c r="G90"/>
-      <c r="H90">
-        <v>1</v>
-      </c>
+      <c r="H90"/>
       <c r="I90"/>
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90"/>
-      <c r="M90">
-        <v>1</v>
-      </c>
+      <c r="M90"/>
       <c r="N90"/>
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90"/>
       <c r="R90"/>
       <c r="S90"/>
-      <c r="T90">
-        <v>1</v>
-      </c>
+      <c r="T90"/>
       <c r="U90"/>
       <c r="V90"/>
       <c r="W90"/>
@@ -4971,18 +3749,10 @@
       <c r="AC90"/>
       <c r="AD90"/>
       <c r="AE90"/>
-      <c r="AF90"/>
-      <c r="AG90"/>
-      <c r="AH90"/>
-      <c r="AI90"/>
-      <c r="AJ90"/>
-      <c r="AK90"/>
-      <c r="AL90"/>
-      <c r="AM90"/>
-    </row>
-    <row r="91" spans="1:39">
+    </row>
+    <row r="91" spans="1:31">
       <c r="A91" s="1">
-        <v>44756.21875</v>
+        <v>44763.59375</v>
       </c>
       <c r="B91"/>
       <c r="C91"/>
@@ -4990,25 +3760,19 @@
       <c r="E91"/>
       <c r="F91"/>
       <c r="G91"/>
-      <c r="H91">
-        <v>1</v>
-      </c>
+      <c r="H91"/>
       <c r="I91"/>
       <c r="J91"/>
       <c r="K91"/>
       <c r="L91"/>
-      <c r="M91">
-        <v>1</v>
-      </c>
+      <c r="M91"/>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91"/>
       <c r="R91"/>
       <c r="S91"/>
-      <c r="T91">
-        <v>1</v>
-      </c>
+      <c r="T91"/>
       <c r="U91"/>
       <c r="V91"/>
       <c r="W91"/>
@@ -5020,18 +3784,10 @@
       <c r="AC91"/>
       <c r="AD91"/>
       <c r="AE91"/>
-      <c r="AF91"/>
-      <c r="AG91"/>
-      <c r="AH91"/>
-      <c r="AI91"/>
-      <c r="AJ91"/>
-      <c r="AK91"/>
-      <c r="AL91"/>
-      <c r="AM91"/>
-    </row>
-    <row r="92" spans="1:39">
+    </row>
+    <row r="92" spans="1:31">
       <c r="A92" s="1">
-        <v>44756.229166666664</v>
+        <v>44763.604166666664</v>
       </c>
       <c r="B92"/>
       <c r="C92"/>
@@ -5039,25 +3795,19 @@
       <c r="E92"/>
       <c r="F92"/>
       <c r="G92"/>
-      <c r="H92">
-        <v>1</v>
-      </c>
+      <c r="H92"/>
       <c r="I92"/>
       <c r="J92"/>
       <c r="K92"/>
       <c r="L92"/>
-      <c r="M92">
-        <v>1</v>
-      </c>
+      <c r="M92"/>
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92"/>
       <c r="R92"/>
       <c r="S92"/>
-      <c r="T92">
-        <v>1</v>
-      </c>
+      <c r="T92"/>
       <c r="U92"/>
       <c r="V92"/>
       <c r="W92"/>
@@ -5069,18 +3819,10 @@
       <c r="AC92"/>
       <c r="AD92"/>
       <c r="AE92"/>
-      <c r="AF92"/>
-      <c r="AG92"/>
-      <c r="AH92"/>
-      <c r="AI92"/>
-      <c r="AJ92"/>
-      <c r="AK92"/>
-      <c r="AL92"/>
-      <c r="AM92"/>
-    </row>
-    <row r="93" spans="1:39">
+    </row>
+    <row r="93" spans="1:31">
       <c r="A93" s="1">
-        <v>44756.239583333336</v>
+        <v>44763.614583333336</v>
       </c>
       <c r="B93"/>
       <c r="C93"/>
@@ -5088,25 +3830,19 @@
       <c r="E93"/>
       <c r="F93"/>
       <c r="G93"/>
-      <c r="H93">
-        <v>1</v>
-      </c>
+      <c r="H93"/>
       <c r="I93"/>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93"/>
-      <c r="M93">
-        <v>1</v>
-      </c>
+      <c r="M93"/>
       <c r="N93"/>
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
       <c r="R93"/>
       <c r="S93"/>
-      <c r="T93">
-        <v>1</v>
-      </c>
+      <c r="T93"/>
       <c r="U93"/>
       <c r="V93"/>
       <c r="W93"/>
@@ -5118,18 +3854,10 @@
       <c r="AC93"/>
       <c r="AD93"/>
       <c r="AE93"/>
-      <c r="AF93"/>
-      <c r="AG93"/>
-      <c r="AH93"/>
-      <c r="AI93"/>
-      <c r="AJ93"/>
-      <c r="AK93"/>
-      <c r="AL93"/>
-      <c r="AM93"/>
-    </row>
-    <row r="94" spans="1:39">
+    </row>
+    <row r="94" spans="1:31">
       <c r="A94" s="1">
-        <v>44756.25</v>
+        <v>44763.625</v>
       </c>
       <c r="B94"/>
       <c r="C94"/>
@@ -5137,25 +3865,19 @@
       <c r="E94"/>
       <c r="F94"/>
       <c r="G94"/>
-      <c r="H94">
-        <v>1</v>
-      </c>
+      <c r="H94"/>
       <c r="I94"/>
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94"/>
-      <c r="M94">
-        <v>1</v>
-      </c>
+      <c r="M94"/>
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94"/>
       <c r="R94"/>
       <c r="S94"/>
-      <c r="T94">
-        <v>1</v>
-      </c>
+      <c r="T94"/>
       <c r="U94"/>
       <c r="V94"/>
       <c r="W94"/>
@@ -5167,18 +3889,10 @@
       <c r="AC94"/>
       <c r="AD94"/>
       <c r="AE94"/>
-      <c r="AF94"/>
-      <c r="AG94"/>
-      <c r="AH94"/>
-      <c r="AI94"/>
-      <c r="AJ94"/>
-      <c r="AK94"/>
-      <c r="AL94"/>
-      <c r="AM94"/>
-    </row>
-    <row r="95" spans="1:39">
+    </row>
+    <row r="95" spans="1:31">
       <c r="A95" s="1">
-        <v>44756.260416666664</v>
+        <v>44763.635416666664</v>
       </c>
       <c r="B95"/>
       <c r="C95"/>
@@ -5186,25 +3900,19 @@
       <c r="E95"/>
       <c r="F95"/>
       <c r="G95"/>
-      <c r="H95">
-        <v>1</v>
-      </c>
+      <c r="H95"/>
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95"/>
       <c r="L95"/>
-      <c r="M95">
-        <v>1</v>
-      </c>
+      <c r="M95"/>
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95"/>
       <c r="R95"/>
       <c r="S95"/>
-      <c r="T95">
-        <v>1</v>
-      </c>
+      <c r="T95"/>
       <c r="U95"/>
       <c r="V95"/>
       <c r="W95"/>
@@ -5216,18 +3924,10 @@
       <c r="AC95"/>
       <c r="AD95"/>
       <c r="AE95"/>
-      <c r="AF95"/>
-      <c r="AG95"/>
-      <c r="AH95"/>
-      <c r="AI95"/>
-      <c r="AJ95"/>
-      <c r="AK95"/>
-      <c r="AL95"/>
-      <c r="AM95"/>
-    </row>
-    <row r="96" spans="1:39">
+    </row>
+    <row r="96" spans="1:31">
       <c r="A96" s="1">
-        <v>44756.270833333336</v>
+        <v>44763.645833333336</v>
       </c>
       <c r="B96"/>
       <c r="C96"/>
@@ -5235,25 +3935,19 @@
       <c r="E96"/>
       <c r="F96"/>
       <c r="G96"/>
-      <c r="H96">
-        <v>1</v>
-      </c>
+      <c r="H96"/>
       <c r="I96"/>
       <c r="J96"/>
       <c r="K96"/>
       <c r="L96"/>
-      <c r="M96">
-        <v>1</v>
-      </c>
+      <c r="M96"/>
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96"/>
       <c r="R96"/>
       <c r="S96"/>
-      <c r="T96">
-        <v>1</v>
-      </c>
+      <c r="T96"/>
       <c r="U96"/>
       <c r="V96"/>
       <c r="W96"/>
@@ -5265,18 +3959,10 @@
       <c r="AC96"/>
       <c r="AD96"/>
       <c r="AE96"/>
-      <c r="AF96"/>
-      <c r="AG96"/>
-      <c r="AH96"/>
-      <c r="AI96"/>
-      <c r="AJ96"/>
-      <c r="AK96"/>
-      <c r="AL96"/>
-      <c r="AM96"/>
-    </row>
-    <row r="97" spans="1:39">
+    </row>
+    <row r="97" spans="1:31">
       <c r="A97" s="1">
-        <v>44756.28125</v>
+        <v>44763.65625</v>
       </c>
       <c r="B97"/>
       <c r="C97"/>
@@ -5284,25 +3970,19 @@
       <c r="E97"/>
       <c r="F97"/>
       <c r="G97"/>
-      <c r="H97">
-        <v>1</v>
-      </c>
+      <c r="H97"/>
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97"/>
       <c r="L97"/>
-      <c r="M97">
-        <v>1</v>
-      </c>
+      <c r="M97"/>
       <c r="N97"/>
       <c r="O97"/>
       <c r="P97"/>
       <c r="Q97"/>
       <c r="R97"/>
       <c r="S97"/>
-      <c r="T97">
-        <v>1</v>
-      </c>
+      <c r="T97"/>
       <c r="U97"/>
       <c r="V97"/>
       <c r="W97"/>
@@ -5314,14 +3994,2281 @@
       <c r="AC97"/>
       <c r="AD97"/>
       <c r="AE97"/>
-      <c r="AF97"/>
-      <c r="AG97"/>
-      <c r="AH97"/>
-      <c r="AI97"/>
-      <c r="AJ97"/>
-      <c r="AK97"/>
-      <c r="AL97"/>
-      <c r="AM97"/>
+    </row>
+    <row r="98" spans="1:31">
+      <c r="A98" s="1">
+        <v>44763.666666666664</v>
+      </c>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98"/>
+      <c r="Y98"/>
+      <c r="Z98"/>
+      <c r="AA98"/>
+      <c r="AB98"/>
+      <c r="AC98"/>
+      <c r="AD98"/>
+      <c r="AE98"/>
+    </row>
+    <row r="99" spans="1:31">
+      <c r="A99" s="1">
+        <v>44763.677083333336</v>
+      </c>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99"/>
+      <c r="X99"/>
+      <c r="Y99"/>
+      <c r="Z99"/>
+      <c r="AA99"/>
+      <c r="AB99"/>
+      <c r="AC99"/>
+      <c r="AD99"/>
+      <c r="AE99"/>
+    </row>
+    <row r="100" spans="1:31">
+      <c r="A100" s="1">
+        <v>44763.6875</v>
+      </c>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
+      <c r="AA100"/>
+      <c r="AB100"/>
+      <c r="AC100"/>
+      <c r="AD100"/>
+      <c r="AE100"/>
+    </row>
+    <row r="101" spans="1:31">
+      <c r="A101" s="1">
+        <v>44763.697916666664</v>
+      </c>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="X101"/>
+      <c r="Y101"/>
+      <c r="Z101"/>
+      <c r="AA101"/>
+      <c r="AB101"/>
+      <c r="AC101"/>
+      <c r="AD101"/>
+      <c r="AE101"/>
+    </row>
+    <row r="102" spans="1:31">
+      <c r="A102" s="1">
+        <v>44763.708333333336</v>
+      </c>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102"/>
+      <c r="W102"/>
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
+      <c r="AA102"/>
+      <c r="AB102"/>
+      <c r="AC102"/>
+      <c r="AD102"/>
+      <c r="AE102"/>
+    </row>
+    <row r="103" spans="1:31">
+      <c r="A103" s="1">
+        <v>44763.71875</v>
+      </c>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
+      <c r="W103"/>
+      <c r="X103"/>
+      <c r="Y103"/>
+      <c r="Z103"/>
+      <c r="AA103"/>
+      <c r="AB103"/>
+      <c r="AC103"/>
+      <c r="AD103"/>
+      <c r="AE103"/>
+    </row>
+    <row r="104" spans="1:31">
+      <c r="A104" s="1">
+        <v>44763.729166666664</v>
+      </c>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104"/>
+      <c r="W104"/>
+      <c r="X104"/>
+      <c r="Y104"/>
+      <c r="Z104"/>
+      <c r="AA104"/>
+      <c r="AB104"/>
+      <c r="AC104"/>
+      <c r="AD104"/>
+      <c r="AE104"/>
+    </row>
+    <row r="105" spans="1:31">
+      <c r="A105" s="1">
+        <v>44763.739583333336</v>
+      </c>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105"/>
+      <c r="V105"/>
+      <c r="W105"/>
+      <c r="X105"/>
+      <c r="Y105"/>
+      <c r="Z105"/>
+      <c r="AA105"/>
+      <c r="AB105"/>
+      <c r="AC105"/>
+      <c r="AD105"/>
+      <c r="AE105"/>
+    </row>
+    <row r="106" spans="1:31">
+      <c r="A106" s="1">
+        <v>44763.75</v>
+      </c>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+      <c r="S106"/>
+      <c r="T106"/>
+      <c r="U106"/>
+      <c r="V106"/>
+      <c r="W106"/>
+      <c r="X106"/>
+      <c r="Y106"/>
+      <c r="Z106"/>
+      <c r="AA106"/>
+      <c r="AB106"/>
+      <c r="AC106"/>
+      <c r="AD106"/>
+      <c r="AE106"/>
+    </row>
+    <row r="107" spans="1:31">
+      <c r="A107" s="1">
+        <v>44763.760416666664</v>
+      </c>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107"/>
+      <c r="W107"/>
+      <c r="X107"/>
+      <c r="Y107"/>
+      <c r="Z107"/>
+      <c r="AA107"/>
+      <c r="AB107"/>
+      <c r="AC107"/>
+      <c r="AD107"/>
+      <c r="AE107"/>
+    </row>
+    <row r="108" spans="1:31">
+      <c r="A108" s="1">
+        <v>44763.770833333336</v>
+      </c>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
+      <c r="T108"/>
+      <c r="U108"/>
+      <c r="V108"/>
+      <c r="W108"/>
+      <c r="X108"/>
+      <c r="Y108"/>
+      <c r="Z108"/>
+      <c r="AA108"/>
+      <c r="AB108"/>
+      <c r="AC108"/>
+      <c r="AD108"/>
+      <c r="AE108"/>
+    </row>
+    <row r="109" spans="1:31">
+      <c r="A109" s="1">
+        <v>44763.78125</v>
+      </c>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109"/>
+      <c r="V109"/>
+      <c r="W109"/>
+      <c r="X109"/>
+      <c r="Y109"/>
+      <c r="Z109"/>
+      <c r="AA109"/>
+      <c r="AB109"/>
+      <c r="AC109"/>
+      <c r="AD109"/>
+      <c r="AE109"/>
+    </row>
+    <row r="110" spans="1:31">
+      <c r="A110" s="1">
+        <v>44763.791666666664</v>
+      </c>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
+      <c r="W110"/>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
+      <c r="AA110"/>
+      <c r="AB110"/>
+      <c r="AC110"/>
+      <c r="AD110"/>
+      <c r="AE110"/>
+    </row>
+    <row r="111" spans="1:31">
+      <c r="A111" s="1">
+        <v>44763.802083333336</v>
+      </c>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111"/>
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
+      <c r="W111"/>
+      <c r="X111"/>
+      <c r="Y111"/>
+      <c r="Z111"/>
+      <c r="AA111"/>
+      <c r="AB111"/>
+      <c r="AC111"/>
+      <c r="AD111"/>
+      <c r="AE111"/>
+    </row>
+    <row r="112" spans="1:31">
+      <c r="A112" s="1">
+        <v>44763.8125</v>
+      </c>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+      <c r="Y112"/>
+      <c r="Z112"/>
+      <c r="AA112"/>
+      <c r="AB112"/>
+      <c r="AC112"/>
+      <c r="AD112"/>
+      <c r="AE112"/>
+    </row>
+    <row r="113" spans="1:31">
+      <c r="A113" s="1">
+        <v>44763.822916666664</v>
+      </c>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+      <c r="AA113"/>
+      <c r="AB113"/>
+      <c r="AC113"/>
+      <c r="AD113"/>
+      <c r="AE113"/>
+    </row>
+    <row r="114" spans="1:31">
+      <c r="A114" s="1">
+        <v>44763.833333333336</v>
+      </c>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+      <c r="Y114"/>
+      <c r="Z114"/>
+      <c r="AA114"/>
+      <c r="AB114"/>
+      <c r="AC114"/>
+      <c r="AD114"/>
+      <c r="AE114"/>
+    </row>
+    <row r="115" spans="1:31">
+      <c r="A115" s="1">
+        <v>44763.84375</v>
+      </c>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+      <c r="X115"/>
+      <c r="Y115"/>
+      <c r="Z115"/>
+      <c r="AA115"/>
+      <c r="AB115"/>
+      <c r="AC115"/>
+      <c r="AD115"/>
+      <c r="AE115"/>
+    </row>
+    <row r="116" spans="1:31">
+      <c r="A116" s="1">
+        <v>44763.854166666664</v>
+      </c>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+      <c r="V116"/>
+      <c r="W116"/>
+      <c r="X116"/>
+      <c r="Y116"/>
+      <c r="Z116"/>
+      <c r="AA116"/>
+      <c r="AB116"/>
+      <c r="AC116"/>
+      <c r="AD116"/>
+      <c r="AE116"/>
+    </row>
+    <row r="117" spans="1:31">
+      <c r="A117" s="1">
+        <v>44763.864583333336</v>
+      </c>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+      <c r="S117"/>
+      <c r="T117"/>
+      <c r="U117"/>
+      <c r="V117"/>
+      <c r="W117"/>
+      <c r="X117"/>
+      <c r="Y117"/>
+      <c r="Z117"/>
+      <c r="AA117"/>
+      <c r="AB117"/>
+      <c r="AC117"/>
+      <c r="AD117"/>
+      <c r="AE117"/>
+    </row>
+    <row r="118" spans="1:31">
+      <c r="A118" s="1">
+        <v>44763.875</v>
+      </c>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118"/>
+      <c r="S118"/>
+      <c r="T118"/>
+      <c r="U118"/>
+      <c r="V118"/>
+      <c r="W118"/>
+      <c r="X118"/>
+      <c r="Y118"/>
+      <c r="Z118"/>
+      <c r="AA118"/>
+      <c r="AB118"/>
+      <c r="AC118"/>
+      <c r="AD118"/>
+      <c r="AE118"/>
+    </row>
+    <row r="119" spans="1:31">
+      <c r="A119" s="1">
+        <v>44763.885416666664</v>
+      </c>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119"/>
+      <c r="T119"/>
+      <c r="U119"/>
+      <c r="V119"/>
+      <c r="W119"/>
+      <c r="X119"/>
+      <c r="Y119"/>
+      <c r="Z119"/>
+      <c r="AA119"/>
+      <c r="AB119"/>
+      <c r="AC119"/>
+      <c r="AD119"/>
+      <c r="AE119"/>
+    </row>
+    <row r="120" spans="1:31">
+      <c r="A120" s="1">
+        <v>44763.895833333336</v>
+      </c>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120"/>
+      <c r="T120"/>
+      <c r="U120"/>
+      <c r="V120"/>
+      <c r="W120"/>
+      <c r="X120"/>
+      <c r="Y120"/>
+      <c r="Z120"/>
+      <c r="AA120"/>
+      <c r="AB120"/>
+      <c r="AC120"/>
+      <c r="AD120"/>
+      <c r="AE120"/>
+    </row>
+    <row r="121" spans="1:31">
+      <c r="A121" s="1">
+        <v>44763.90625</v>
+      </c>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+      <c r="R121"/>
+      <c r="S121"/>
+      <c r="T121"/>
+      <c r="U121"/>
+      <c r="V121"/>
+      <c r="W121"/>
+      <c r="X121"/>
+      <c r="Y121"/>
+      <c r="Z121"/>
+      <c r="AA121"/>
+      <c r="AB121"/>
+      <c r="AC121"/>
+      <c r="AD121"/>
+      <c r="AE121"/>
+    </row>
+    <row r="122" spans="1:31">
+      <c r="A122" s="1">
+        <v>44763.916666666664</v>
+      </c>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122"/>
+      <c r="R122"/>
+      <c r="S122"/>
+      <c r="T122"/>
+      <c r="U122"/>
+      <c r="V122"/>
+      <c r="W122"/>
+      <c r="X122"/>
+      <c r="Y122"/>
+      <c r="Z122"/>
+      <c r="AA122"/>
+      <c r="AB122"/>
+      <c r="AC122"/>
+      <c r="AD122"/>
+      <c r="AE122"/>
+    </row>
+    <row r="123" spans="1:31">
+      <c r="A123" s="1">
+        <v>44763.927083333336</v>
+      </c>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+      <c r="Q123"/>
+      <c r="R123"/>
+      <c r="S123"/>
+      <c r="T123"/>
+      <c r="U123"/>
+      <c r="V123"/>
+      <c r="W123"/>
+      <c r="X123"/>
+      <c r="Y123"/>
+      <c r="Z123"/>
+      <c r="AA123"/>
+      <c r="AB123"/>
+      <c r="AC123"/>
+      <c r="AD123"/>
+      <c r="AE123"/>
+    </row>
+    <row r="124" spans="1:31">
+      <c r="A124" s="1">
+        <v>44763.9375</v>
+      </c>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
+      <c r="R124"/>
+      <c r="S124"/>
+      <c r="T124"/>
+      <c r="U124"/>
+      <c r="V124"/>
+      <c r="W124"/>
+      <c r="X124"/>
+      <c r="Y124"/>
+      <c r="Z124"/>
+      <c r="AA124"/>
+      <c r="AB124"/>
+      <c r="AC124"/>
+      <c r="AD124"/>
+      <c r="AE124"/>
+    </row>
+    <row r="125" spans="1:31">
+      <c r="A125" s="1">
+        <v>44763.947916666664</v>
+      </c>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
+      <c r="R125"/>
+      <c r="S125"/>
+      <c r="T125"/>
+      <c r="U125"/>
+      <c r="V125"/>
+      <c r="W125"/>
+      <c r="X125"/>
+      <c r="Y125"/>
+      <c r="Z125"/>
+      <c r="AA125"/>
+      <c r="AB125"/>
+      <c r="AC125"/>
+      <c r="AD125"/>
+      <c r="AE125"/>
+    </row>
+    <row r="126" spans="1:31">
+      <c r="A126" s="1">
+        <v>44763.958333333336</v>
+      </c>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126"/>
+      <c r="S126"/>
+      <c r="T126"/>
+      <c r="U126"/>
+      <c r="V126"/>
+      <c r="W126"/>
+      <c r="X126"/>
+      <c r="Y126"/>
+      <c r="Z126"/>
+      <c r="AA126"/>
+      <c r="AB126"/>
+      <c r="AC126"/>
+      <c r="AD126"/>
+      <c r="AE126"/>
+    </row>
+    <row r="127" spans="1:31">
+      <c r="A127" s="1">
+        <v>44763.96875</v>
+      </c>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+      <c r="Q127"/>
+      <c r="R127"/>
+      <c r="S127"/>
+      <c r="T127"/>
+      <c r="U127"/>
+      <c r="V127"/>
+      <c r="W127"/>
+      <c r="X127"/>
+      <c r="Y127"/>
+      <c r="Z127"/>
+      <c r="AA127"/>
+      <c r="AB127"/>
+      <c r="AC127"/>
+      <c r="AD127"/>
+      <c r="AE127"/>
+    </row>
+    <row r="128" spans="1:31">
+      <c r="A128" s="1">
+        <v>44763.979166666664</v>
+      </c>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
+      <c r="R128"/>
+      <c r="S128"/>
+      <c r="T128"/>
+      <c r="U128"/>
+      <c r="V128"/>
+      <c r="W128"/>
+      <c r="X128"/>
+      <c r="Y128"/>
+      <c r="Z128"/>
+      <c r="AA128"/>
+      <c r="AB128"/>
+      <c r="AC128"/>
+      <c r="AD128"/>
+      <c r="AE128"/>
+    </row>
+    <row r="129" spans="1:31">
+      <c r="A129" s="1">
+        <v>44763.989583333336</v>
+      </c>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
+      <c r="R129"/>
+      <c r="S129"/>
+      <c r="T129"/>
+      <c r="U129"/>
+      <c r="V129"/>
+      <c r="W129"/>
+      <c r="X129"/>
+      <c r="Y129"/>
+      <c r="Z129"/>
+      <c r="AA129"/>
+      <c r="AB129"/>
+      <c r="AC129"/>
+      <c r="AD129"/>
+      <c r="AE129"/>
+    </row>
+    <row r="130" spans="1:31">
+      <c r="A130" s="1">
+        <v>44764.0</v>
+      </c>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130"/>
+      <c r="R130"/>
+      <c r="S130"/>
+      <c r="T130"/>
+      <c r="U130"/>
+      <c r="V130"/>
+      <c r="W130"/>
+      <c r="X130"/>
+      <c r="Y130"/>
+      <c r="Z130"/>
+      <c r="AA130"/>
+      <c r="AB130"/>
+      <c r="AC130"/>
+      <c r="AD130"/>
+      <c r="AE130"/>
+    </row>
+    <row r="131" spans="1:31">
+      <c r="A131" s="1">
+        <v>44764.010416666664</v>
+      </c>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+      <c r="Q131"/>
+      <c r="R131"/>
+      <c r="S131"/>
+      <c r="T131"/>
+      <c r="U131"/>
+      <c r="V131"/>
+      <c r="W131"/>
+      <c r="X131"/>
+      <c r="Y131"/>
+      <c r="Z131"/>
+      <c r="AA131"/>
+      <c r="AB131"/>
+      <c r="AC131"/>
+      <c r="AD131"/>
+      <c r="AE131"/>
+    </row>
+    <row r="132" spans="1:31">
+      <c r="A132" s="1">
+        <v>44764.020833333336</v>
+      </c>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+      <c r="Q132"/>
+      <c r="R132"/>
+      <c r="S132"/>
+      <c r="T132"/>
+      <c r="U132"/>
+      <c r="V132"/>
+      <c r="W132"/>
+      <c r="X132"/>
+      <c r="Y132"/>
+      <c r="Z132"/>
+      <c r="AA132"/>
+      <c r="AB132"/>
+      <c r="AC132"/>
+      <c r="AD132"/>
+      <c r="AE132"/>
+    </row>
+    <row r="133" spans="1:31">
+      <c r="A133" s="1">
+        <v>44764.03125</v>
+      </c>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133"/>
+      <c r="S133"/>
+      <c r="T133"/>
+      <c r="U133"/>
+      <c r="V133"/>
+      <c r="W133"/>
+      <c r="X133"/>
+      <c r="Y133"/>
+      <c r="Z133"/>
+      <c r="AA133"/>
+      <c r="AB133"/>
+      <c r="AC133"/>
+      <c r="AD133"/>
+      <c r="AE133"/>
+    </row>
+    <row r="134" spans="1:31">
+      <c r="A134" s="1">
+        <v>44764.041666666664</v>
+      </c>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134"/>
+      <c r="S134"/>
+      <c r="T134"/>
+      <c r="U134"/>
+      <c r="V134"/>
+      <c r="W134"/>
+      <c r="X134"/>
+      <c r="Y134"/>
+      <c r="Z134"/>
+      <c r="AA134"/>
+      <c r="AB134"/>
+      <c r="AC134"/>
+      <c r="AD134"/>
+      <c r="AE134"/>
+    </row>
+    <row r="135" spans="1:31">
+      <c r="A135" s="1">
+        <v>44764.052083333336</v>
+      </c>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135"/>
+      <c r="U135"/>
+      <c r="V135"/>
+      <c r="W135"/>
+      <c r="X135"/>
+      <c r="Y135"/>
+      <c r="Z135"/>
+      <c r="AA135"/>
+      <c r="AB135"/>
+      <c r="AC135"/>
+      <c r="AD135"/>
+      <c r="AE135"/>
+    </row>
+    <row r="136" spans="1:31">
+      <c r="A136" s="1">
+        <v>44764.0625</v>
+      </c>
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136"/>
+      <c r="T136"/>
+      <c r="U136"/>
+      <c r="V136"/>
+      <c r="W136"/>
+      <c r="X136"/>
+      <c r="Y136"/>
+      <c r="Z136"/>
+      <c r="AA136"/>
+      <c r="AB136"/>
+      <c r="AC136"/>
+      <c r="AD136"/>
+      <c r="AE136"/>
+    </row>
+    <row r="137" spans="1:31">
+      <c r="A137" s="1">
+        <v>44764.072916666664</v>
+      </c>
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+      <c r="V137"/>
+      <c r="W137"/>
+      <c r="X137"/>
+      <c r="Y137"/>
+      <c r="Z137"/>
+      <c r="AA137"/>
+      <c r="AB137"/>
+      <c r="AC137"/>
+      <c r="AD137"/>
+      <c r="AE137"/>
+    </row>
+    <row r="138" spans="1:31">
+      <c r="A138" s="1">
+        <v>44764.083333333336</v>
+      </c>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+      <c r="V138"/>
+      <c r="W138"/>
+      <c r="X138"/>
+      <c r="Y138"/>
+      <c r="Z138"/>
+      <c r="AA138"/>
+      <c r="AB138"/>
+      <c r="AC138"/>
+      <c r="AD138"/>
+      <c r="AE138"/>
+    </row>
+    <row r="139" spans="1:31">
+      <c r="A139" s="1">
+        <v>44764.09375</v>
+      </c>
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139"/>
+      <c r="S139"/>
+      <c r="T139"/>
+      <c r="U139"/>
+      <c r="V139"/>
+      <c r="W139"/>
+      <c r="X139"/>
+      <c r="Y139"/>
+      <c r="Z139"/>
+      <c r="AA139"/>
+      <c r="AB139"/>
+      <c r="AC139"/>
+      <c r="AD139"/>
+      <c r="AE139"/>
+    </row>
+    <row r="140" spans="1:31">
+      <c r="A140" s="1">
+        <v>44764.104166666664</v>
+      </c>
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140"/>
+      <c r="S140"/>
+      <c r="T140"/>
+      <c r="U140"/>
+      <c r="V140"/>
+      <c r="W140"/>
+      <c r="X140"/>
+      <c r="Y140"/>
+      <c r="Z140"/>
+      <c r="AA140"/>
+      <c r="AB140"/>
+      <c r="AC140"/>
+      <c r="AD140"/>
+      <c r="AE140"/>
+    </row>
+    <row r="141" spans="1:31">
+      <c r="A141" s="1">
+        <v>44764.114583333336</v>
+      </c>
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141"/>
+      <c r="S141"/>
+      <c r="T141"/>
+      <c r="U141"/>
+      <c r="V141"/>
+      <c r="W141"/>
+      <c r="X141"/>
+      <c r="Y141"/>
+      <c r="Z141"/>
+      <c r="AA141"/>
+      <c r="AB141"/>
+      <c r="AC141"/>
+      <c r="AD141"/>
+      <c r="AE141"/>
+    </row>
+    <row r="142" spans="1:31">
+      <c r="A142" s="1">
+        <v>44764.125</v>
+      </c>
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142"/>
+      <c r="S142"/>
+      <c r="T142"/>
+      <c r="U142"/>
+      <c r="V142"/>
+      <c r="W142"/>
+      <c r="X142"/>
+      <c r="Y142"/>
+      <c r="Z142"/>
+      <c r="AA142"/>
+      <c r="AB142"/>
+      <c r="AC142"/>
+      <c r="AD142"/>
+      <c r="AE142"/>
+    </row>
+    <row r="143" spans="1:31">
+      <c r="A143" s="1">
+        <v>44764.135416666664</v>
+      </c>
+      <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143"/>
+      <c r="S143"/>
+      <c r="T143"/>
+      <c r="U143"/>
+      <c r="V143"/>
+      <c r="W143"/>
+      <c r="X143"/>
+      <c r="Y143"/>
+      <c r="Z143"/>
+      <c r="AA143"/>
+      <c r="AB143"/>
+      <c r="AC143"/>
+      <c r="AD143"/>
+      <c r="AE143"/>
+    </row>
+    <row r="144" spans="1:31">
+      <c r="A144" s="1">
+        <v>44764.145833333336</v>
+      </c>
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+      <c r="Q144"/>
+      <c r="R144"/>
+      <c r="S144"/>
+      <c r="T144"/>
+      <c r="U144"/>
+      <c r="V144"/>
+      <c r="W144"/>
+      <c r="X144"/>
+      <c r="Y144"/>
+      <c r="Z144"/>
+      <c r="AA144"/>
+      <c r="AB144"/>
+      <c r="AC144"/>
+      <c r="AD144"/>
+      <c r="AE144"/>
+    </row>
+    <row r="145" spans="1:31">
+      <c r="A145" s="1">
+        <v>44764.15625</v>
+      </c>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
+      <c r="R145"/>
+      <c r="S145"/>
+      <c r="T145"/>
+      <c r="U145"/>
+      <c r="V145"/>
+      <c r="W145"/>
+      <c r="X145"/>
+      <c r="Y145"/>
+      <c r="Z145"/>
+      <c r="AA145"/>
+      <c r="AB145"/>
+      <c r="AC145"/>
+      <c r="AD145"/>
+      <c r="AE145"/>
+    </row>
+    <row r="146" spans="1:31">
+      <c r="A146" s="1">
+        <v>44764.166666666664</v>
+      </c>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+      <c r="R146"/>
+      <c r="S146"/>
+      <c r="T146"/>
+      <c r="U146"/>
+      <c r="V146"/>
+      <c r="W146"/>
+      <c r="X146"/>
+      <c r="Y146"/>
+      <c r="Z146"/>
+      <c r="AA146"/>
+      <c r="AB146"/>
+      <c r="AC146"/>
+      <c r="AD146"/>
+      <c r="AE146"/>
+    </row>
+    <row r="147" spans="1:31">
+      <c r="A147" s="1">
+        <v>44764.177083333336</v>
+      </c>
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+      <c r="S147"/>
+      <c r="T147"/>
+      <c r="U147"/>
+      <c r="V147"/>
+      <c r="W147"/>
+      <c r="X147"/>
+      <c r="Y147"/>
+      <c r="Z147"/>
+      <c r="AA147"/>
+      <c r="AB147"/>
+      <c r="AC147"/>
+      <c r="AD147"/>
+      <c r="AE147"/>
+    </row>
+    <row r="148" spans="1:31">
+      <c r="A148" s="1">
+        <v>44764.1875</v>
+      </c>
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+      <c r="Q148"/>
+      <c r="R148"/>
+      <c r="S148"/>
+      <c r="T148"/>
+      <c r="U148"/>
+      <c r="V148"/>
+      <c r="W148"/>
+      <c r="X148"/>
+      <c r="Y148"/>
+      <c r="Z148"/>
+      <c r="AA148"/>
+      <c r="AB148"/>
+      <c r="AC148"/>
+      <c r="AD148"/>
+      <c r="AE148"/>
+    </row>
+    <row r="149" spans="1:31">
+      <c r="A149" s="1">
+        <v>44764.197916666664</v>
+      </c>
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
+      <c r="R149"/>
+      <c r="S149"/>
+      <c r="T149"/>
+      <c r="U149"/>
+      <c r="V149"/>
+      <c r="W149"/>
+      <c r="X149"/>
+      <c r="Y149"/>
+      <c r="Z149"/>
+      <c r="AA149"/>
+      <c r="AB149"/>
+      <c r="AC149"/>
+      <c r="AD149"/>
+      <c r="AE149"/>
+    </row>
+    <row r="150" spans="1:31">
+      <c r="A150" s="1">
+        <v>44764.208333333336</v>
+      </c>
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150"/>
+      <c r="R150"/>
+      <c r="S150"/>
+      <c r="T150"/>
+      <c r="U150"/>
+      <c r="V150"/>
+      <c r="W150"/>
+      <c r="X150"/>
+      <c r="Y150"/>
+      <c r="Z150"/>
+      <c r="AA150"/>
+      <c r="AB150"/>
+      <c r="AC150"/>
+      <c r="AD150"/>
+      <c r="AE150"/>
+    </row>
+    <row r="151" spans="1:31">
+      <c r="A151" s="1">
+        <v>44764.21875</v>
+      </c>
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+      <c r="Q151"/>
+      <c r="R151"/>
+      <c r="S151"/>
+      <c r="T151"/>
+      <c r="U151"/>
+      <c r="V151"/>
+      <c r="W151"/>
+      <c r="X151"/>
+      <c r="Y151"/>
+      <c r="Z151"/>
+      <c r="AA151"/>
+      <c r="AB151"/>
+      <c r="AC151"/>
+      <c r="AD151"/>
+      <c r="AE151"/>
+    </row>
+    <row r="152" spans="1:31">
+      <c r="A152" s="1">
+        <v>44764.229166666664</v>
+      </c>
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
+      <c r="R152"/>
+      <c r="S152"/>
+      <c r="T152"/>
+      <c r="U152"/>
+      <c r="V152"/>
+      <c r="W152"/>
+      <c r="X152"/>
+      <c r="Y152"/>
+      <c r="Z152"/>
+      <c r="AA152"/>
+      <c r="AB152"/>
+      <c r="AC152"/>
+      <c r="AD152"/>
+      <c r="AE152"/>
+    </row>
+    <row r="153" spans="1:31">
+      <c r="A153" s="1">
+        <v>44764.239583333336</v>
+      </c>
+      <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153"/>
+      <c r="G153"/>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+      <c r="Q153"/>
+      <c r="R153"/>
+      <c r="S153"/>
+      <c r="T153"/>
+      <c r="U153"/>
+      <c r="V153"/>
+      <c r="W153"/>
+      <c r="X153"/>
+      <c r="Y153"/>
+      <c r="Z153"/>
+      <c r="AA153"/>
+      <c r="AB153"/>
+      <c r="AC153"/>
+      <c r="AD153"/>
+      <c r="AE153"/>
+    </row>
+    <row r="154" spans="1:31">
+      <c r="A154" s="1">
+        <v>44764.25</v>
+      </c>
+      <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+      <c r="Q154"/>
+      <c r="R154"/>
+      <c r="S154"/>
+      <c r="T154"/>
+      <c r="U154"/>
+      <c r="V154"/>
+      <c r="W154"/>
+      <c r="X154"/>
+      <c r="Y154"/>
+      <c r="Z154"/>
+      <c r="AA154"/>
+      <c r="AB154"/>
+      <c r="AC154"/>
+      <c r="AD154"/>
+      <c r="AE154"/>
+    </row>
+    <row r="155" spans="1:31">
+      <c r="A155" s="1">
+        <v>44764.260416666664</v>
+      </c>
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+      <c r="Q155"/>
+      <c r="R155"/>
+      <c r="S155"/>
+      <c r="T155"/>
+      <c r="U155"/>
+      <c r="V155"/>
+      <c r="W155"/>
+      <c r="X155"/>
+      <c r="Y155"/>
+      <c r="Z155"/>
+      <c r="AA155"/>
+      <c r="AB155"/>
+      <c r="AC155"/>
+      <c r="AD155"/>
+      <c r="AE155"/>
+    </row>
+    <row r="156" spans="1:31">
+      <c r="A156" s="1">
+        <v>44764.270833333336</v>
+      </c>
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+      <c r="Q156"/>
+      <c r="R156"/>
+      <c r="S156"/>
+      <c r="T156"/>
+      <c r="U156"/>
+      <c r="V156"/>
+      <c r="W156"/>
+      <c r="X156"/>
+      <c r="Y156"/>
+      <c r="Z156"/>
+      <c r="AA156"/>
+      <c r="AB156"/>
+      <c r="AC156"/>
+      <c r="AD156"/>
+      <c r="AE156"/>
+    </row>
+    <row r="157" spans="1:31">
+      <c r="A157" s="1">
+        <v>44764.28125</v>
+      </c>
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
+      <c r="R157"/>
+      <c r="S157"/>
+      <c r="T157"/>
+      <c r="U157"/>
+      <c r="V157"/>
+      <c r="W157"/>
+      <c r="X157"/>
+      <c r="Y157"/>
+      <c r="Z157"/>
+      <c r="AA157"/>
+      <c r="AB157"/>
+      <c r="AC157"/>
+      <c r="AD157"/>
+      <c r="AE157"/>
+    </row>
+    <row r="158" spans="1:31">
+      <c r="A158" s="1">
+        <v>44764.291666666664</v>
+      </c>
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158"/>
+      <c r="Q158"/>
+      <c r="R158"/>
+      <c r="S158"/>
+      <c r="T158"/>
+      <c r="U158"/>
+      <c r="V158"/>
+      <c r="W158"/>
+      <c r="X158"/>
+      <c r="Y158"/>
+      <c r="Z158"/>
+      <c r="AA158"/>
+      <c r="AB158"/>
+      <c r="AC158"/>
+      <c r="AD158"/>
+      <c r="AE158"/>
+    </row>
+    <row r="159" spans="1:31">
+      <c r="A159" s="1">
+        <v>44764.302083333336</v>
+      </c>
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159"/>
+      <c r="G159"/>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159"/>
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159"/>
+      <c r="P159"/>
+      <c r="Q159"/>
+      <c r="R159"/>
+      <c r="S159"/>
+      <c r="T159"/>
+      <c r="U159"/>
+      <c r="V159"/>
+      <c r="W159"/>
+      <c r="X159"/>
+      <c r="Y159"/>
+      <c r="Z159"/>
+      <c r="AA159"/>
+      <c r="AB159"/>
+      <c r="AC159"/>
+      <c r="AD159"/>
+      <c r="AE159"/>
+    </row>
+    <row r="160" spans="1:31">
+      <c r="A160" s="1">
+        <v>44764.3125</v>
+      </c>
+      <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160"/>
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="O160"/>
+      <c r="P160"/>
+      <c r="Q160"/>
+      <c r="R160"/>
+      <c r="S160"/>
+      <c r="T160"/>
+      <c r="U160"/>
+      <c r="V160"/>
+      <c r="W160"/>
+      <c r="X160"/>
+      <c r="Y160"/>
+      <c r="Z160"/>
+      <c r="AA160"/>
+      <c r="AB160"/>
+      <c r="AC160"/>
+      <c r="AD160"/>
+      <c r="AE160"/>
+    </row>
+    <row r="161" spans="1:31">
+      <c r="A161" s="1">
+        <v>44764.322916666664</v>
+      </c>
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+      <c r="Q161"/>
+      <c r="R161"/>
+      <c r="S161"/>
+      <c r="T161"/>
+      <c r="U161"/>
+      <c r="V161"/>
+      <c r="W161"/>
+      <c r="X161"/>
+      <c r="Y161"/>
+      <c r="Z161"/>
+      <c r="AA161"/>
+      <c r="AB161"/>
+      <c r="AC161"/>
+      <c r="AD161"/>
+      <c r="AE161"/>
+    </row>
+    <row r="162" spans="1:31">
+      <c r="A162" s="1">
+        <v>44764.333333333336</v>
+      </c>
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="H162"/>
+      <c r="I162"/>
+      <c r="J162"/>
+      <c r="K162"/>
+      <c r="L162"/>
+      <c r="M162"/>
+      <c r="N162"/>
+      <c r="O162"/>
+      <c r="P162"/>
+      <c r="Q162"/>
+      <c r="R162"/>
+      <c r="S162"/>
+      <c r="T162"/>
+      <c r="U162"/>
+      <c r="V162"/>
+      <c r="W162"/>
+      <c r="X162"/>
+      <c r="Y162"/>
+      <c r="Z162"/>
+      <c r="AA162"/>
+      <c r="AB162"/>
+      <c r="AC162"/>
+      <c r="AD162"/>
+      <c r="AE162"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/必开燃机列表.xlsx
+++ b/assets/必开燃机列表.xlsx
@@ -25,24 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>时刻</t>
   </si>
   <si>
     <t>半燃厂#1机</t>
-  </si>
-  <si>
-    <t>半燃厂#2机</t>
-  </si>
-  <si>
-    <t>半燃厂#3机</t>
-  </si>
-  <si>
-    <t>半燃厂#4机</t>
-  </si>
-  <si>
-    <t>半燃厂#5机</t>
   </si>
   <si>
     <t>镇燃厂#1机</t>
@@ -51,37 +39,16 @@
     <t>镇燃厂#2机</t>
   </si>
   <si>
-    <t>萧燃厂#1机</t>
-  </si>
-  <si>
-    <t>萧燃厂#2机</t>
-  </si>
-  <si>
     <t>华舜厂#1机</t>
   </si>
   <si>
-    <t>华舜厂#2机</t>
+    <t>龙油气#1机</t>
   </si>
   <si>
-    <t>蓝天厂#1机</t>
-  </si>
-  <si>
-    <t>德能厂#1机</t>
+    <t>龙油气#2机</t>
   </si>
   <si>
     <t>唐绍厂#1机</t>
-  </si>
-  <si>
-    <t>唐绍厂#2机</t>
-  </si>
-  <si>
-    <t>长燃厂#1机</t>
-  </si>
-  <si>
-    <t>长燃厂#2机</t>
-  </si>
-  <si>
-    <t>新城厂#1机</t>
   </si>
   <si>
     <t>下沙厂#1机</t>
@@ -90,34 +57,28 @@
     <t>新泓口#1机</t>
   </si>
   <si>
-    <t>常山厂#1机</t>
+    <t>桐燃厂#1机</t>
   </si>
   <si>
-    <t>桐燃厂#1机</t>
+    <t>江东厂#1机</t>
   </si>
   <si>
     <t>金油气#1机</t>
   </si>
   <si>
-    <t>江东厂#1机</t>
+    <t>镇油气#1机</t>
   </si>
   <si>
-    <t>江东厂#2机</t>
+    <t>镇油气#2机</t>
+  </si>
+  <si>
+    <t>浔宝厂#1机</t>
   </si>
   <si>
     <t>龙游厂#1机</t>
   </si>
   <si>
-    <t>龙游厂#2机</t>
-  </si>
-  <si>
-    <t>浔宝厂#1机</t>
-  </si>
-  <si>
-    <t>龙油气#1机</t>
-  </si>
-  <si>
-    <t>龙油气#2机</t>
+    <t>柯城厂#1机</t>
   </si>
 </sst>
 </file>
@@ -470,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:AE162"/>
+  <dimension ref="A1:R151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,49 +492,10 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
-        <v>44762.666666666664</v>
+        <v>44872.78125</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -592,23 +514,10 @@
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-    </row>
-    <row r="3" spans="1:31">
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
-        <v>44762.677083333336</v>
+        <v>44872.791666666664</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -627,23 +536,10 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-    </row>
-    <row r="4" spans="1:31">
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
-        <v>44762.6875</v>
+        <v>44872.802083333336</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -662,23 +558,10 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-    </row>
-    <row r="5" spans="1:31">
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
-        <v>44762.697916666664</v>
+        <v>44872.8125</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -697,23 +580,10 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-    </row>
-    <row r="6" spans="1:31">
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
-        <v>44762.708333333336</v>
+        <v>44872.822916666664</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -732,23 +602,10 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-      <c r="AE6"/>
-    </row>
-    <row r="7" spans="1:31">
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
-        <v>44762.71875</v>
+        <v>44872.833333333336</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -767,23 +624,10 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-      <c r="AE7"/>
-    </row>
-    <row r="8" spans="1:31">
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
-        <v>44762.729166666664</v>
+        <v>44872.84375</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -802,23 +646,10 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-    </row>
-    <row r="9" spans="1:31">
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
-        <v>44762.739583333336</v>
+        <v>44872.854166666664</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -837,23 +668,10 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-    </row>
-    <row r="10" spans="1:31">
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
-        <v>44762.75</v>
+        <v>44872.864583333336</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -872,23 +690,10 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-      <c r="AE10"/>
-    </row>
-    <row r="11" spans="1:31">
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
-        <v>44762.760416666664</v>
+        <v>44872.875</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -907,23 +712,10 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-    </row>
-    <row r="12" spans="1:31">
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
-        <v>44762.770833333336</v>
+        <v>44872.885416666664</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -942,23 +734,10 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-    </row>
-    <row r="13" spans="1:31">
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
-        <v>44762.78125</v>
+        <v>44872.895833333336</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -977,23 +756,10 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-    </row>
-    <row r="14" spans="1:31">
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
-        <v>44762.791666666664</v>
+        <v>44872.90625</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -1012,23 +778,10 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-    </row>
-    <row r="15" spans="1:31">
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
-        <v>44762.802083333336</v>
+        <v>44872.916666666664</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -1047,23 +800,10 @@
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-    </row>
-    <row r="16" spans="1:31">
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
-        <v>44762.8125</v>
+        <v>44872.927083333336</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -1082,23 +822,10 @@
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-    </row>
-    <row r="17" spans="1:31">
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
-        <v>44762.822916666664</v>
+        <v>44872.9375</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -1117,23 +844,10 @@
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17"/>
-    </row>
-    <row r="18" spans="1:31">
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
-        <v>44762.833333333336</v>
+        <v>44872.947916666664</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -1152,23 +866,10 @@
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-    </row>
-    <row r="19" spans="1:31">
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
-        <v>44762.84375</v>
+        <v>44872.958333333336</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -1187,23 +888,10 @@
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
-      <c r="AE19"/>
-    </row>
-    <row r="20" spans="1:31">
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
-        <v>44762.854166666664</v>
+        <v>44872.96875</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -1222,23 +910,10 @@
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-      <c r="AE20"/>
-    </row>
-    <row r="21" spans="1:31">
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
-        <v>44762.864583333336</v>
+        <v>44872.979166666664</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -1257,23 +932,10 @@
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
-      <c r="AE21"/>
-    </row>
-    <row r="22" spans="1:31">
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
-        <v>44762.875</v>
+        <v>44872.989583333336</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -1292,23 +954,10 @@
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AC22"/>
-      <c r="AD22"/>
-      <c r="AE22"/>
-    </row>
-    <row r="23" spans="1:31">
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
-        <v>44762.885416666664</v>
+        <v>44873.0</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -1327,23 +976,10 @@
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AC23"/>
-      <c r="AD23"/>
-      <c r="AE23"/>
-    </row>
-    <row r="24" spans="1:31">
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
-        <v>44762.895833333336</v>
+        <v>44873.010416666664</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -1352,7 +988,9 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="I24"/>
+      <c r="I24">
+        <v>1</v>
+      </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
@@ -1362,23 +1000,10 @@
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
-      <c r="AD24"/>
-      <c r="AE24"/>
-    </row>
-    <row r="25" spans="1:31">
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
-        <v>44762.90625</v>
+        <v>44873.020833333336</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -1387,7 +1012,9 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="I25"/>
+      <c r="I25">
+        <v>1</v>
+      </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
@@ -1397,23 +1024,10 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
-      <c r="AE25"/>
-    </row>
-    <row r="26" spans="1:31">
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
-        <v>44762.916666666664</v>
+        <v>44873.03125</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -1422,7 +1036,9 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="I26"/>
+      <c r="I26">
+        <v>1</v>
+      </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
@@ -1432,23 +1048,10 @@
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-      <c r="AE26"/>
-    </row>
-    <row r="27" spans="1:31">
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
-        <v>44762.927083333336</v>
+        <v>44873.041666666664</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -1457,7 +1060,9 @@
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="I27"/>
+      <c r="I27">
+        <v>1</v>
+      </c>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
@@ -1467,23 +1072,10 @@
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
-      <c r="AC27"/>
-      <c r="AD27"/>
-      <c r="AE27"/>
-    </row>
-    <row r="28" spans="1:31">
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
-        <v>44762.9375</v>
+        <v>44873.052083333336</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -1492,7 +1084,9 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="I28"/>
+      <c r="I28">
+        <v>1</v>
+      </c>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
@@ -1502,23 +1096,10 @@
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
-      <c r="AE28"/>
-    </row>
-    <row r="29" spans="1:31">
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
-        <v>44762.947916666664</v>
+        <v>44873.0625</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -1527,7 +1108,9 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="I29"/>
+      <c r="I29">
+        <v>1</v>
+      </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
@@ -1537,23 +1120,10 @@
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-      <c r="AB29"/>
-      <c r="AC29"/>
-      <c r="AD29"/>
-      <c r="AE29"/>
-    </row>
-    <row r="30" spans="1:31">
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
-        <v>44762.958333333336</v>
+        <v>44873.072916666664</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -1562,7 +1132,9 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="I30"/>
+      <c r="I30">
+        <v>1</v>
+      </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
@@ -1572,23 +1144,10 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-      <c r="AE30"/>
-    </row>
-    <row r="31" spans="1:31">
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="1">
-        <v>44762.96875</v>
+        <v>44873.083333333336</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -1597,7 +1156,9 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="I31"/>
+      <c r="I31">
+        <v>1</v>
+      </c>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
@@ -1607,23 +1168,10 @@
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
-      <c r="AE31"/>
-    </row>
-    <row r="32" spans="1:31">
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="1">
-        <v>44762.979166666664</v>
+        <v>44873.09375</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -1632,7 +1180,9 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="I32"/>
+      <c r="I32">
+        <v>1</v>
+      </c>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
@@ -1642,23 +1192,10 @@
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
-      <c r="AE32"/>
-    </row>
-    <row r="33" spans="1:31">
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="1">
-        <v>44762.989583333336</v>
+        <v>44873.104166666664</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -1667,7 +1204,9 @@
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
-      <c r="I33"/>
+      <c r="I33">
+        <v>1</v>
+      </c>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
@@ -1677,23 +1216,10 @@
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-      <c r="AE33"/>
-    </row>
-    <row r="34" spans="1:31">
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="1">
-        <v>44763.0</v>
+        <v>44873.114583333336</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -1702,7 +1228,9 @@
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
-      <c r="I34"/>
+      <c r="I34">
+        <v>1</v>
+      </c>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
@@ -1712,23 +1240,10 @@
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
-    </row>
-    <row r="35" spans="1:31">
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="1">
-        <v>44763.010416666664</v>
+        <v>44873.125</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
@@ -1737,7 +1252,9 @@
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
-      <c r="I35"/>
+      <c r="I35">
+        <v>1</v>
+      </c>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
@@ -1747,25 +1264,10 @@
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-    </row>
-    <row r="36" spans="1:31">
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="1">
-        <v>44763.020833333336</v>
+        <v>44873.135416666664</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
@@ -1774,7 +1276,9 @@
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
-      <c r="I36"/>
+      <c r="I36">
+        <v>1</v>
+      </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
@@ -1784,25 +1288,10 @@
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36">
-        <v>1</v>
-      </c>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
-      <c r="AE36"/>
-    </row>
-    <row r="37" spans="1:31">
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="1">
-        <v>44763.03125</v>
+        <v>44873.145833333336</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
@@ -1811,7 +1300,9 @@
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37"/>
-      <c r="I37"/>
+      <c r="I37">
+        <v>1</v>
+      </c>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
@@ -1821,25 +1312,10 @@
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37">
-        <v>1</v>
-      </c>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-      <c r="AA37"/>
-      <c r="AB37"/>
-      <c r="AC37"/>
-      <c r="AD37"/>
-      <c r="AE37"/>
-    </row>
-    <row r="38" spans="1:31">
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="1">
-        <v>44763.041666666664</v>
+        <v>44873.15625</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
@@ -1848,7 +1324,9 @@
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
-      <c r="I38"/>
+      <c r="I38">
+        <v>1</v>
+      </c>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
@@ -1858,25 +1336,10 @@
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38">
-        <v>1</v>
-      </c>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AA38"/>
-      <c r="AB38"/>
-      <c r="AC38"/>
-      <c r="AD38"/>
-      <c r="AE38"/>
-    </row>
-    <row r="39" spans="1:31">
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="1">
-        <v>44763.052083333336</v>
+        <v>44873.166666666664</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
@@ -1885,7 +1348,9 @@
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
-      <c r="I39"/>
+      <c r="I39">
+        <v>1</v>
+      </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
@@ -1895,25 +1360,10 @@
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39">
-        <v>1</v>
-      </c>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-      <c r="AA39"/>
-      <c r="AB39"/>
-      <c r="AC39"/>
-      <c r="AD39"/>
-      <c r="AE39"/>
-    </row>
-    <row r="40" spans="1:31">
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="1">
-        <v>44763.0625</v>
+        <v>44873.177083333336</v>
       </c>
       <c r="B40"/>
       <c r="C40"/>
@@ -1922,7 +1372,9 @@
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40"/>
-      <c r="I40"/>
+      <c r="I40">
+        <v>1</v>
+      </c>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
@@ -1932,25 +1384,10 @@
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40">
-        <v>1</v>
-      </c>
-      <c r="X40"/>
-      <c r="Y40"/>
-      <c r="Z40"/>
-      <c r="AA40"/>
-      <c r="AB40"/>
-      <c r="AC40"/>
-      <c r="AD40"/>
-      <c r="AE40"/>
-    </row>
-    <row r="41" spans="1:31">
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="1">
-        <v>44763.072916666664</v>
+        <v>44873.1875</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
@@ -1959,7 +1396,9 @@
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
-      <c r="I41"/>
+      <c r="I41">
+        <v>1</v>
+      </c>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
@@ -1969,25 +1408,10 @@
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="X41"/>
-      <c r="Y41"/>
-      <c r="Z41"/>
-      <c r="AA41"/>
-      <c r="AB41"/>
-      <c r="AC41"/>
-      <c r="AD41"/>
-      <c r="AE41"/>
-    </row>
-    <row r="42" spans="1:31">
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="1">
-        <v>44763.083333333336</v>
+        <v>44873.197916666664</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
@@ -1996,7 +1420,9 @@
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
-      <c r="I42"/>
+      <c r="I42">
+        <v>1</v>
+      </c>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
@@ -2006,25 +1432,10 @@
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-      <c r="W42">
-        <v>1</v>
-      </c>
-      <c r="X42"/>
-      <c r="Y42"/>
-      <c r="Z42"/>
-      <c r="AA42"/>
-      <c r="AB42"/>
-      <c r="AC42"/>
-      <c r="AD42"/>
-      <c r="AE42"/>
-    </row>
-    <row r="43" spans="1:31">
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="1">
-        <v>44763.09375</v>
+        <v>44873.208333333336</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
@@ -2033,7 +1444,9 @@
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43"/>
-      <c r="I43"/>
+      <c r="I43">
+        <v>1</v>
+      </c>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
@@ -2043,25 +1456,10 @@
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-      <c r="W43">
-        <v>1</v>
-      </c>
-      <c r="X43"/>
-      <c r="Y43"/>
-      <c r="Z43"/>
-      <c r="AA43"/>
-      <c r="AB43"/>
-      <c r="AC43"/>
-      <c r="AD43"/>
-      <c r="AE43"/>
-    </row>
-    <row r="44" spans="1:31">
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="1">
-        <v>44763.104166666664</v>
+        <v>44873.21875</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
@@ -2070,7 +1468,9 @@
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
-      <c r="I44"/>
+      <c r="I44">
+        <v>1</v>
+      </c>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
@@ -2080,25 +1480,10 @@
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44">
-        <v>1</v>
-      </c>
-      <c r="X44"/>
-      <c r="Y44"/>
-      <c r="Z44"/>
-      <c r="AA44"/>
-      <c r="AB44"/>
-      <c r="AC44"/>
-      <c r="AD44"/>
-      <c r="AE44"/>
-    </row>
-    <row r="45" spans="1:31">
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="1">
-        <v>44763.114583333336</v>
+        <v>44873.229166666664</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -2107,7 +1492,9 @@
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
-      <c r="I45"/>
+      <c r="I45">
+        <v>1</v>
+      </c>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
@@ -2117,25 +1504,10 @@
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45"/>
-      <c r="V45"/>
-      <c r="W45">
-        <v>1</v>
-      </c>
-      <c r="X45"/>
-      <c r="Y45"/>
-      <c r="Z45"/>
-      <c r="AA45"/>
-      <c r="AB45"/>
-      <c r="AC45"/>
-      <c r="AD45"/>
-      <c r="AE45"/>
-    </row>
-    <row r="46" spans="1:31">
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="1">
-        <v>44763.125</v>
+        <v>44873.239583333336</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
@@ -2144,7 +1516,9 @@
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46"/>
-      <c r="I46"/>
+      <c r="I46">
+        <v>1</v>
+      </c>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
@@ -2154,25 +1528,10 @@
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46">
-        <v>1</v>
-      </c>
-      <c r="X46"/>
-      <c r="Y46"/>
-      <c r="Z46"/>
-      <c r="AA46"/>
-      <c r="AB46"/>
-      <c r="AC46"/>
-      <c r="AD46"/>
-      <c r="AE46"/>
-    </row>
-    <row r="47" spans="1:31">
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="1">
-        <v>44763.135416666664</v>
+        <v>44873.25</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -2181,7 +1540,9 @@
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47"/>
-      <c r="I47"/>
+      <c r="I47">
+        <v>1</v>
+      </c>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
@@ -2191,25 +1552,10 @@
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47">
-        <v>1</v>
-      </c>
-      <c r="X47"/>
-      <c r="Y47"/>
-      <c r="Z47"/>
-      <c r="AA47"/>
-      <c r="AB47"/>
-      <c r="AC47"/>
-      <c r="AD47"/>
-      <c r="AE47"/>
-    </row>
-    <row r="48" spans="1:31">
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="1">
-        <v>44763.145833333336</v>
+        <v>44873.260416666664</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
@@ -2218,7 +1564,9 @@
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
-      <c r="I48"/>
+      <c r="I48">
+        <v>1</v>
+      </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
@@ -2228,25 +1576,10 @@
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48"/>
-      <c r="U48"/>
-      <c r="V48"/>
-      <c r="W48">
-        <v>1</v>
-      </c>
-      <c r="X48"/>
-      <c r="Y48"/>
-      <c r="Z48"/>
-      <c r="AA48"/>
-      <c r="AB48"/>
-      <c r="AC48"/>
-      <c r="AD48"/>
-      <c r="AE48"/>
-    </row>
-    <row r="49" spans="1:31">
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="1">
-        <v>44763.15625</v>
+        <v>44873.270833333336</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
@@ -2255,7 +1588,9 @@
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
-      <c r="I49"/>
+      <c r="I49">
+        <v>1</v>
+      </c>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
@@ -2265,25 +1600,10 @@
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49"/>
-      <c r="V49"/>
-      <c r="W49">
-        <v>1</v>
-      </c>
-      <c r="X49"/>
-      <c r="Y49"/>
-      <c r="Z49"/>
-      <c r="AA49"/>
-      <c r="AB49"/>
-      <c r="AC49"/>
-      <c r="AD49"/>
-      <c r="AE49"/>
-    </row>
-    <row r="50" spans="1:31">
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="1">
-        <v>44763.166666666664</v>
+        <v>44873.28125</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
@@ -2292,7 +1612,9 @@
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50"/>
-      <c r="I50"/>
+      <c r="I50">
+        <v>1</v>
+      </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
@@ -2302,25 +1624,10 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-      <c r="V50"/>
-      <c r="W50">
-        <v>1</v>
-      </c>
-      <c r="X50"/>
-      <c r="Y50"/>
-      <c r="Z50"/>
-      <c r="AA50"/>
-      <c r="AB50"/>
-      <c r="AC50"/>
-      <c r="AD50"/>
-      <c r="AE50"/>
-    </row>
-    <row r="51" spans="1:31">
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="1">
-        <v>44763.177083333336</v>
+        <v>44873.291666666664</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
@@ -2329,7 +1636,9 @@
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
-      <c r="I51"/>
+      <c r="I51">
+        <v>1</v>
+      </c>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
@@ -2339,25 +1648,10 @@
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51"/>
-      <c r="V51"/>
-      <c r="W51">
-        <v>1</v>
-      </c>
-      <c r="X51"/>
-      <c r="Y51"/>
-      <c r="Z51"/>
-      <c r="AA51"/>
-      <c r="AB51"/>
-      <c r="AC51"/>
-      <c r="AD51"/>
-      <c r="AE51"/>
-    </row>
-    <row r="52" spans="1:31">
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="1">
-        <v>44763.1875</v>
+        <v>44873.302083333336</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
@@ -2366,7 +1660,9 @@
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
-      <c r="I52"/>
+      <c r="I52">
+        <v>1</v>
+      </c>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52"/>
@@ -2376,25 +1672,10 @@
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52">
-        <v>1</v>
-      </c>
-      <c r="X52"/>
-      <c r="Y52"/>
-      <c r="Z52"/>
-      <c r="AA52"/>
-      <c r="AB52"/>
-      <c r="AC52"/>
-      <c r="AD52"/>
-      <c r="AE52"/>
-    </row>
-    <row r="53" spans="1:31">
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="1">
-        <v>44763.197916666664</v>
+        <v>44873.3125</v>
       </c>
       <c r="B53"/>
       <c r="C53"/>
@@ -2403,7 +1684,9 @@
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
-      <c r="I53"/>
+      <c r="I53">
+        <v>1</v>
+      </c>
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
@@ -2413,25 +1696,10 @@
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
-      <c r="S53"/>
-      <c r="T53"/>
-      <c r="U53"/>
-      <c r="V53"/>
-      <c r="W53">
-        <v>1</v>
-      </c>
-      <c r="X53"/>
-      <c r="Y53"/>
-      <c r="Z53"/>
-      <c r="AA53"/>
-      <c r="AB53"/>
-      <c r="AC53"/>
-      <c r="AD53"/>
-      <c r="AE53"/>
-    </row>
-    <row r="54" spans="1:31">
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="1">
-        <v>44763.208333333336</v>
+        <v>44873.322916666664</v>
       </c>
       <c r="B54"/>
       <c r="C54"/>
@@ -2440,7 +1708,9 @@
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
-      <c r="I54"/>
+      <c r="I54">
+        <v>1</v>
+      </c>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
@@ -2450,25 +1720,10 @@
       <c r="P54"/>
       <c r="Q54"/>
       <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
-      <c r="V54"/>
-      <c r="W54">
-        <v>1</v>
-      </c>
-      <c r="X54"/>
-      <c r="Y54"/>
-      <c r="Z54"/>
-      <c r="AA54"/>
-      <c r="AB54"/>
-      <c r="AC54"/>
-      <c r="AD54"/>
-      <c r="AE54"/>
-    </row>
-    <row r="55" spans="1:31">
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="1">
-        <v>44763.21875</v>
+        <v>44873.333333333336</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
@@ -2477,7 +1732,9 @@
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
-      <c r="I55"/>
+      <c r="I55">
+        <v>1</v>
+      </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
@@ -2487,25 +1744,10 @@
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
-      <c r="V55"/>
-      <c r="W55">
-        <v>1</v>
-      </c>
-      <c r="X55"/>
-      <c r="Y55"/>
-      <c r="Z55"/>
-      <c r="AA55"/>
-      <c r="AB55"/>
-      <c r="AC55"/>
-      <c r="AD55"/>
-      <c r="AE55"/>
-    </row>
-    <row r="56" spans="1:31">
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="1">
-        <v>44763.229166666664</v>
+        <v>44873.34375</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
@@ -2524,25 +1766,10 @@
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
-      <c r="S56"/>
-      <c r="T56"/>
-      <c r="U56"/>
-      <c r="V56"/>
-      <c r="W56">
-        <v>1</v>
-      </c>
-      <c r="X56"/>
-      <c r="Y56"/>
-      <c r="Z56"/>
-      <c r="AA56"/>
-      <c r="AB56"/>
-      <c r="AC56"/>
-      <c r="AD56"/>
-      <c r="AE56"/>
-    </row>
-    <row r="57" spans="1:31">
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="1">
-        <v>44763.239583333336</v>
+        <v>44873.354166666664</v>
       </c>
       <c r="B57"/>
       <c r="C57"/>
@@ -2561,25 +1788,10 @@
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
-      <c r="V57"/>
-      <c r="W57">
-        <v>1</v>
-      </c>
-      <c r="X57"/>
-      <c r="Y57"/>
-      <c r="Z57"/>
-      <c r="AA57"/>
-      <c r="AB57"/>
-      <c r="AC57"/>
-      <c r="AD57"/>
-      <c r="AE57"/>
-    </row>
-    <row r="58" spans="1:31">
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="1">
-        <v>44763.25</v>
+        <v>44873.364583333336</v>
       </c>
       <c r="B58"/>
       <c r="C58"/>
@@ -2598,25 +1810,10 @@
       <c r="P58"/>
       <c r="Q58"/>
       <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58">
-        <v>1</v>
-      </c>
-      <c r="X58"/>
-      <c r="Y58"/>
-      <c r="Z58"/>
-      <c r="AA58"/>
-      <c r="AB58"/>
-      <c r="AC58"/>
-      <c r="AD58"/>
-      <c r="AE58"/>
-    </row>
-    <row r="59" spans="1:31">
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="1">
-        <v>44763.260416666664</v>
+        <v>44873.375</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
@@ -2635,25 +1832,10 @@
       <c r="P59"/>
       <c r="Q59"/>
       <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-      <c r="W59">
-        <v>1</v>
-      </c>
-      <c r="X59"/>
-      <c r="Y59"/>
-      <c r="Z59"/>
-      <c r="AA59"/>
-      <c r="AB59"/>
-      <c r="AC59"/>
-      <c r="AD59"/>
-      <c r="AE59"/>
-    </row>
-    <row r="60" spans="1:31">
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="1">
-        <v>44763.270833333336</v>
+        <v>44873.385416666664</v>
       </c>
       <c r="B60"/>
       <c r="C60"/>
@@ -2672,25 +1854,10 @@
       <c r="P60"/>
       <c r="Q60"/>
       <c r="R60"/>
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-      <c r="W60">
-        <v>1</v>
-      </c>
-      <c r="X60"/>
-      <c r="Y60"/>
-      <c r="Z60"/>
-      <c r="AA60"/>
-      <c r="AB60"/>
-      <c r="AC60"/>
-      <c r="AD60"/>
-      <c r="AE60"/>
-    </row>
-    <row r="61" spans="1:31">
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="1">
-        <v>44763.28125</v>
+        <v>44873.395833333336</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
@@ -2709,25 +1876,10 @@
       <c r="P61"/>
       <c r="Q61"/>
       <c r="R61"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="W61">
-        <v>1</v>
-      </c>
-      <c r="X61"/>
-      <c r="Y61"/>
-      <c r="Z61"/>
-      <c r="AA61"/>
-      <c r="AB61"/>
-      <c r="AC61"/>
-      <c r="AD61"/>
-      <c r="AE61"/>
-    </row>
-    <row r="62" spans="1:31">
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="1">
-        <v>44763.291666666664</v>
+        <v>44873.40625</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
@@ -2746,25 +1898,10 @@
       <c r="P62"/>
       <c r="Q62"/>
       <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
-      <c r="W62">
-        <v>1</v>
-      </c>
-      <c r="X62"/>
-      <c r="Y62"/>
-      <c r="Z62"/>
-      <c r="AA62"/>
-      <c r="AB62"/>
-      <c r="AC62"/>
-      <c r="AD62"/>
-      <c r="AE62"/>
-    </row>
-    <row r="63" spans="1:31">
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="1">
-        <v>44763.302083333336</v>
+        <v>44873.416666666664</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
@@ -2783,25 +1920,10 @@
       <c r="P63"/>
       <c r="Q63"/>
       <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
-      <c r="W63">
-        <v>1</v>
-      </c>
-      <c r="X63"/>
-      <c r="Y63"/>
-      <c r="Z63"/>
-      <c r="AA63"/>
-      <c r="AB63"/>
-      <c r="AC63"/>
-      <c r="AD63"/>
-      <c r="AE63"/>
-    </row>
-    <row r="64" spans="1:31">
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="1">
-        <v>44763.3125</v>
+        <v>44873.427083333336</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
@@ -2820,25 +1942,10 @@
       <c r="P64"/>
       <c r="Q64"/>
       <c r="R64"/>
-      <c r="S64"/>
-      <c r="T64"/>
-      <c r="U64"/>
-      <c r="V64"/>
-      <c r="W64">
-        <v>1</v>
-      </c>
-      <c r="X64"/>
-      <c r="Y64"/>
-      <c r="Z64"/>
-      <c r="AA64"/>
-      <c r="AB64"/>
-      <c r="AC64"/>
-      <c r="AD64"/>
-      <c r="AE64"/>
-    </row>
-    <row r="65" spans="1:31">
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="1">
-        <v>44763.322916666664</v>
+        <v>44873.4375</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
@@ -2857,25 +1964,10 @@
       <c r="P65"/>
       <c r="Q65"/>
       <c r="R65"/>
-      <c r="S65"/>
-      <c r="T65"/>
-      <c r="U65"/>
-      <c r="V65"/>
-      <c r="W65">
-        <v>1</v>
-      </c>
-      <c r="X65"/>
-      <c r="Y65"/>
-      <c r="Z65"/>
-      <c r="AA65"/>
-      <c r="AB65"/>
-      <c r="AC65"/>
-      <c r="AD65"/>
-      <c r="AE65"/>
-    </row>
-    <row r="66" spans="1:31">
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="1">
-        <v>44763.333333333336</v>
+        <v>44873.447916666664</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
@@ -2894,25 +1986,10 @@
       <c r="P66"/>
       <c r="Q66"/>
       <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="U66"/>
-      <c r="V66"/>
-      <c r="W66">
-        <v>1</v>
-      </c>
-      <c r="X66"/>
-      <c r="Y66"/>
-      <c r="Z66"/>
-      <c r="AA66"/>
-      <c r="AB66"/>
-      <c r="AC66"/>
-      <c r="AD66"/>
-      <c r="AE66"/>
-    </row>
-    <row r="67" spans="1:31">
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="1">
-        <v>44763.34375</v>
+        <v>44873.458333333336</v>
       </c>
       <c r="B67"/>
       <c r="C67"/>
@@ -2931,23 +2008,10 @@
       <c r="P67"/>
       <c r="Q67"/>
       <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
-      <c r="U67"/>
-      <c r="V67"/>
-      <c r="W67"/>
-      <c r="X67"/>
-      <c r="Y67"/>
-      <c r="Z67"/>
-      <c r="AA67"/>
-      <c r="AB67"/>
-      <c r="AC67"/>
-      <c r="AD67"/>
-      <c r="AE67"/>
-    </row>
-    <row r="68" spans="1:31">
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="1">
-        <v>44763.354166666664</v>
+        <v>44873.46875</v>
       </c>
       <c r="B68"/>
       <c r="C68"/>
@@ -2966,23 +2030,10 @@
       <c r="P68"/>
       <c r="Q68"/>
       <c r="R68"/>
-      <c r="S68"/>
-      <c r="T68"/>
-      <c r="U68"/>
-      <c r="V68"/>
-      <c r="W68"/>
-      <c r="X68"/>
-      <c r="Y68"/>
-      <c r="Z68"/>
-      <c r="AA68"/>
-      <c r="AB68"/>
-      <c r="AC68"/>
-      <c r="AD68"/>
-      <c r="AE68"/>
-    </row>
-    <row r="69" spans="1:31">
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="1">
-        <v>44763.364583333336</v>
+        <v>44873.479166666664</v>
       </c>
       <c r="B69"/>
       <c r="C69"/>
@@ -3001,23 +2052,10 @@
       <c r="P69"/>
       <c r="Q69"/>
       <c r="R69"/>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-      <c r="W69"/>
-      <c r="X69"/>
-      <c r="Y69"/>
-      <c r="Z69"/>
-      <c r="AA69"/>
-      <c r="AB69"/>
-      <c r="AC69"/>
-      <c r="AD69"/>
-      <c r="AE69"/>
-    </row>
-    <row r="70" spans="1:31">
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="1">
-        <v>44763.375</v>
+        <v>44873.489583333336</v>
       </c>
       <c r="B70"/>
       <c r="C70"/>
@@ -3036,23 +2074,10 @@
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70"/>
-      <c r="S70"/>
-      <c r="T70"/>
-      <c r="U70"/>
-      <c r="V70"/>
-      <c r="W70"/>
-      <c r="X70"/>
-      <c r="Y70"/>
-      <c r="Z70"/>
-      <c r="AA70"/>
-      <c r="AB70"/>
-      <c r="AC70"/>
-      <c r="AD70"/>
-      <c r="AE70"/>
-    </row>
-    <row r="71" spans="1:31">
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="1">
-        <v>44763.385416666664</v>
+        <v>44873.5</v>
       </c>
       <c r="B71"/>
       <c r="C71"/>
@@ -3071,23 +2096,10 @@
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
-      <c r="U71"/>
-      <c r="V71"/>
-      <c r="W71"/>
-      <c r="X71"/>
-      <c r="Y71"/>
-      <c r="Z71"/>
-      <c r="AA71"/>
-      <c r="AB71"/>
-      <c r="AC71"/>
-      <c r="AD71"/>
-      <c r="AE71"/>
-    </row>
-    <row r="72" spans="1:31">
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="1">
-        <v>44763.395833333336</v>
+        <v>44873.510416666664</v>
       </c>
       <c r="B72"/>
       <c r="C72"/>
@@ -3106,23 +2118,10 @@
       <c r="P72"/>
       <c r="Q72"/>
       <c r="R72"/>
-      <c r="S72"/>
-      <c r="T72"/>
-      <c r="U72"/>
-      <c r="V72"/>
-      <c r="W72"/>
-      <c r="X72"/>
-      <c r="Y72"/>
-      <c r="Z72"/>
-      <c r="AA72"/>
-      <c r="AB72"/>
-      <c r="AC72"/>
-      <c r="AD72"/>
-      <c r="AE72"/>
-    </row>
-    <row r="73" spans="1:31">
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="1">
-        <v>44763.40625</v>
+        <v>44873.520833333336</v>
       </c>
       <c r="B73"/>
       <c r="C73"/>
@@ -3141,23 +2140,10 @@
       <c r="P73"/>
       <c r="Q73"/>
       <c r="R73"/>
-      <c r="S73"/>
-      <c r="T73"/>
-      <c r="U73"/>
-      <c r="V73"/>
-      <c r="W73"/>
-      <c r="X73"/>
-      <c r="Y73"/>
-      <c r="Z73"/>
-      <c r="AA73"/>
-      <c r="AB73"/>
-      <c r="AC73"/>
-      <c r="AD73"/>
-      <c r="AE73"/>
-    </row>
-    <row r="74" spans="1:31">
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="1">
-        <v>44763.416666666664</v>
+        <v>44873.53125</v>
       </c>
       <c r="B74"/>
       <c r="C74"/>
@@ -3176,23 +2162,10 @@
       <c r="P74"/>
       <c r="Q74"/>
       <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
-      <c r="U74"/>
-      <c r="V74"/>
-      <c r="W74"/>
-      <c r="X74"/>
-      <c r="Y74"/>
-      <c r="Z74"/>
-      <c r="AA74"/>
-      <c r="AB74"/>
-      <c r="AC74"/>
-      <c r="AD74"/>
-      <c r="AE74"/>
-    </row>
-    <row r="75" spans="1:31">
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="1">
-        <v>44763.427083333336</v>
+        <v>44873.541666666664</v>
       </c>
       <c r="B75"/>
       <c r="C75"/>
@@ -3211,23 +2184,10 @@
       <c r="P75"/>
       <c r="Q75"/>
       <c r="R75"/>
-      <c r="S75"/>
-      <c r="T75"/>
-      <c r="U75"/>
-      <c r="V75"/>
-      <c r="W75"/>
-      <c r="X75"/>
-      <c r="Y75"/>
-      <c r="Z75"/>
-      <c r="AA75"/>
-      <c r="AB75"/>
-      <c r="AC75"/>
-      <c r="AD75"/>
-      <c r="AE75"/>
-    </row>
-    <row r="76" spans="1:31">
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="1">
-        <v>44763.4375</v>
+        <v>44873.552083333336</v>
       </c>
       <c r="B76"/>
       <c r="C76"/>
@@ -3246,23 +2206,10 @@
       <c r="P76"/>
       <c r="Q76"/>
       <c r="R76"/>
-      <c r="S76"/>
-      <c r="T76"/>
-      <c r="U76"/>
-      <c r="V76"/>
-      <c r="W76"/>
-      <c r="X76"/>
-      <c r="Y76"/>
-      <c r="Z76"/>
-      <c r="AA76"/>
-      <c r="AB76"/>
-      <c r="AC76"/>
-      <c r="AD76"/>
-      <c r="AE76"/>
-    </row>
-    <row r="77" spans="1:31">
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="1">
-        <v>44763.447916666664</v>
+        <v>44873.5625</v>
       </c>
       <c r="B77"/>
       <c r="C77"/>
@@ -3281,23 +2228,10 @@
       <c r="P77"/>
       <c r="Q77"/>
       <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-      <c r="Z77"/>
-      <c r="AA77"/>
-      <c r="AB77"/>
-      <c r="AC77"/>
-      <c r="AD77"/>
-      <c r="AE77"/>
-    </row>
-    <row r="78" spans="1:31">
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="1">
-        <v>44763.458333333336</v>
+        <v>44873.572916666664</v>
       </c>
       <c r="B78"/>
       <c r="C78"/>
@@ -3316,23 +2250,10 @@
       <c r="P78"/>
       <c r="Q78"/>
       <c r="R78"/>
-      <c r="S78"/>
-      <c r="T78"/>
-      <c r="U78"/>
-      <c r="V78"/>
-      <c r="W78"/>
-      <c r="X78"/>
-      <c r="Y78"/>
-      <c r="Z78"/>
-      <c r="AA78"/>
-      <c r="AB78"/>
-      <c r="AC78"/>
-      <c r="AD78"/>
-      <c r="AE78"/>
-    </row>
-    <row r="79" spans="1:31">
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="1">
-        <v>44763.46875</v>
+        <v>44873.583333333336</v>
       </c>
       <c r="B79"/>
       <c r="C79"/>
@@ -3351,23 +2272,10 @@
       <c r="P79"/>
       <c r="Q79"/>
       <c r="R79"/>
-      <c r="S79"/>
-      <c r="T79"/>
-      <c r="U79"/>
-      <c r="V79"/>
-      <c r="W79"/>
-      <c r="X79"/>
-      <c r="Y79"/>
-      <c r="Z79"/>
-      <c r="AA79"/>
-      <c r="AB79"/>
-      <c r="AC79"/>
-      <c r="AD79"/>
-      <c r="AE79"/>
-    </row>
-    <row r="80" spans="1:31">
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="1">
-        <v>44763.479166666664</v>
+        <v>44873.59375</v>
       </c>
       <c r="B80"/>
       <c r="C80"/>
@@ -3386,23 +2294,10 @@
       <c r="P80"/>
       <c r="Q80"/>
       <c r="R80"/>
-      <c r="S80"/>
-      <c r="T80"/>
-      <c r="U80"/>
-      <c r="V80"/>
-      <c r="W80"/>
-      <c r="X80"/>
-      <c r="Y80"/>
-      <c r="Z80"/>
-      <c r="AA80"/>
-      <c r="AB80"/>
-      <c r="AC80"/>
-      <c r="AD80"/>
-      <c r="AE80"/>
-    </row>
-    <row r="81" spans="1:31">
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="1">
-        <v>44763.489583333336</v>
+        <v>44873.604166666664</v>
       </c>
       <c r="B81"/>
       <c r="C81"/>
@@ -3421,23 +2316,10 @@
       <c r="P81"/>
       <c r="Q81"/>
       <c r="R81"/>
-      <c r="S81"/>
-      <c r="T81"/>
-      <c r="U81"/>
-      <c r="V81"/>
-      <c r="W81"/>
-      <c r="X81"/>
-      <c r="Y81"/>
-      <c r="Z81"/>
-      <c r="AA81"/>
-      <c r="AB81"/>
-      <c r="AC81"/>
-      <c r="AD81"/>
-      <c r="AE81"/>
-    </row>
-    <row r="82" spans="1:31">
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="1">
-        <v>44763.5</v>
+        <v>44873.614583333336</v>
       </c>
       <c r="B82"/>
       <c r="C82"/>
@@ -3456,23 +2338,10 @@
       <c r="P82"/>
       <c r="Q82"/>
       <c r="R82"/>
-      <c r="S82"/>
-      <c r="T82"/>
-      <c r="U82"/>
-      <c r="V82"/>
-      <c r="W82"/>
-      <c r="X82"/>
-      <c r="Y82"/>
-      <c r="Z82"/>
-      <c r="AA82"/>
-      <c r="AB82"/>
-      <c r="AC82"/>
-      <c r="AD82"/>
-      <c r="AE82"/>
-    </row>
-    <row r="83" spans="1:31">
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="1">
-        <v>44763.510416666664</v>
+        <v>44873.625</v>
       </c>
       <c r="B83"/>
       <c r="C83"/>
@@ -3491,23 +2360,10 @@
       <c r="P83"/>
       <c r="Q83"/>
       <c r="R83"/>
-      <c r="S83"/>
-      <c r="T83"/>
-      <c r="U83"/>
-      <c r="V83"/>
-      <c r="W83"/>
-      <c r="X83"/>
-      <c r="Y83"/>
-      <c r="Z83"/>
-      <c r="AA83"/>
-      <c r="AB83"/>
-      <c r="AC83"/>
-      <c r="AD83"/>
-      <c r="AE83"/>
-    </row>
-    <row r="84" spans="1:31">
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="1">
-        <v>44763.520833333336</v>
+        <v>44873.635416666664</v>
       </c>
       <c r="B84"/>
       <c r="C84"/>
@@ -3526,23 +2382,10 @@
       <c r="P84"/>
       <c r="Q84"/>
       <c r="R84"/>
-      <c r="S84"/>
-      <c r="T84"/>
-      <c r="U84"/>
-      <c r="V84"/>
-      <c r="W84"/>
-      <c r="X84"/>
-      <c r="Y84"/>
-      <c r="Z84"/>
-      <c r="AA84"/>
-      <c r="AB84"/>
-      <c r="AC84"/>
-      <c r="AD84"/>
-      <c r="AE84"/>
-    </row>
-    <row r="85" spans="1:31">
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="1">
-        <v>44763.53125</v>
+        <v>44873.645833333336</v>
       </c>
       <c r="B85"/>
       <c r="C85"/>
@@ -3561,23 +2404,10 @@
       <c r="P85"/>
       <c r="Q85"/>
       <c r="R85"/>
-      <c r="S85"/>
-      <c r="T85"/>
-      <c r="U85"/>
-      <c r="V85"/>
-      <c r="W85"/>
-      <c r="X85"/>
-      <c r="Y85"/>
-      <c r="Z85"/>
-      <c r="AA85"/>
-      <c r="AB85"/>
-      <c r="AC85"/>
-      <c r="AD85"/>
-      <c r="AE85"/>
-    </row>
-    <row r="86" spans="1:31">
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="1">
-        <v>44763.541666666664</v>
+        <v>44873.65625</v>
       </c>
       <c r="B86"/>
       <c r="C86"/>
@@ -3596,23 +2426,10 @@
       <c r="P86"/>
       <c r="Q86"/>
       <c r="R86"/>
-      <c r="S86"/>
-      <c r="T86"/>
-      <c r="U86"/>
-      <c r="V86"/>
-      <c r="W86"/>
-      <c r="X86"/>
-      <c r="Y86"/>
-      <c r="Z86"/>
-      <c r="AA86"/>
-      <c r="AB86"/>
-      <c r="AC86"/>
-      <c r="AD86"/>
-      <c r="AE86"/>
-    </row>
-    <row r="87" spans="1:31">
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="1">
-        <v>44763.552083333336</v>
+        <v>44873.666666666664</v>
       </c>
       <c r="B87"/>
       <c r="C87"/>
@@ -3631,23 +2448,10 @@
       <c r="P87"/>
       <c r="Q87"/>
       <c r="R87"/>
-      <c r="S87"/>
-      <c r="T87"/>
-      <c r="U87"/>
-      <c r="V87"/>
-      <c r="W87"/>
-      <c r="X87"/>
-      <c r="Y87"/>
-      <c r="Z87"/>
-      <c r="AA87"/>
-      <c r="AB87"/>
-      <c r="AC87"/>
-      <c r="AD87"/>
-      <c r="AE87"/>
-    </row>
-    <row r="88" spans="1:31">
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="1">
-        <v>44763.5625</v>
+        <v>44873.677083333336</v>
       </c>
       <c r="B88"/>
       <c r="C88"/>
@@ -3666,23 +2470,10 @@
       <c r="P88"/>
       <c r="Q88"/>
       <c r="R88"/>
-      <c r="S88"/>
-      <c r="T88"/>
-      <c r="U88"/>
-      <c r="V88"/>
-      <c r="W88"/>
-      <c r="X88"/>
-      <c r="Y88"/>
-      <c r="Z88"/>
-      <c r="AA88"/>
-      <c r="AB88"/>
-      <c r="AC88"/>
-      <c r="AD88"/>
-      <c r="AE88"/>
-    </row>
-    <row r="89" spans="1:31">
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="1">
-        <v>44763.572916666664</v>
+        <v>44873.6875</v>
       </c>
       <c r="B89"/>
       <c r="C89"/>
@@ -3701,23 +2492,10 @@
       <c r="P89"/>
       <c r="Q89"/>
       <c r="R89"/>
-      <c r="S89"/>
-      <c r="T89"/>
-      <c r="U89"/>
-      <c r="V89"/>
-      <c r="W89"/>
-      <c r="X89"/>
-      <c r="Y89"/>
-      <c r="Z89"/>
-      <c r="AA89"/>
-      <c r="AB89"/>
-      <c r="AC89"/>
-      <c r="AD89"/>
-      <c r="AE89"/>
-    </row>
-    <row r="90" spans="1:31">
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="1">
-        <v>44763.583333333336</v>
+        <v>44873.697916666664</v>
       </c>
       <c r="B90"/>
       <c r="C90"/>
@@ -3736,23 +2514,10 @@
       <c r="P90"/>
       <c r="Q90"/>
       <c r="R90"/>
-      <c r="S90"/>
-      <c r="T90"/>
-      <c r="U90"/>
-      <c r="V90"/>
-      <c r="W90"/>
-      <c r="X90"/>
-      <c r="Y90"/>
-      <c r="Z90"/>
-      <c r="AA90"/>
-      <c r="AB90"/>
-      <c r="AC90"/>
-      <c r="AD90"/>
-      <c r="AE90"/>
-    </row>
-    <row r="91" spans="1:31">
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" s="1">
-        <v>44763.59375</v>
+        <v>44873.708333333336</v>
       </c>
       <c r="B91"/>
       <c r="C91"/>
@@ -3771,23 +2536,10 @@
       <c r="P91"/>
       <c r="Q91"/>
       <c r="R91"/>
-      <c r="S91"/>
-      <c r="T91"/>
-      <c r="U91"/>
-      <c r="V91"/>
-      <c r="W91"/>
-      <c r="X91"/>
-      <c r="Y91"/>
-      <c r="Z91"/>
-      <c r="AA91"/>
-      <c r="AB91"/>
-      <c r="AC91"/>
-      <c r="AD91"/>
-      <c r="AE91"/>
-    </row>
-    <row r="92" spans="1:31">
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="1">
-        <v>44763.604166666664</v>
+        <v>44873.71875</v>
       </c>
       <c r="B92"/>
       <c r="C92"/>
@@ -3806,23 +2558,10 @@
       <c r="P92"/>
       <c r="Q92"/>
       <c r="R92"/>
-      <c r="S92"/>
-      <c r="T92"/>
-      <c r="U92"/>
-      <c r="V92"/>
-      <c r="W92"/>
-      <c r="X92"/>
-      <c r="Y92"/>
-      <c r="Z92"/>
-      <c r="AA92"/>
-      <c r="AB92"/>
-      <c r="AC92"/>
-      <c r="AD92"/>
-      <c r="AE92"/>
-    </row>
-    <row r="93" spans="1:31">
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="1">
-        <v>44763.614583333336</v>
+        <v>44873.729166666664</v>
       </c>
       <c r="B93"/>
       <c r="C93"/>
@@ -3841,23 +2580,10 @@
       <c r="P93"/>
       <c r="Q93"/>
       <c r="R93"/>
-      <c r="S93"/>
-      <c r="T93"/>
-      <c r="U93"/>
-      <c r="V93"/>
-      <c r="W93"/>
-      <c r="X93"/>
-      <c r="Y93"/>
-      <c r="Z93"/>
-      <c r="AA93"/>
-      <c r="AB93"/>
-      <c r="AC93"/>
-      <c r="AD93"/>
-      <c r="AE93"/>
-    </row>
-    <row r="94" spans="1:31">
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="1">
-        <v>44763.625</v>
+        <v>44873.739583333336</v>
       </c>
       <c r="B94"/>
       <c r="C94"/>
@@ -3876,23 +2602,10 @@
       <c r="P94"/>
       <c r="Q94"/>
       <c r="R94"/>
-      <c r="S94"/>
-      <c r="T94"/>
-      <c r="U94"/>
-      <c r="V94"/>
-      <c r="W94"/>
-      <c r="X94"/>
-      <c r="Y94"/>
-      <c r="Z94"/>
-      <c r="AA94"/>
-      <c r="AB94"/>
-      <c r="AC94"/>
-      <c r="AD94"/>
-      <c r="AE94"/>
-    </row>
-    <row r="95" spans="1:31">
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="1">
-        <v>44763.635416666664</v>
+        <v>44873.75</v>
       </c>
       <c r="B95"/>
       <c r="C95"/>
@@ -3911,23 +2624,10 @@
       <c r="P95"/>
       <c r="Q95"/>
       <c r="R95"/>
-      <c r="S95"/>
-      <c r="T95"/>
-      <c r="U95"/>
-      <c r="V95"/>
-      <c r="W95"/>
-      <c r="X95"/>
-      <c r="Y95"/>
-      <c r="Z95"/>
-      <c r="AA95"/>
-      <c r="AB95"/>
-      <c r="AC95"/>
-      <c r="AD95"/>
-      <c r="AE95"/>
-    </row>
-    <row r="96" spans="1:31">
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" s="1">
-        <v>44763.645833333336</v>
+        <v>44873.760416666664</v>
       </c>
       <c r="B96"/>
       <c r="C96"/>
@@ -3946,23 +2646,10 @@
       <c r="P96"/>
       <c r="Q96"/>
       <c r="R96"/>
-      <c r="S96"/>
-      <c r="T96"/>
-      <c r="U96"/>
-      <c r="V96"/>
-      <c r="W96"/>
-      <c r="X96"/>
-      <c r="Y96"/>
-      <c r="Z96"/>
-      <c r="AA96"/>
-      <c r="AB96"/>
-      <c r="AC96"/>
-      <c r="AD96"/>
-      <c r="AE96"/>
-    </row>
-    <row r="97" spans="1:31">
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" s="1">
-        <v>44763.65625</v>
+        <v>44873.770833333336</v>
       </c>
       <c r="B97"/>
       <c r="C97"/>
@@ -3981,23 +2668,10 @@
       <c r="P97"/>
       <c r="Q97"/>
       <c r="R97"/>
-      <c r="S97"/>
-      <c r="T97"/>
-      <c r="U97"/>
-      <c r="V97"/>
-      <c r="W97"/>
-      <c r="X97"/>
-      <c r="Y97"/>
-      <c r="Z97"/>
-      <c r="AA97"/>
-      <c r="AB97"/>
-      <c r="AC97"/>
-      <c r="AD97"/>
-      <c r="AE97"/>
-    </row>
-    <row r="98" spans="1:31">
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" s="1">
-        <v>44763.666666666664</v>
+        <v>44873.78125</v>
       </c>
       <c r="B98"/>
       <c r="C98"/>
@@ -4016,23 +2690,10 @@
       <c r="P98"/>
       <c r="Q98"/>
       <c r="R98"/>
-      <c r="S98"/>
-      <c r="T98"/>
-      <c r="U98"/>
-      <c r="V98"/>
-      <c r="W98"/>
-      <c r="X98"/>
-      <c r="Y98"/>
-      <c r="Z98"/>
-      <c r="AA98"/>
-      <c r="AB98"/>
-      <c r="AC98"/>
-      <c r="AD98"/>
-      <c r="AE98"/>
-    </row>
-    <row r="99" spans="1:31">
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" s="1">
-        <v>44763.677083333336</v>
+        <v>44873.791666666664</v>
       </c>
       <c r="B99"/>
       <c r="C99"/>
@@ -4051,23 +2712,10 @@
       <c r="P99"/>
       <c r="Q99"/>
       <c r="R99"/>
-      <c r="S99"/>
-      <c r="T99"/>
-      <c r="U99"/>
-      <c r="V99"/>
-      <c r="W99"/>
-      <c r="X99"/>
-      <c r="Y99"/>
-      <c r="Z99"/>
-      <c r="AA99"/>
-      <c r="AB99"/>
-      <c r="AC99"/>
-      <c r="AD99"/>
-      <c r="AE99"/>
-    </row>
-    <row r="100" spans="1:31">
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" s="1">
-        <v>44763.6875</v>
+        <v>44873.802083333336</v>
       </c>
       <c r="B100"/>
       <c r="C100"/>
@@ -4086,23 +2734,10 @@
       <c r="P100"/>
       <c r="Q100"/>
       <c r="R100"/>
-      <c r="S100"/>
-      <c r="T100"/>
-      <c r="U100"/>
-      <c r="V100"/>
-      <c r="W100"/>
-      <c r="X100"/>
-      <c r="Y100"/>
-      <c r="Z100"/>
-      <c r="AA100"/>
-      <c r="AB100"/>
-      <c r="AC100"/>
-      <c r="AD100"/>
-      <c r="AE100"/>
-    </row>
-    <row r="101" spans="1:31">
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" s="1">
-        <v>44763.697916666664</v>
+        <v>44873.8125</v>
       </c>
       <c r="B101"/>
       <c r="C101"/>
@@ -4121,23 +2756,10 @@
       <c r="P101"/>
       <c r="Q101"/>
       <c r="R101"/>
-      <c r="S101"/>
-      <c r="T101"/>
-      <c r="U101"/>
-      <c r="V101"/>
-      <c r="W101"/>
-      <c r="X101"/>
-      <c r="Y101"/>
-      <c r="Z101"/>
-      <c r="AA101"/>
-      <c r="AB101"/>
-      <c r="AC101"/>
-      <c r="AD101"/>
-      <c r="AE101"/>
-    </row>
-    <row r="102" spans="1:31">
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102" s="1">
-        <v>44763.708333333336</v>
+        <v>44873.822916666664</v>
       </c>
       <c r="B102"/>
       <c r="C102"/>
@@ -4156,23 +2778,10 @@
       <c r="P102"/>
       <c r="Q102"/>
       <c r="R102"/>
-      <c r="S102"/>
-      <c r="T102"/>
-      <c r="U102"/>
-      <c r="V102"/>
-      <c r="W102"/>
-      <c r="X102"/>
-      <c r="Y102"/>
-      <c r="Z102"/>
-      <c r="AA102"/>
-      <c r="AB102"/>
-      <c r="AC102"/>
-      <c r="AD102"/>
-      <c r="AE102"/>
-    </row>
-    <row r="103" spans="1:31">
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" s="1">
-        <v>44763.71875</v>
+        <v>44873.833333333336</v>
       </c>
       <c r="B103"/>
       <c r="C103"/>
@@ -4191,23 +2800,10 @@
       <c r="P103"/>
       <c r="Q103"/>
       <c r="R103"/>
-      <c r="S103"/>
-      <c r="T103"/>
-      <c r="U103"/>
-      <c r="V103"/>
-      <c r="W103"/>
-      <c r="X103"/>
-      <c r="Y103"/>
-      <c r="Z103"/>
-      <c r="AA103"/>
-      <c r="AB103"/>
-      <c r="AC103"/>
-      <c r="AD103"/>
-      <c r="AE103"/>
-    </row>
-    <row r="104" spans="1:31">
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" s="1">
-        <v>44763.729166666664</v>
+        <v>44873.84375</v>
       </c>
       <c r="B104"/>
       <c r="C104"/>
@@ -4226,23 +2822,10 @@
       <c r="P104"/>
       <c r="Q104"/>
       <c r="R104"/>
-      <c r="S104"/>
-      <c r="T104"/>
-      <c r="U104"/>
-      <c r="V104"/>
-      <c r="W104"/>
-      <c r="X104"/>
-      <c r="Y104"/>
-      <c r="Z104"/>
-      <c r="AA104"/>
-      <c r="AB104"/>
-      <c r="AC104"/>
-      <c r="AD104"/>
-      <c r="AE104"/>
-    </row>
-    <row r="105" spans="1:31">
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105" s="1">
-        <v>44763.739583333336</v>
+        <v>44873.854166666664</v>
       </c>
       <c r="B105"/>
       <c r="C105"/>
@@ -4261,23 +2844,10 @@
       <c r="P105"/>
       <c r="Q105"/>
       <c r="R105"/>
-      <c r="S105"/>
-      <c r="T105"/>
-      <c r="U105"/>
-      <c r="V105"/>
-      <c r="W105"/>
-      <c r="X105"/>
-      <c r="Y105"/>
-      <c r="Z105"/>
-      <c r="AA105"/>
-      <c r="AB105"/>
-      <c r="AC105"/>
-      <c r="AD105"/>
-      <c r="AE105"/>
-    </row>
-    <row r="106" spans="1:31">
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106" s="1">
-        <v>44763.75</v>
+        <v>44873.864583333336</v>
       </c>
       <c r="B106"/>
       <c r="C106"/>
@@ -4296,23 +2866,10 @@
       <c r="P106"/>
       <c r="Q106"/>
       <c r="R106"/>
-      <c r="S106"/>
-      <c r="T106"/>
-      <c r="U106"/>
-      <c r="V106"/>
-      <c r="W106"/>
-      <c r="X106"/>
-      <c r="Y106"/>
-      <c r="Z106"/>
-      <c r="AA106"/>
-      <c r="AB106"/>
-      <c r="AC106"/>
-      <c r="AD106"/>
-      <c r="AE106"/>
-    </row>
-    <row r="107" spans="1:31">
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107" s="1">
-        <v>44763.760416666664</v>
+        <v>44873.875</v>
       </c>
       <c r="B107"/>
       <c r="C107"/>
@@ -4331,23 +2888,10 @@
       <c r="P107"/>
       <c r="Q107"/>
       <c r="R107"/>
-      <c r="S107"/>
-      <c r="T107"/>
-      <c r="U107"/>
-      <c r="V107"/>
-      <c r="W107"/>
-      <c r="X107"/>
-      <c r="Y107"/>
-      <c r="Z107"/>
-      <c r="AA107"/>
-      <c r="AB107"/>
-      <c r="AC107"/>
-      <c r="AD107"/>
-      <c r="AE107"/>
-    </row>
-    <row r="108" spans="1:31">
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108" s="1">
-        <v>44763.770833333336</v>
+        <v>44873.885416666664</v>
       </c>
       <c r="B108"/>
       <c r="C108"/>
@@ -4366,23 +2910,10 @@
       <c r="P108"/>
       <c r="Q108"/>
       <c r="R108"/>
-      <c r="S108"/>
-      <c r="T108"/>
-      <c r="U108"/>
-      <c r="V108"/>
-      <c r="W108"/>
-      <c r="X108"/>
-      <c r="Y108"/>
-      <c r="Z108"/>
-      <c r="AA108"/>
-      <c r="AB108"/>
-      <c r="AC108"/>
-      <c r="AD108"/>
-      <c r="AE108"/>
-    </row>
-    <row r="109" spans="1:31">
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109" s="1">
-        <v>44763.78125</v>
+        <v>44873.895833333336</v>
       </c>
       <c r="B109"/>
       <c r="C109"/>
@@ -4401,23 +2932,10 @@
       <c r="P109"/>
       <c r="Q109"/>
       <c r="R109"/>
-      <c r="S109"/>
-      <c r="T109"/>
-      <c r="U109"/>
-      <c r="V109"/>
-      <c r="W109"/>
-      <c r="X109"/>
-      <c r="Y109"/>
-      <c r="Z109"/>
-      <c r="AA109"/>
-      <c r="AB109"/>
-      <c r="AC109"/>
-      <c r="AD109"/>
-      <c r="AE109"/>
-    </row>
-    <row r="110" spans="1:31">
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110" s="1">
-        <v>44763.791666666664</v>
+        <v>44873.90625</v>
       </c>
       <c r="B110"/>
       <c r="C110"/>
@@ -4436,23 +2954,10 @@
       <c r="P110"/>
       <c r="Q110"/>
       <c r="R110"/>
-      <c r="S110"/>
-      <c r="T110"/>
-      <c r="U110"/>
-      <c r="V110"/>
-      <c r="W110"/>
-      <c r="X110"/>
-      <c r="Y110"/>
-      <c r="Z110"/>
-      <c r="AA110"/>
-      <c r="AB110"/>
-      <c r="AC110"/>
-      <c r="AD110"/>
-      <c r="AE110"/>
-    </row>
-    <row r="111" spans="1:31">
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111" s="1">
-        <v>44763.802083333336</v>
+        <v>44873.916666666664</v>
       </c>
       <c r="B111"/>
       <c r="C111"/>
@@ -4471,23 +2976,10 @@
       <c r="P111"/>
       <c r="Q111"/>
       <c r="R111"/>
-      <c r="S111"/>
-      <c r="T111"/>
-      <c r="U111"/>
-      <c r="V111"/>
-      <c r="W111"/>
-      <c r="X111"/>
-      <c r="Y111"/>
-      <c r="Z111"/>
-      <c r="AA111"/>
-      <c r="AB111"/>
-      <c r="AC111"/>
-      <c r="AD111"/>
-      <c r="AE111"/>
-    </row>
-    <row r="112" spans="1:31">
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" s="1">
-        <v>44763.8125</v>
+        <v>44873.927083333336</v>
       </c>
       <c r="B112"/>
       <c r="C112"/>
@@ -4506,23 +2998,10 @@
       <c r="P112"/>
       <c r="Q112"/>
       <c r="R112"/>
-      <c r="S112"/>
-      <c r="T112"/>
-      <c r="U112"/>
-      <c r="V112"/>
-      <c r="W112"/>
-      <c r="X112"/>
-      <c r="Y112"/>
-      <c r="Z112"/>
-      <c r="AA112"/>
-      <c r="AB112"/>
-      <c r="AC112"/>
-      <c r="AD112"/>
-      <c r="AE112"/>
-    </row>
-    <row r="113" spans="1:31">
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" s="1">
-        <v>44763.822916666664</v>
+        <v>44873.9375</v>
       </c>
       <c r="B113"/>
       <c r="C113"/>
@@ -4541,23 +3020,10 @@
       <c r="P113"/>
       <c r="Q113"/>
       <c r="R113"/>
-      <c r="S113"/>
-      <c r="T113"/>
-      <c r="U113"/>
-      <c r="V113"/>
-      <c r="W113"/>
-      <c r="X113"/>
-      <c r="Y113"/>
-      <c r="Z113"/>
-      <c r="AA113"/>
-      <c r="AB113"/>
-      <c r="AC113"/>
-      <c r="AD113"/>
-      <c r="AE113"/>
-    </row>
-    <row r="114" spans="1:31">
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114" s="1">
-        <v>44763.833333333336</v>
+        <v>44873.947916666664</v>
       </c>
       <c r="B114"/>
       <c r="C114"/>
@@ -4576,23 +3042,10 @@
       <c r="P114"/>
       <c r="Q114"/>
       <c r="R114"/>
-      <c r="S114"/>
-      <c r="T114"/>
-      <c r="U114"/>
-      <c r="V114"/>
-      <c r="W114"/>
-      <c r="X114"/>
-      <c r="Y114"/>
-      <c r="Z114"/>
-      <c r="AA114"/>
-      <c r="AB114"/>
-      <c r="AC114"/>
-      <c r="AD114"/>
-      <c r="AE114"/>
-    </row>
-    <row r="115" spans="1:31">
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115" s="1">
-        <v>44763.84375</v>
+        <v>44873.958333333336</v>
       </c>
       <c r="B115"/>
       <c r="C115"/>
@@ -4611,23 +3064,10 @@
       <c r="P115"/>
       <c r="Q115"/>
       <c r="R115"/>
-      <c r="S115"/>
-      <c r="T115"/>
-      <c r="U115"/>
-      <c r="V115"/>
-      <c r="W115"/>
-      <c r="X115"/>
-      <c r="Y115"/>
-      <c r="Z115"/>
-      <c r="AA115"/>
-      <c r="AB115"/>
-      <c r="AC115"/>
-      <c r="AD115"/>
-      <c r="AE115"/>
-    </row>
-    <row r="116" spans="1:31">
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" s="1">
-        <v>44763.854166666664</v>
+        <v>44873.96875</v>
       </c>
       <c r="B116"/>
       <c r="C116"/>
@@ -4646,23 +3086,10 @@
       <c r="P116"/>
       <c r="Q116"/>
       <c r="R116"/>
-      <c r="S116"/>
-      <c r="T116"/>
-      <c r="U116"/>
-      <c r="V116"/>
-      <c r="W116"/>
-      <c r="X116"/>
-      <c r="Y116"/>
-      <c r="Z116"/>
-      <c r="AA116"/>
-      <c r="AB116"/>
-      <c r="AC116"/>
-      <c r="AD116"/>
-      <c r="AE116"/>
-    </row>
-    <row r="117" spans="1:31">
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" s="1">
-        <v>44763.864583333336</v>
+        <v>44873.979166666664</v>
       </c>
       <c r="B117"/>
       <c r="C117"/>
@@ -4681,23 +3108,10 @@
       <c r="P117"/>
       <c r="Q117"/>
       <c r="R117"/>
-      <c r="S117"/>
-      <c r="T117"/>
-      <c r="U117"/>
-      <c r="V117"/>
-      <c r="W117"/>
-      <c r="X117"/>
-      <c r="Y117"/>
-      <c r="Z117"/>
-      <c r="AA117"/>
-      <c r="AB117"/>
-      <c r="AC117"/>
-      <c r="AD117"/>
-      <c r="AE117"/>
-    </row>
-    <row r="118" spans="1:31">
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" s="1">
-        <v>44763.875</v>
+        <v>44873.989583333336</v>
       </c>
       <c r="B118"/>
       <c r="C118"/>
@@ -4716,23 +3130,10 @@
       <c r="P118"/>
       <c r="Q118"/>
       <c r="R118"/>
-      <c r="S118"/>
-      <c r="T118"/>
-      <c r="U118"/>
-      <c r="V118"/>
-      <c r="W118"/>
-      <c r="X118"/>
-      <c r="Y118"/>
-      <c r="Z118"/>
-      <c r="AA118"/>
-      <c r="AB118"/>
-      <c r="AC118"/>
-      <c r="AD118"/>
-      <c r="AE118"/>
-    </row>
-    <row r="119" spans="1:31">
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" s="1">
-        <v>44763.885416666664</v>
+        <v>44874.0</v>
       </c>
       <c r="B119"/>
       <c r="C119"/>
@@ -4751,23 +3152,10 @@
       <c r="P119"/>
       <c r="Q119"/>
       <c r="R119"/>
-      <c r="S119"/>
-      <c r="T119"/>
-      <c r="U119"/>
-      <c r="V119"/>
-      <c r="W119"/>
-      <c r="X119"/>
-      <c r="Y119"/>
-      <c r="Z119"/>
-      <c r="AA119"/>
-      <c r="AB119"/>
-      <c r="AC119"/>
-      <c r="AD119"/>
-      <c r="AE119"/>
-    </row>
-    <row r="120" spans="1:31">
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" s="1">
-        <v>44763.895833333336</v>
+        <v>44874.010416666664</v>
       </c>
       <c r="B120"/>
       <c r="C120"/>
@@ -4786,23 +3174,10 @@
       <c r="P120"/>
       <c r="Q120"/>
       <c r="R120"/>
-      <c r="S120"/>
-      <c r="T120"/>
-      <c r="U120"/>
-      <c r="V120"/>
-      <c r="W120"/>
-      <c r="X120"/>
-      <c r="Y120"/>
-      <c r="Z120"/>
-      <c r="AA120"/>
-      <c r="AB120"/>
-      <c r="AC120"/>
-      <c r="AD120"/>
-      <c r="AE120"/>
-    </row>
-    <row r="121" spans="1:31">
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" s="1">
-        <v>44763.90625</v>
+        <v>44874.020833333336</v>
       </c>
       <c r="B121"/>
       <c r="C121"/>
@@ -4821,23 +3196,10 @@
       <c r="P121"/>
       <c r="Q121"/>
       <c r="R121"/>
-      <c r="S121"/>
-      <c r="T121"/>
-      <c r="U121"/>
-      <c r="V121"/>
-      <c r="W121"/>
-      <c r="X121"/>
-      <c r="Y121"/>
-      <c r="Z121"/>
-      <c r="AA121"/>
-      <c r="AB121"/>
-      <c r="AC121"/>
-      <c r="AD121"/>
-      <c r="AE121"/>
-    </row>
-    <row r="122" spans="1:31">
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" s="1">
-        <v>44763.916666666664</v>
+        <v>44874.03125</v>
       </c>
       <c r="B122"/>
       <c r="C122"/>
@@ -4856,23 +3218,10 @@
       <c r="P122"/>
       <c r="Q122"/>
       <c r="R122"/>
-      <c r="S122"/>
-      <c r="T122"/>
-      <c r="U122"/>
-      <c r="V122"/>
-      <c r="W122"/>
-      <c r="X122"/>
-      <c r="Y122"/>
-      <c r="Z122"/>
-      <c r="AA122"/>
-      <c r="AB122"/>
-      <c r="AC122"/>
-      <c r="AD122"/>
-      <c r="AE122"/>
-    </row>
-    <row r="123" spans="1:31">
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" s="1">
-        <v>44763.927083333336</v>
+        <v>44874.041666666664</v>
       </c>
       <c r="B123"/>
       <c r="C123"/>
@@ -4891,23 +3240,10 @@
       <c r="P123"/>
       <c r="Q123"/>
       <c r="R123"/>
-      <c r="S123"/>
-      <c r="T123"/>
-      <c r="U123"/>
-      <c r="V123"/>
-      <c r="W123"/>
-      <c r="X123"/>
-      <c r="Y123"/>
-      <c r="Z123"/>
-      <c r="AA123"/>
-      <c r="AB123"/>
-      <c r="AC123"/>
-      <c r="AD123"/>
-      <c r="AE123"/>
-    </row>
-    <row r="124" spans="1:31">
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" s="1">
-        <v>44763.9375</v>
+        <v>44874.052083333336</v>
       </c>
       <c r="B124"/>
       <c r="C124"/>
@@ -4926,23 +3262,10 @@
       <c r="P124"/>
       <c r="Q124"/>
       <c r="R124"/>
-      <c r="S124"/>
-      <c r="T124"/>
-      <c r="U124"/>
-      <c r="V124"/>
-      <c r="W124"/>
-      <c r="X124"/>
-      <c r="Y124"/>
-      <c r="Z124"/>
-      <c r="AA124"/>
-      <c r="AB124"/>
-      <c r="AC124"/>
-      <c r="AD124"/>
-      <c r="AE124"/>
-    </row>
-    <row r="125" spans="1:31">
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" s="1">
-        <v>44763.947916666664</v>
+        <v>44874.0625</v>
       </c>
       <c r="B125"/>
       <c r="C125"/>
@@ -4961,23 +3284,10 @@
       <c r="P125"/>
       <c r="Q125"/>
       <c r="R125"/>
-      <c r="S125"/>
-      <c r="T125"/>
-      <c r="U125"/>
-      <c r="V125"/>
-      <c r="W125"/>
-      <c r="X125"/>
-      <c r="Y125"/>
-      <c r="Z125"/>
-      <c r="AA125"/>
-      <c r="AB125"/>
-      <c r="AC125"/>
-      <c r="AD125"/>
-      <c r="AE125"/>
-    </row>
-    <row r="126" spans="1:31">
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" s="1">
-        <v>44763.958333333336</v>
+        <v>44874.072916666664</v>
       </c>
       <c r="B126"/>
       <c r="C126"/>
@@ -4996,23 +3306,10 @@
       <c r="P126"/>
       <c r="Q126"/>
       <c r="R126"/>
-      <c r="S126"/>
-      <c r="T126"/>
-      <c r="U126"/>
-      <c r="V126"/>
-      <c r="W126"/>
-      <c r="X126"/>
-      <c r="Y126"/>
-      <c r="Z126"/>
-      <c r="AA126"/>
-      <c r="AB126"/>
-      <c r="AC126"/>
-      <c r="AD126"/>
-      <c r="AE126"/>
-    </row>
-    <row r="127" spans="1:31">
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" s="1">
-        <v>44763.96875</v>
+        <v>44874.083333333336</v>
       </c>
       <c r="B127"/>
       <c r="C127"/>
@@ -5031,23 +3328,10 @@
       <c r="P127"/>
       <c r="Q127"/>
       <c r="R127"/>
-      <c r="S127"/>
-      <c r="T127"/>
-      <c r="U127"/>
-      <c r="V127"/>
-      <c r="W127"/>
-      <c r="X127"/>
-      <c r="Y127"/>
-      <c r="Z127"/>
-      <c r="AA127"/>
-      <c r="AB127"/>
-      <c r="AC127"/>
-      <c r="AD127"/>
-      <c r="AE127"/>
-    </row>
-    <row r="128" spans="1:31">
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128" s="1">
-        <v>44763.979166666664</v>
+        <v>44874.09375</v>
       </c>
       <c r="B128"/>
       <c r="C128"/>
@@ -5066,23 +3350,10 @@
       <c r="P128"/>
       <c r="Q128"/>
       <c r="R128"/>
-      <c r="S128"/>
-      <c r="T128"/>
-      <c r="U128"/>
-      <c r="V128"/>
-      <c r="W128"/>
-      <c r="X128"/>
-      <c r="Y128"/>
-      <c r="Z128"/>
-      <c r="AA128"/>
-      <c r="AB128"/>
-      <c r="AC128"/>
-      <c r="AD128"/>
-      <c r="AE128"/>
-    </row>
-    <row r="129" spans="1:31">
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129" s="1">
-        <v>44763.989583333336</v>
+        <v>44874.104166666664</v>
       </c>
       <c r="B129"/>
       <c r="C129"/>
@@ -5101,23 +3372,10 @@
       <c r="P129"/>
       <c r="Q129"/>
       <c r="R129"/>
-      <c r="S129"/>
-      <c r="T129"/>
-      <c r="U129"/>
-      <c r="V129"/>
-      <c r="W129"/>
-      <c r="X129"/>
-      <c r="Y129"/>
-      <c r="Z129"/>
-      <c r="AA129"/>
-      <c r="AB129"/>
-      <c r="AC129"/>
-      <c r="AD129"/>
-      <c r="AE129"/>
-    </row>
-    <row r="130" spans="1:31">
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130" s="1">
-        <v>44764.0</v>
+        <v>44874.114583333336</v>
       </c>
       <c r="B130"/>
       <c r="C130"/>
@@ -5136,23 +3394,10 @@
       <c r="P130"/>
       <c r="Q130"/>
       <c r="R130"/>
-      <c r="S130"/>
-      <c r="T130"/>
-      <c r="U130"/>
-      <c r="V130"/>
-      <c r="W130"/>
-      <c r="X130"/>
-      <c r="Y130"/>
-      <c r="Z130"/>
-      <c r="AA130"/>
-      <c r="AB130"/>
-      <c r="AC130"/>
-      <c r="AD130"/>
-      <c r="AE130"/>
-    </row>
-    <row r="131" spans="1:31">
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131" s="1">
-        <v>44764.010416666664</v>
+        <v>44874.125</v>
       </c>
       <c r="B131"/>
       <c r="C131"/>
@@ -5171,23 +3416,10 @@
       <c r="P131"/>
       <c r="Q131"/>
       <c r="R131"/>
-      <c r="S131"/>
-      <c r="T131"/>
-      <c r="U131"/>
-      <c r="V131"/>
-      <c r="W131"/>
-      <c r="X131"/>
-      <c r="Y131"/>
-      <c r="Z131"/>
-      <c r="AA131"/>
-      <c r="AB131"/>
-      <c r="AC131"/>
-      <c r="AD131"/>
-      <c r="AE131"/>
-    </row>
-    <row r="132" spans="1:31">
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132" s="1">
-        <v>44764.020833333336</v>
+        <v>44874.135416666664</v>
       </c>
       <c r="B132"/>
       <c r="C132"/>
@@ -5206,23 +3438,10 @@
       <c r="P132"/>
       <c r="Q132"/>
       <c r="R132"/>
-      <c r="S132"/>
-      <c r="T132"/>
-      <c r="U132"/>
-      <c r="V132"/>
-      <c r="W132"/>
-      <c r="X132"/>
-      <c r="Y132"/>
-      <c r="Z132"/>
-      <c r="AA132"/>
-      <c r="AB132"/>
-      <c r="AC132"/>
-      <c r="AD132"/>
-      <c r="AE132"/>
-    </row>
-    <row r="133" spans="1:31">
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" s="1">
-        <v>44764.03125</v>
+        <v>44874.145833333336</v>
       </c>
       <c r="B133"/>
       <c r="C133"/>
@@ -5241,23 +3460,10 @@
       <c r="P133"/>
       <c r="Q133"/>
       <c r="R133"/>
-      <c r="S133"/>
-      <c r="T133"/>
-      <c r="U133"/>
-      <c r="V133"/>
-      <c r="W133"/>
-      <c r="X133"/>
-      <c r="Y133"/>
-      <c r="Z133"/>
-      <c r="AA133"/>
-      <c r="AB133"/>
-      <c r="AC133"/>
-      <c r="AD133"/>
-      <c r="AE133"/>
-    </row>
-    <row r="134" spans="1:31">
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134" s="1">
-        <v>44764.041666666664</v>
+        <v>44874.15625</v>
       </c>
       <c r="B134"/>
       <c r="C134"/>
@@ -5276,23 +3482,10 @@
       <c r="P134"/>
       <c r="Q134"/>
       <c r="R134"/>
-      <c r="S134"/>
-      <c r="T134"/>
-      <c r="U134"/>
-      <c r="V134"/>
-      <c r="W134"/>
-      <c r="X134"/>
-      <c r="Y134"/>
-      <c r="Z134"/>
-      <c r="AA134"/>
-      <c r="AB134"/>
-      <c r="AC134"/>
-      <c r="AD134"/>
-      <c r="AE134"/>
-    </row>
-    <row r="135" spans="1:31">
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135" s="1">
-        <v>44764.052083333336</v>
+        <v>44874.166666666664</v>
       </c>
       <c r="B135"/>
       <c r="C135"/>
@@ -5311,23 +3504,10 @@
       <c r="P135"/>
       <c r="Q135"/>
       <c r="R135"/>
-      <c r="S135"/>
-      <c r="T135"/>
-      <c r="U135"/>
-      <c r="V135"/>
-      <c r="W135"/>
-      <c r="X135"/>
-      <c r="Y135"/>
-      <c r="Z135"/>
-      <c r="AA135"/>
-      <c r="AB135"/>
-      <c r="AC135"/>
-      <c r="AD135"/>
-      <c r="AE135"/>
-    </row>
-    <row r="136" spans="1:31">
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136" s="1">
-        <v>44764.0625</v>
+        <v>44874.177083333336</v>
       </c>
       <c r="B136"/>
       <c r="C136"/>
@@ -5346,23 +3526,10 @@
       <c r="P136"/>
       <c r="Q136"/>
       <c r="R136"/>
-      <c r="S136"/>
-      <c r="T136"/>
-      <c r="U136"/>
-      <c r="V136"/>
-      <c r="W136"/>
-      <c r="X136"/>
-      <c r="Y136"/>
-      <c r="Z136"/>
-      <c r="AA136"/>
-      <c r="AB136"/>
-      <c r="AC136"/>
-      <c r="AD136"/>
-      <c r="AE136"/>
-    </row>
-    <row r="137" spans="1:31">
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137" s="1">
-        <v>44764.072916666664</v>
+        <v>44874.1875</v>
       </c>
       <c r="B137"/>
       <c r="C137"/>
@@ -5381,23 +3548,10 @@
       <c r="P137"/>
       <c r="Q137"/>
       <c r="R137"/>
-      <c r="S137"/>
-      <c r="T137"/>
-      <c r="U137"/>
-      <c r="V137"/>
-      <c r="W137"/>
-      <c r="X137"/>
-      <c r="Y137"/>
-      <c r="Z137"/>
-      <c r="AA137"/>
-      <c r="AB137"/>
-      <c r="AC137"/>
-      <c r="AD137"/>
-      <c r="AE137"/>
-    </row>
-    <row r="138" spans="1:31">
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138" s="1">
-        <v>44764.083333333336</v>
+        <v>44874.197916666664</v>
       </c>
       <c r="B138"/>
       <c r="C138"/>
@@ -5416,23 +3570,10 @@
       <c r="P138"/>
       <c r="Q138"/>
       <c r="R138"/>
-      <c r="S138"/>
-      <c r="T138"/>
-      <c r="U138"/>
-      <c r="V138"/>
-      <c r="W138"/>
-      <c r="X138"/>
-      <c r="Y138"/>
-      <c r="Z138"/>
-      <c r="AA138"/>
-      <c r="AB138"/>
-      <c r="AC138"/>
-      <c r="AD138"/>
-      <c r="AE138"/>
-    </row>
-    <row r="139" spans="1:31">
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139" s="1">
-        <v>44764.09375</v>
+        <v>44874.208333333336</v>
       </c>
       <c r="B139"/>
       <c r="C139"/>
@@ -5451,23 +3592,10 @@
       <c r="P139"/>
       <c r="Q139"/>
       <c r="R139"/>
-      <c r="S139"/>
-      <c r="T139"/>
-      <c r="U139"/>
-      <c r="V139"/>
-      <c r="W139"/>
-      <c r="X139"/>
-      <c r="Y139"/>
-      <c r="Z139"/>
-      <c r="AA139"/>
-      <c r="AB139"/>
-      <c r="AC139"/>
-      <c r="AD139"/>
-      <c r="AE139"/>
-    </row>
-    <row r="140" spans="1:31">
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140" s="1">
-        <v>44764.104166666664</v>
+        <v>44874.21875</v>
       </c>
       <c r="B140"/>
       <c r="C140"/>
@@ -5486,23 +3614,10 @@
       <c r="P140"/>
       <c r="Q140"/>
       <c r="R140"/>
-      <c r="S140"/>
-      <c r="T140"/>
-      <c r="U140"/>
-      <c r="V140"/>
-      <c r="W140"/>
-      <c r="X140"/>
-      <c r="Y140"/>
-      <c r="Z140"/>
-      <c r="AA140"/>
-      <c r="AB140"/>
-      <c r="AC140"/>
-      <c r="AD140"/>
-      <c r="AE140"/>
-    </row>
-    <row r="141" spans="1:31">
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141" s="1">
-        <v>44764.114583333336</v>
+        <v>44874.229166666664</v>
       </c>
       <c r="B141"/>
       <c r="C141"/>
@@ -5521,23 +3636,10 @@
       <c r="P141"/>
       <c r="Q141"/>
       <c r="R141"/>
-      <c r="S141"/>
-      <c r="T141"/>
-      <c r="U141"/>
-      <c r="V141"/>
-      <c r="W141"/>
-      <c r="X141"/>
-      <c r="Y141"/>
-      <c r="Z141"/>
-      <c r="AA141"/>
-      <c r="AB141"/>
-      <c r="AC141"/>
-      <c r="AD141"/>
-      <c r="AE141"/>
-    </row>
-    <row r="142" spans="1:31">
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142" s="1">
-        <v>44764.125</v>
+        <v>44874.239583333336</v>
       </c>
       <c r="B142"/>
       <c r="C142"/>
@@ -5556,23 +3658,10 @@
       <c r="P142"/>
       <c r="Q142"/>
       <c r="R142"/>
-      <c r="S142"/>
-      <c r="T142"/>
-      <c r="U142"/>
-      <c r="V142"/>
-      <c r="W142"/>
-      <c r="X142"/>
-      <c r="Y142"/>
-      <c r="Z142"/>
-      <c r="AA142"/>
-      <c r="AB142"/>
-      <c r="AC142"/>
-      <c r="AD142"/>
-      <c r="AE142"/>
-    </row>
-    <row r="143" spans="1:31">
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143" s="1">
-        <v>44764.135416666664</v>
+        <v>44874.25</v>
       </c>
       <c r="B143"/>
       <c r="C143"/>
@@ -5591,23 +3680,10 @@
       <c r="P143"/>
       <c r="Q143"/>
       <c r="R143"/>
-      <c r="S143"/>
-      <c r="T143"/>
-      <c r="U143"/>
-      <c r="V143"/>
-      <c r="W143"/>
-      <c r="X143"/>
-      <c r="Y143"/>
-      <c r="Z143"/>
-      <c r="AA143"/>
-      <c r="AB143"/>
-      <c r="AC143"/>
-      <c r="AD143"/>
-      <c r="AE143"/>
-    </row>
-    <row r="144" spans="1:31">
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144" s="1">
-        <v>44764.145833333336</v>
+        <v>44874.260416666664</v>
       </c>
       <c r="B144"/>
       <c r="C144"/>
@@ -5626,23 +3702,10 @@
       <c r="P144"/>
       <c r="Q144"/>
       <c r="R144"/>
-      <c r="S144"/>
-      <c r="T144"/>
-      <c r="U144"/>
-      <c r="V144"/>
-      <c r="W144"/>
-      <c r="X144"/>
-      <c r="Y144"/>
-      <c r="Z144"/>
-      <c r="AA144"/>
-      <c r="AB144"/>
-      <c r="AC144"/>
-      <c r="AD144"/>
-      <c r="AE144"/>
-    </row>
-    <row r="145" spans="1:31">
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" s="1">
-        <v>44764.15625</v>
+        <v>44874.270833333336</v>
       </c>
       <c r="B145"/>
       <c r="C145"/>
@@ -5661,23 +3724,10 @@
       <c r="P145"/>
       <c r="Q145"/>
       <c r="R145"/>
-      <c r="S145"/>
-      <c r="T145"/>
-      <c r="U145"/>
-      <c r="V145"/>
-      <c r="W145"/>
-      <c r="X145"/>
-      <c r="Y145"/>
-      <c r="Z145"/>
-      <c r="AA145"/>
-      <c r="AB145"/>
-      <c r="AC145"/>
-      <c r="AD145"/>
-      <c r="AE145"/>
-    </row>
-    <row r="146" spans="1:31">
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146" s="1">
-        <v>44764.166666666664</v>
+        <v>44874.28125</v>
       </c>
       <c r="B146"/>
       <c r="C146"/>
@@ -5696,23 +3746,10 @@
       <c r="P146"/>
       <c r="Q146"/>
       <c r="R146"/>
-      <c r="S146"/>
-      <c r="T146"/>
-      <c r="U146"/>
-      <c r="V146"/>
-      <c r="W146"/>
-      <c r="X146"/>
-      <c r="Y146"/>
-      <c r="Z146"/>
-      <c r="AA146"/>
-      <c r="AB146"/>
-      <c r="AC146"/>
-      <c r="AD146"/>
-      <c r="AE146"/>
-    </row>
-    <row r="147" spans="1:31">
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" s="1">
-        <v>44764.177083333336</v>
+        <v>44874.291666666664</v>
       </c>
       <c r="B147"/>
       <c r="C147"/>
@@ -5731,23 +3768,10 @@
       <c r="P147"/>
       <c r="Q147"/>
       <c r="R147"/>
-      <c r="S147"/>
-      <c r="T147"/>
-      <c r="U147"/>
-      <c r="V147"/>
-      <c r="W147"/>
-      <c r="X147"/>
-      <c r="Y147"/>
-      <c r="Z147"/>
-      <c r="AA147"/>
-      <c r="AB147"/>
-      <c r="AC147"/>
-      <c r="AD147"/>
-      <c r="AE147"/>
-    </row>
-    <row r="148" spans="1:31">
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" s="1">
-        <v>44764.1875</v>
+        <v>44874.302083333336</v>
       </c>
       <c r="B148"/>
       <c r="C148"/>
@@ -5766,23 +3790,10 @@
       <c r="P148"/>
       <c r="Q148"/>
       <c r="R148"/>
-      <c r="S148"/>
-      <c r="T148"/>
-      <c r="U148"/>
-      <c r="V148"/>
-      <c r="W148"/>
-      <c r="X148"/>
-      <c r="Y148"/>
-      <c r="Z148"/>
-      <c r="AA148"/>
-      <c r="AB148"/>
-      <c r="AC148"/>
-      <c r="AD148"/>
-      <c r="AE148"/>
-    </row>
-    <row r="149" spans="1:31">
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149" s="1">
-        <v>44764.197916666664</v>
+        <v>44874.3125</v>
       </c>
       <c r="B149"/>
       <c r="C149"/>
@@ -5801,23 +3812,10 @@
       <c r="P149"/>
       <c r="Q149"/>
       <c r="R149"/>
-      <c r="S149"/>
-      <c r="T149"/>
-      <c r="U149"/>
-      <c r="V149"/>
-      <c r="W149"/>
-      <c r="X149"/>
-      <c r="Y149"/>
-      <c r="Z149"/>
-      <c r="AA149"/>
-      <c r="AB149"/>
-      <c r="AC149"/>
-      <c r="AD149"/>
-      <c r="AE149"/>
-    </row>
-    <row r="150" spans="1:31">
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150" s="1">
-        <v>44764.208333333336</v>
+        <v>44874.322916666664</v>
       </c>
       <c r="B150"/>
       <c r="C150"/>
@@ -5836,23 +3834,10 @@
       <c r="P150"/>
       <c r="Q150"/>
       <c r="R150"/>
-      <c r="S150"/>
-      <c r="T150"/>
-      <c r="U150"/>
-      <c r="V150"/>
-      <c r="W150"/>
-      <c r="X150"/>
-      <c r="Y150"/>
-      <c r="Z150"/>
-      <c r="AA150"/>
-      <c r="AB150"/>
-      <c r="AC150"/>
-      <c r="AD150"/>
-      <c r="AE150"/>
-    </row>
-    <row r="151" spans="1:31">
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151" s="1">
-        <v>44764.21875</v>
+        <v>44874.333333333336</v>
       </c>
       <c r="B151"/>
       <c r="C151"/>
@@ -5871,404 +3856,6 @@
       <c r="P151"/>
       <c r="Q151"/>
       <c r="R151"/>
-      <c r="S151"/>
-      <c r="T151"/>
-      <c r="U151"/>
-      <c r="V151"/>
-      <c r="W151"/>
-      <c r="X151"/>
-      <c r="Y151"/>
-      <c r="Z151"/>
-      <c r="AA151"/>
-      <c r="AB151"/>
-      <c r="AC151"/>
-      <c r="AD151"/>
-      <c r="AE151"/>
-    </row>
-    <row r="152" spans="1:31">
-      <c r="A152" s="1">
-        <v>44764.229166666664</v>
-      </c>
-      <c r="B152"/>
-      <c r="C152"/>
-      <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152"/>
-      <c r="G152"/>
-      <c r="H152"/>
-      <c r="I152"/>
-      <c r="J152"/>
-      <c r="K152"/>
-      <c r="L152"/>
-      <c r="M152"/>
-      <c r="N152"/>
-      <c r="O152"/>
-      <c r="P152"/>
-      <c r="Q152"/>
-      <c r="R152"/>
-      <c r="S152"/>
-      <c r="T152"/>
-      <c r="U152"/>
-      <c r="V152"/>
-      <c r="W152"/>
-      <c r="X152"/>
-      <c r="Y152"/>
-      <c r="Z152"/>
-      <c r="AA152"/>
-      <c r="AB152"/>
-      <c r="AC152"/>
-      <c r="AD152"/>
-      <c r="AE152"/>
-    </row>
-    <row r="153" spans="1:31">
-      <c r="A153" s="1">
-        <v>44764.239583333336</v>
-      </c>
-      <c r="B153"/>
-      <c r="C153"/>
-      <c r="D153"/>
-      <c r="E153"/>
-      <c r="F153"/>
-      <c r="G153"/>
-      <c r="H153"/>
-      <c r="I153"/>
-      <c r="J153"/>
-      <c r="K153"/>
-      <c r="L153"/>
-      <c r="M153"/>
-      <c r="N153"/>
-      <c r="O153"/>
-      <c r="P153"/>
-      <c r="Q153"/>
-      <c r="R153"/>
-      <c r="S153"/>
-      <c r="T153"/>
-      <c r="U153"/>
-      <c r="V153"/>
-      <c r="W153"/>
-      <c r="X153"/>
-      <c r="Y153"/>
-      <c r="Z153"/>
-      <c r="AA153"/>
-      <c r="AB153"/>
-      <c r="AC153"/>
-      <c r="AD153"/>
-      <c r="AE153"/>
-    </row>
-    <row r="154" spans="1:31">
-      <c r="A154" s="1">
-        <v>44764.25</v>
-      </c>
-      <c r="B154"/>
-      <c r="C154"/>
-      <c r="D154"/>
-      <c r="E154"/>
-      <c r="F154"/>
-      <c r="G154"/>
-      <c r="H154"/>
-      <c r="I154"/>
-      <c r="J154"/>
-      <c r="K154"/>
-      <c r="L154"/>
-      <c r="M154"/>
-      <c r="N154"/>
-      <c r="O154"/>
-      <c r="P154"/>
-      <c r="Q154"/>
-      <c r="R154"/>
-      <c r="S154"/>
-      <c r="T154"/>
-      <c r="U154"/>
-      <c r="V154"/>
-      <c r="W154"/>
-      <c r="X154"/>
-      <c r="Y154"/>
-      <c r="Z154"/>
-      <c r="AA154"/>
-      <c r="AB154"/>
-      <c r="AC154"/>
-      <c r="AD154"/>
-      <c r="AE154"/>
-    </row>
-    <row r="155" spans="1:31">
-      <c r="A155" s="1">
-        <v>44764.260416666664</v>
-      </c>
-      <c r="B155"/>
-      <c r="C155"/>
-      <c r="D155"/>
-      <c r="E155"/>
-      <c r="F155"/>
-      <c r="G155"/>
-      <c r="H155"/>
-      <c r="I155"/>
-      <c r="J155"/>
-      <c r="K155"/>
-      <c r="L155"/>
-      <c r="M155"/>
-      <c r="N155"/>
-      <c r="O155"/>
-      <c r="P155"/>
-      <c r="Q155"/>
-      <c r="R155"/>
-      <c r="S155"/>
-      <c r="T155"/>
-      <c r="U155"/>
-      <c r="V155"/>
-      <c r="W155"/>
-      <c r="X155"/>
-      <c r="Y155"/>
-      <c r="Z155"/>
-      <c r="AA155"/>
-      <c r="AB155"/>
-      <c r="AC155"/>
-      <c r="AD155"/>
-      <c r="AE155"/>
-    </row>
-    <row r="156" spans="1:31">
-      <c r="A156" s="1">
-        <v>44764.270833333336</v>
-      </c>
-      <c r="B156"/>
-      <c r="C156"/>
-      <c r="D156"/>
-      <c r="E156"/>
-      <c r="F156"/>
-      <c r="G156"/>
-      <c r="H156"/>
-      <c r="I156"/>
-      <c r="J156"/>
-      <c r="K156"/>
-      <c r="L156"/>
-      <c r="M156"/>
-      <c r="N156"/>
-      <c r="O156"/>
-      <c r="P156"/>
-      <c r="Q156"/>
-      <c r="R156"/>
-      <c r="S156"/>
-      <c r="T156"/>
-      <c r="U156"/>
-      <c r="V156"/>
-      <c r="W156"/>
-      <c r="X156"/>
-      <c r="Y156"/>
-      <c r="Z156"/>
-      <c r="AA156"/>
-      <c r="AB156"/>
-      <c r="AC156"/>
-      <c r="AD156"/>
-      <c r="AE156"/>
-    </row>
-    <row r="157" spans="1:31">
-      <c r="A157" s="1">
-        <v>44764.28125</v>
-      </c>
-      <c r="B157"/>
-      <c r="C157"/>
-      <c r="D157"/>
-      <c r="E157"/>
-      <c r="F157"/>
-      <c r="G157"/>
-      <c r="H157"/>
-      <c r="I157"/>
-      <c r="J157"/>
-      <c r="K157"/>
-      <c r="L157"/>
-      <c r="M157"/>
-      <c r="N157"/>
-      <c r="O157"/>
-      <c r="P157"/>
-      <c r="Q157"/>
-      <c r="R157"/>
-      <c r="S157"/>
-      <c r="T157"/>
-      <c r="U157"/>
-      <c r="V157"/>
-      <c r="W157"/>
-      <c r="X157"/>
-      <c r="Y157"/>
-      <c r="Z157"/>
-      <c r="AA157"/>
-      <c r="AB157"/>
-      <c r="AC157"/>
-      <c r="AD157"/>
-      <c r="AE157"/>
-    </row>
-    <row r="158" spans="1:31">
-      <c r="A158" s="1">
-        <v>44764.291666666664</v>
-      </c>
-      <c r="B158"/>
-      <c r="C158"/>
-      <c r="D158"/>
-      <c r="E158"/>
-      <c r="F158"/>
-      <c r="G158"/>
-      <c r="H158"/>
-      <c r="I158"/>
-      <c r="J158"/>
-      <c r="K158"/>
-      <c r="L158"/>
-      <c r="M158"/>
-      <c r="N158"/>
-      <c r="O158"/>
-      <c r="P158"/>
-      <c r="Q158"/>
-      <c r="R158"/>
-      <c r="S158"/>
-      <c r="T158"/>
-      <c r="U158"/>
-      <c r="V158"/>
-      <c r="W158"/>
-      <c r="X158"/>
-      <c r="Y158"/>
-      <c r="Z158"/>
-      <c r="AA158"/>
-      <c r="AB158"/>
-      <c r="AC158"/>
-      <c r="AD158"/>
-      <c r="AE158"/>
-    </row>
-    <row r="159" spans="1:31">
-      <c r="A159" s="1">
-        <v>44764.302083333336</v>
-      </c>
-      <c r="B159"/>
-      <c r="C159"/>
-      <c r="D159"/>
-      <c r="E159"/>
-      <c r="F159"/>
-      <c r="G159"/>
-      <c r="H159"/>
-      <c r="I159"/>
-      <c r="J159"/>
-      <c r="K159"/>
-      <c r="L159"/>
-      <c r="M159"/>
-      <c r="N159"/>
-      <c r="O159"/>
-      <c r="P159"/>
-      <c r="Q159"/>
-      <c r="R159"/>
-      <c r="S159"/>
-      <c r="T159"/>
-      <c r="U159"/>
-      <c r="V159"/>
-      <c r="W159"/>
-      <c r="X159"/>
-      <c r="Y159"/>
-      <c r="Z159"/>
-      <c r="AA159"/>
-      <c r="AB159"/>
-      <c r="AC159"/>
-      <c r="AD159"/>
-      <c r="AE159"/>
-    </row>
-    <row r="160" spans="1:31">
-      <c r="A160" s="1">
-        <v>44764.3125</v>
-      </c>
-      <c r="B160"/>
-      <c r="C160"/>
-      <c r="D160"/>
-      <c r="E160"/>
-      <c r="F160"/>
-      <c r="G160"/>
-      <c r="H160"/>
-      <c r="I160"/>
-      <c r="J160"/>
-      <c r="K160"/>
-      <c r="L160"/>
-      <c r="M160"/>
-      <c r="N160"/>
-      <c r="O160"/>
-      <c r="P160"/>
-      <c r="Q160"/>
-      <c r="R160"/>
-      <c r="S160"/>
-      <c r="T160"/>
-      <c r="U160"/>
-      <c r="V160"/>
-      <c r="W160"/>
-      <c r="X160"/>
-      <c r="Y160"/>
-      <c r="Z160"/>
-      <c r="AA160"/>
-      <c r="AB160"/>
-      <c r="AC160"/>
-      <c r="AD160"/>
-      <c r="AE160"/>
-    </row>
-    <row r="161" spans="1:31">
-      <c r="A161" s="1">
-        <v>44764.322916666664</v>
-      </c>
-      <c r="B161"/>
-      <c r="C161"/>
-      <c r="D161"/>
-      <c r="E161"/>
-      <c r="F161"/>
-      <c r="G161"/>
-      <c r="H161"/>
-      <c r="I161"/>
-      <c r="J161"/>
-      <c r="K161"/>
-      <c r="L161"/>
-      <c r="M161"/>
-      <c r="N161"/>
-      <c r="O161"/>
-      <c r="P161"/>
-      <c r="Q161"/>
-      <c r="R161"/>
-      <c r="S161"/>
-      <c r="T161"/>
-      <c r="U161"/>
-      <c r="V161"/>
-      <c r="W161"/>
-      <c r="X161"/>
-      <c r="Y161"/>
-      <c r="Z161"/>
-      <c r="AA161"/>
-      <c r="AB161"/>
-      <c r="AC161"/>
-      <c r="AD161"/>
-      <c r="AE161"/>
-    </row>
-    <row r="162" spans="1:31">
-      <c r="A162" s="1">
-        <v>44764.333333333336</v>
-      </c>
-      <c r="B162"/>
-      <c r="C162"/>
-      <c r="D162"/>
-      <c r="E162"/>
-      <c r="F162"/>
-      <c r="G162"/>
-      <c r="H162"/>
-      <c r="I162"/>
-      <c r="J162"/>
-      <c r="K162"/>
-      <c r="L162"/>
-      <c r="M162"/>
-      <c r="N162"/>
-      <c r="O162"/>
-      <c r="P162"/>
-      <c r="Q162"/>
-      <c r="R162"/>
-      <c r="S162"/>
-      <c r="T162"/>
-      <c r="U162"/>
-      <c r="V162"/>
-      <c r="W162"/>
-      <c r="X162"/>
-      <c r="Y162"/>
-      <c r="Z162"/>
-      <c r="AA162"/>
-      <c r="AB162"/>
-      <c r="AC162"/>
-      <c r="AD162"/>
-      <c r="AE162"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/必开燃机列表.xlsx
+++ b/assets/必开燃机列表.xlsx
@@ -431,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:R151"/>
+  <dimension ref="A1:R161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,7 +495,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1">
-        <v>44872.78125</v>
+        <v>44872.677083333336</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -517,7 +517,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
-        <v>44872.791666666664</v>
+        <v>44872.6875</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -539,7 +539,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
-        <v>44872.802083333336</v>
+        <v>44872.697916666664</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -561,7 +561,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
-        <v>44872.8125</v>
+        <v>44872.708333333336</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -583,7 +583,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
-        <v>44872.822916666664</v>
+        <v>44872.71875</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -605,7 +605,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
-        <v>44872.833333333336</v>
+        <v>44872.729166666664</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -627,7 +627,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
-        <v>44872.84375</v>
+        <v>44872.739583333336</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -649,7 +649,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
-        <v>44872.854166666664</v>
+        <v>44872.75</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -671,7 +671,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
-        <v>44872.864583333336</v>
+        <v>44872.760416666664</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -693,7 +693,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
-        <v>44872.875</v>
+        <v>44872.770833333336</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -715,7 +715,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
-        <v>44872.885416666664</v>
+        <v>44872.78125</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -737,7 +737,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
-        <v>44872.895833333336</v>
+        <v>44872.791666666664</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -759,7 +759,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1">
-        <v>44872.90625</v>
+        <v>44872.802083333336</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -781,7 +781,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1">
-        <v>44872.916666666664</v>
+        <v>44872.8125</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -803,7 +803,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1">
-        <v>44872.927083333336</v>
+        <v>44872.822916666664</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -825,7 +825,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1">
-        <v>44872.9375</v>
+        <v>44872.833333333336</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -847,7 +847,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1">
-        <v>44872.947916666664</v>
+        <v>44872.84375</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -869,7 +869,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1">
-        <v>44872.958333333336</v>
+        <v>44872.854166666664</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -891,7 +891,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1">
-        <v>44872.96875</v>
+        <v>44872.864583333336</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -913,7 +913,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1">
-        <v>44872.979166666664</v>
+        <v>44872.875</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -935,7 +935,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1">
-        <v>44872.989583333336</v>
+        <v>44872.885416666664</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -957,7 +957,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1">
-        <v>44873.0</v>
+        <v>44872.895833333336</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -979,7 +979,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1">
-        <v>44873.010416666664</v>
+        <v>44872.90625</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -988,9 +988,7 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="I24">
-        <v>1</v>
-      </c>
+      <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
@@ -1003,7 +1001,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1">
-        <v>44873.020833333336</v>
+        <v>44872.916666666664</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -1012,9 +1010,7 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="I25">
-        <v>1</v>
-      </c>
+      <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
@@ -1027,7 +1023,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1">
-        <v>44873.03125</v>
+        <v>44872.927083333336</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -1036,9 +1032,7 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="I26">
-        <v>1</v>
-      </c>
+      <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
@@ -1051,7 +1045,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1">
-        <v>44873.041666666664</v>
+        <v>44872.9375</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -1060,9 +1054,7 @@
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="I27">
-        <v>1</v>
-      </c>
+      <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
@@ -1075,7 +1067,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1">
-        <v>44873.052083333336</v>
+        <v>44872.947916666664</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -1084,9 +1076,7 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="I28">
-        <v>1</v>
-      </c>
+      <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
@@ -1099,7 +1089,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1">
-        <v>44873.0625</v>
+        <v>44872.958333333336</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -1108,9 +1098,7 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="I29">
-        <v>1</v>
-      </c>
+      <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
@@ -1123,7 +1111,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="1">
-        <v>44873.072916666664</v>
+        <v>44872.96875</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -1132,9 +1120,7 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="I30">
-        <v>1</v>
-      </c>
+      <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
@@ -1147,7 +1133,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1">
-        <v>44873.083333333336</v>
+        <v>44872.979166666664</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -1156,9 +1142,7 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="I31">
-        <v>1</v>
-      </c>
+      <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
@@ -1171,7 +1155,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="1">
-        <v>44873.09375</v>
+        <v>44872.989583333336</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -1180,9 +1164,7 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="I32">
-        <v>1</v>
-      </c>
+      <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
@@ -1195,7 +1177,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="1">
-        <v>44873.104166666664</v>
+        <v>44873.0</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -1204,9 +1186,7 @@
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
-      <c r="I33">
-        <v>1</v>
-      </c>
+      <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
@@ -1219,7 +1199,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="1">
-        <v>44873.114583333336</v>
+        <v>44873.010416666664</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -1243,7 +1223,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="1">
-        <v>44873.125</v>
+        <v>44873.020833333336</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
@@ -1267,7 +1247,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="1">
-        <v>44873.135416666664</v>
+        <v>44873.03125</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
@@ -1291,7 +1271,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="1">
-        <v>44873.145833333336</v>
+        <v>44873.041666666664</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
@@ -1315,7 +1295,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="1">
-        <v>44873.15625</v>
+        <v>44873.052083333336</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
@@ -1339,7 +1319,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="1">
-        <v>44873.166666666664</v>
+        <v>44873.0625</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
@@ -1363,7 +1343,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="1">
-        <v>44873.177083333336</v>
+        <v>44873.072916666664</v>
       </c>
       <c r="B40"/>
       <c r="C40"/>
@@ -1387,7 +1367,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="1">
-        <v>44873.1875</v>
+        <v>44873.083333333336</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
@@ -1411,7 +1391,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="1">
-        <v>44873.197916666664</v>
+        <v>44873.09375</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
@@ -1435,7 +1415,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="1">
-        <v>44873.208333333336</v>
+        <v>44873.104166666664</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
@@ -1459,7 +1439,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="1">
-        <v>44873.21875</v>
+        <v>44873.114583333336</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
@@ -1483,7 +1463,7 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="1">
-        <v>44873.229166666664</v>
+        <v>44873.125</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -1507,7 +1487,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="1">
-        <v>44873.239583333336</v>
+        <v>44873.135416666664</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
@@ -1531,7 +1511,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="1">
-        <v>44873.25</v>
+        <v>44873.145833333336</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -1555,7 +1535,7 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="1">
-        <v>44873.260416666664</v>
+        <v>44873.15625</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
@@ -1579,7 +1559,7 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="1">
-        <v>44873.270833333336</v>
+        <v>44873.166666666664</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
@@ -1603,7 +1583,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="1">
-        <v>44873.28125</v>
+        <v>44873.177083333336</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
@@ -1627,7 +1607,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="1">
-        <v>44873.291666666664</v>
+        <v>44873.1875</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
@@ -1651,7 +1631,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="1">
-        <v>44873.302083333336</v>
+        <v>44873.197916666664</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
@@ -1675,7 +1655,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="1">
-        <v>44873.3125</v>
+        <v>44873.208333333336</v>
       </c>
       <c r="B53"/>
       <c r="C53"/>
@@ -1699,7 +1679,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="1">
-        <v>44873.322916666664</v>
+        <v>44873.21875</v>
       </c>
       <c r="B54"/>
       <c r="C54"/>
@@ -1723,7 +1703,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="1">
-        <v>44873.333333333336</v>
+        <v>44873.229166666664</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
@@ -1747,7 +1727,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="1">
-        <v>44873.34375</v>
+        <v>44873.239583333336</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
@@ -1756,7 +1736,9 @@
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
-      <c r="I56"/>
+      <c r="I56">
+        <v>1</v>
+      </c>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
@@ -1769,7 +1751,7 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="1">
-        <v>44873.354166666664</v>
+        <v>44873.25</v>
       </c>
       <c r="B57"/>
       <c r="C57"/>
@@ -1778,7 +1760,9 @@
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57"/>
-      <c r="I57"/>
+      <c r="I57">
+        <v>1</v>
+      </c>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
@@ -1791,7 +1775,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="1">
-        <v>44873.364583333336</v>
+        <v>44873.260416666664</v>
       </c>
       <c r="B58"/>
       <c r="C58"/>
@@ -1800,7 +1784,9 @@
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58"/>
-      <c r="I58"/>
+      <c r="I58">
+        <v>1</v>
+      </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
@@ -1813,7 +1799,7 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="1">
-        <v>44873.375</v>
+        <v>44873.270833333336</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
@@ -1822,7 +1808,9 @@
       <c r="F59"/>
       <c r="G59"/>
       <c r="H59"/>
-      <c r="I59"/>
+      <c r="I59">
+        <v>1</v>
+      </c>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
@@ -1835,7 +1823,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="1">
-        <v>44873.385416666664</v>
+        <v>44873.28125</v>
       </c>
       <c r="B60"/>
       <c r="C60"/>
@@ -1844,7 +1832,9 @@
       <c r="F60"/>
       <c r="G60"/>
       <c r="H60"/>
-      <c r="I60"/>
+      <c r="I60">
+        <v>1</v>
+      </c>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
@@ -1857,7 +1847,7 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="1">
-        <v>44873.395833333336</v>
+        <v>44873.291666666664</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
@@ -1866,7 +1856,9 @@
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
-      <c r="I61"/>
+      <c r="I61">
+        <v>1</v>
+      </c>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
@@ -1879,7 +1871,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="1">
-        <v>44873.40625</v>
+        <v>44873.302083333336</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
@@ -1888,7 +1880,9 @@
       <c r="F62"/>
       <c r="G62"/>
       <c r="H62"/>
-      <c r="I62"/>
+      <c r="I62">
+        <v>1</v>
+      </c>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
@@ -1901,7 +1895,7 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="1">
-        <v>44873.416666666664</v>
+        <v>44873.3125</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
@@ -1910,7 +1904,9 @@
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
-      <c r="I63"/>
+      <c r="I63">
+        <v>1</v>
+      </c>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
@@ -1923,7 +1919,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="1">
-        <v>44873.427083333336</v>
+        <v>44873.322916666664</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
@@ -1932,7 +1928,9 @@
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
-      <c r="I64"/>
+      <c r="I64">
+        <v>1</v>
+      </c>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
@@ -1945,7 +1943,7 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="1">
-        <v>44873.4375</v>
+        <v>44873.333333333336</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
@@ -1954,7 +1952,9 @@
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
-      <c r="I65"/>
+      <c r="I65">
+        <v>1</v>
+      </c>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="1">
-        <v>44873.447916666664</v>
+        <v>44873.34375</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="1">
-        <v>44873.458333333336</v>
+        <v>44873.354166666664</v>
       </c>
       <c r="B67"/>
       <c r="C67"/>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="1">
-        <v>44873.46875</v>
+        <v>44873.364583333336</v>
       </c>
       <c r="B68"/>
       <c r="C68"/>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="1">
-        <v>44873.479166666664</v>
+        <v>44873.375</v>
       </c>
       <c r="B69"/>
       <c r="C69"/>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="1">
-        <v>44873.489583333336</v>
+        <v>44873.385416666664</v>
       </c>
       <c r="B70"/>
       <c r="C70"/>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="1">
-        <v>44873.5</v>
+        <v>44873.395833333336</v>
       </c>
       <c r="B71"/>
       <c r="C71"/>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="1">
-        <v>44873.510416666664</v>
+        <v>44873.40625</v>
       </c>
       <c r="B72"/>
       <c r="C72"/>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="1">
-        <v>44873.520833333336</v>
+        <v>44873.416666666664</v>
       </c>
       <c r="B73"/>
       <c r="C73"/>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="1">
-        <v>44873.53125</v>
+        <v>44873.427083333336</v>
       </c>
       <c r="B74"/>
       <c r="C74"/>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="1">
-        <v>44873.541666666664</v>
+        <v>44873.4375</v>
       </c>
       <c r="B75"/>
       <c r="C75"/>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="1">
-        <v>44873.552083333336</v>
+        <v>44873.447916666664</v>
       </c>
       <c r="B76"/>
       <c r="C76"/>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="1">
-        <v>44873.5625</v>
+        <v>44873.458333333336</v>
       </c>
       <c r="B77"/>
       <c r="C77"/>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="1">
-        <v>44873.572916666664</v>
+        <v>44873.46875</v>
       </c>
       <c r="B78"/>
       <c r="C78"/>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="1">
-        <v>44873.583333333336</v>
+        <v>44873.479166666664</v>
       </c>
       <c r="B79"/>
       <c r="C79"/>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="1">
-        <v>44873.59375</v>
+        <v>44873.489583333336</v>
       </c>
       <c r="B80"/>
       <c r="C80"/>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="1">
-        <v>44873.604166666664</v>
+        <v>44873.5</v>
       </c>
       <c r="B81"/>
       <c r="C81"/>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="1">
-        <v>44873.614583333336</v>
+        <v>44873.510416666664</v>
       </c>
       <c r="B82"/>
       <c r="C82"/>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="1">
-        <v>44873.625</v>
+        <v>44873.520833333336</v>
       </c>
       <c r="B83"/>
       <c r="C83"/>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="1">
-        <v>44873.635416666664</v>
+        <v>44873.53125</v>
       </c>
       <c r="B84"/>
       <c r="C84"/>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="1">
-        <v>44873.645833333336</v>
+        <v>44873.541666666664</v>
       </c>
       <c r="B85"/>
       <c r="C85"/>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="1">
-        <v>44873.65625</v>
+        <v>44873.552083333336</v>
       </c>
       <c r="B86"/>
       <c r="C86"/>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="1">
-        <v>44873.666666666664</v>
+        <v>44873.5625</v>
       </c>
       <c r="B87"/>
       <c r="C87"/>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="1">
-        <v>44873.677083333336</v>
+        <v>44873.572916666664</v>
       </c>
       <c r="B88"/>
       <c r="C88"/>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="1">
-        <v>44873.6875</v>
+        <v>44873.583333333336</v>
       </c>
       <c r="B89"/>
       <c r="C89"/>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="1">
-        <v>44873.697916666664</v>
+        <v>44873.59375</v>
       </c>
       <c r="B90"/>
       <c r="C90"/>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="1">
-        <v>44873.708333333336</v>
+        <v>44873.604166666664</v>
       </c>
       <c r="B91"/>
       <c r="C91"/>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="1">
-        <v>44873.71875</v>
+        <v>44873.614583333336</v>
       </c>
       <c r="B92"/>
       <c r="C92"/>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="1">
-        <v>44873.729166666664</v>
+        <v>44873.625</v>
       </c>
       <c r="B93"/>
       <c r="C93"/>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="1">
-        <v>44873.739583333336</v>
+        <v>44873.635416666664</v>
       </c>
       <c r="B94"/>
       <c r="C94"/>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="1">
-        <v>44873.75</v>
+        <v>44873.645833333336</v>
       </c>
       <c r="B95"/>
       <c r="C95"/>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="1">
-        <v>44873.760416666664</v>
+        <v>44873.65625</v>
       </c>
       <c r="B96"/>
       <c r="C96"/>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="1">
-        <v>44873.770833333336</v>
+        <v>44873.666666666664</v>
       </c>
       <c r="B97"/>
       <c r="C97"/>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="1">
-        <v>44873.78125</v>
+        <v>44873.677083333336</v>
       </c>
       <c r="B98"/>
       <c r="C98"/>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="1">
-        <v>44873.791666666664</v>
+        <v>44873.6875</v>
       </c>
       <c r="B99"/>
       <c r="C99"/>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="1">
-        <v>44873.802083333336</v>
+        <v>44873.697916666664</v>
       </c>
       <c r="B100"/>
       <c r="C100"/>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="1">
-        <v>44873.8125</v>
+        <v>44873.708333333336</v>
       </c>
       <c r="B101"/>
       <c r="C101"/>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="1">
-        <v>44873.822916666664</v>
+        <v>44873.71875</v>
       </c>
       <c r="B102"/>
       <c r="C102"/>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="1">
-        <v>44873.833333333336</v>
+        <v>44873.729166666664</v>
       </c>
       <c r="B103"/>
       <c r="C103"/>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="1">
-        <v>44873.84375</v>
+        <v>44873.739583333336</v>
       </c>
       <c r="B104"/>
       <c r="C104"/>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="1">
-        <v>44873.854166666664</v>
+        <v>44873.75</v>
       </c>
       <c r="B105"/>
       <c r="C105"/>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="1">
-        <v>44873.864583333336</v>
+        <v>44873.760416666664</v>
       </c>
       <c r="B106"/>
       <c r="C106"/>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="1">
-        <v>44873.875</v>
+        <v>44873.770833333336</v>
       </c>
       <c r="B107"/>
       <c r="C107"/>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="1">
-        <v>44873.885416666664</v>
+        <v>44873.78125</v>
       </c>
       <c r="B108"/>
       <c r="C108"/>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="1">
-        <v>44873.895833333336</v>
+        <v>44873.791666666664</v>
       </c>
       <c r="B109"/>
       <c r="C109"/>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="1">
-        <v>44873.90625</v>
+        <v>44873.802083333336</v>
       </c>
       <c r="B110"/>
       <c r="C110"/>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="1">
-        <v>44873.916666666664</v>
+        <v>44873.8125</v>
       </c>
       <c r="B111"/>
       <c r="C111"/>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="1">
-        <v>44873.927083333336</v>
+        <v>44873.822916666664</v>
       </c>
       <c r="B112"/>
       <c r="C112"/>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113" s="1">
-        <v>44873.9375</v>
+        <v>44873.833333333336</v>
       </c>
       <c r="B113"/>
       <c r="C113"/>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="1">
-        <v>44873.947916666664</v>
+        <v>44873.84375</v>
       </c>
       <c r="B114"/>
       <c r="C114"/>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="1">
-        <v>44873.958333333336</v>
+        <v>44873.854166666664</v>
       </c>
       <c r="B115"/>
       <c r="C115"/>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="1">
-        <v>44873.96875</v>
+        <v>44873.864583333336</v>
       </c>
       <c r="B116"/>
       <c r="C116"/>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="1">
-        <v>44873.979166666664</v>
+        <v>44873.875</v>
       </c>
       <c r="B117"/>
       <c r="C117"/>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="118" spans="1:18">
       <c r="A118" s="1">
-        <v>44873.989583333336</v>
+        <v>44873.885416666664</v>
       </c>
       <c r="B118"/>
       <c r="C118"/>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="119" spans="1:18">
       <c r="A119" s="1">
-        <v>44874.0</v>
+        <v>44873.895833333336</v>
       </c>
       <c r="B119"/>
       <c r="C119"/>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="120" spans="1:18">
       <c r="A120" s="1">
-        <v>44874.010416666664</v>
+        <v>44873.90625</v>
       </c>
       <c r="B120"/>
       <c r="C120"/>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="121" spans="1:18">
       <c r="A121" s="1">
-        <v>44874.020833333336</v>
+        <v>44873.916666666664</v>
       </c>
       <c r="B121"/>
       <c r="C121"/>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="1">
-        <v>44874.03125</v>
+        <v>44873.927083333336</v>
       </c>
       <c r="B122"/>
       <c r="C122"/>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="123" spans="1:18">
       <c r="A123" s="1">
-        <v>44874.041666666664</v>
+        <v>44873.9375</v>
       </c>
       <c r="B123"/>
       <c r="C123"/>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="1">
-        <v>44874.052083333336</v>
+        <v>44873.947916666664</v>
       </c>
       <c r="B124"/>
       <c r="C124"/>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="1">
-        <v>44874.0625</v>
+        <v>44873.958333333336</v>
       </c>
       <c r="B125"/>
       <c r="C125"/>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="1">
-        <v>44874.072916666664</v>
+        <v>44873.96875</v>
       </c>
       <c r="B126"/>
       <c r="C126"/>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="127" spans="1:18">
       <c r="A127" s="1">
-        <v>44874.083333333336</v>
+        <v>44873.979166666664</v>
       </c>
       <c r="B127"/>
       <c r="C127"/>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="1">
-        <v>44874.09375</v>
+        <v>44873.989583333336</v>
       </c>
       <c r="B128"/>
       <c r="C128"/>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="1">
-        <v>44874.104166666664</v>
+        <v>44874.0</v>
       </c>
       <c r="B129"/>
       <c r="C129"/>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="130" spans="1:18">
       <c r="A130" s="1">
-        <v>44874.114583333336</v>
+        <v>44874.010416666664</v>
       </c>
       <c r="B130"/>
       <c r="C130"/>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="131" spans="1:18">
       <c r="A131" s="1">
-        <v>44874.125</v>
+        <v>44874.020833333336</v>
       </c>
       <c r="B131"/>
       <c r="C131"/>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="132" spans="1:18">
       <c r="A132" s="1">
-        <v>44874.135416666664</v>
+        <v>44874.03125</v>
       </c>
       <c r="B132"/>
       <c r="C132"/>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="133" spans="1:18">
       <c r="A133" s="1">
-        <v>44874.145833333336</v>
+        <v>44874.041666666664</v>
       </c>
       <c r="B133"/>
       <c r="C133"/>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="134" spans="1:18">
       <c r="A134" s="1">
-        <v>44874.15625</v>
+        <v>44874.052083333336</v>
       </c>
       <c r="B134"/>
       <c r="C134"/>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="135" spans="1:18">
       <c r="A135" s="1">
-        <v>44874.166666666664</v>
+        <v>44874.0625</v>
       </c>
       <c r="B135"/>
       <c r="C135"/>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="136" spans="1:18">
       <c r="A136" s="1">
-        <v>44874.177083333336</v>
+        <v>44874.072916666664</v>
       </c>
       <c r="B136"/>
       <c r="C136"/>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="137" spans="1:18">
       <c r="A137" s="1">
-        <v>44874.1875</v>
+        <v>44874.083333333336</v>
       </c>
       <c r="B137"/>
       <c r="C137"/>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="138" spans="1:18">
       <c r="A138" s="1">
-        <v>44874.197916666664</v>
+        <v>44874.09375</v>
       </c>
       <c r="B138"/>
       <c r="C138"/>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="139" spans="1:18">
       <c r="A139" s="1">
-        <v>44874.208333333336</v>
+        <v>44874.104166666664</v>
       </c>
       <c r="B139"/>
       <c r="C139"/>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="140" spans="1:18">
       <c r="A140" s="1">
-        <v>44874.21875</v>
+        <v>44874.114583333336</v>
       </c>
       <c r="B140"/>
       <c r="C140"/>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="141" spans="1:18">
       <c r="A141" s="1">
-        <v>44874.229166666664</v>
+        <v>44874.125</v>
       </c>
       <c r="B141"/>
       <c r="C141"/>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="1">
-        <v>44874.239583333336</v>
+        <v>44874.135416666664</v>
       </c>
       <c r="B142"/>
       <c r="C142"/>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="143" spans="1:18">
       <c r="A143" s="1">
-        <v>44874.25</v>
+        <v>44874.145833333336</v>
       </c>
       <c r="B143"/>
       <c r="C143"/>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="144" spans="1:18">
       <c r="A144" s="1">
-        <v>44874.260416666664</v>
+        <v>44874.15625</v>
       </c>
       <c r="B144"/>
       <c r="C144"/>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="145" spans="1:18">
       <c r="A145" s="1">
-        <v>44874.270833333336</v>
+        <v>44874.166666666664</v>
       </c>
       <c r="B145"/>
       <c r="C145"/>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="1">
-        <v>44874.28125</v>
+        <v>44874.177083333336</v>
       </c>
       <c r="B146"/>
       <c r="C146"/>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="147" spans="1:18">
       <c r="A147" s="1">
-        <v>44874.291666666664</v>
+        <v>44874.1875</v>
       </c>
       <c r="B147"/>
       <c r="C147"/>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="1">
-        <v>44874.302083333336</v>
+        <v>44874.197916666664</v>
       </c>
       <c r="B148"/>
       <c r="C148"/>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="149" spans="1:18">
       <c r="A149" s="1">
-        <v>44874.3125</v>
+        <v>44874.208333333336</v>
       </c>
       <c r="B149"/>
       <c r="C149"/>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="150" spans="1:18">
       <c r="A150" s="1">
-        <v>44874.322916666664</v>
+        <v>44874.21875</v>
       </c>
       <c r="B150"/>
       <c r="C150"/>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="151" spans="1:18">
       <c r="A151" s="1">
-        <v>44874.333333333336</v>
+        <v>44874.229166666664</v>
       </c>
       <c r="B151"/>
       <c r="C151"/>
@@ -3857,6 +3857,226 @@
       <c r="Q151"/>
       <c r="R151"/>
     </row>
+    <row r="152" spans="1:18">
+      <c r="A152" s="1">
+        <v>44874.239583333336</v>
+      </c>
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
+      <c r="R152"/>
+    </row>
+    <row r="153" spans="1:18">
+      <c r="A153" s="1">
+        <v>44874.25</v>
+      </c>
+      <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153"/>
+      <c r="G153"/>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153"/>
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+      <c r="Q153"/>
+      <c r="R153"/>
+    </row>
+    <row r="154" spans="1:18">
+      <c r="A154" s="1">
+        <v>44874.260416666664</v>
+      </c>
+      <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+      <c r="Q154"/>
+      <c r="R154"/>
+    </row>
+    <row r="155" spans="1:18">
+      <c r="A155" s="1">
+        <v>44874.270833333336</v>
+      </c>
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+      <c r="Q155"/>
+      <c r="R155"/>
+    </row>
+    <row r="156" spans="1:18">
+      <c r="A156" s="1">
+        <v>44874.28125</v>
+      </c>
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+      <c r="Q156"/>
+      <c r="R156"/>
+    </row>
+    <row r="157" spans="1:18">
+      <c r="A157" s="1">
+        <v>44874.291666666664</v>
+      </c>
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
+      <c r="R157"/>
+    </row>
+    <row r="158" spans="1:18">
+      <c r="A158" s="1">
+        <v>44874.302083333336</v>
+      </c>
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158"/>
+      <c r="Q158"/>
+      <c r="R158"/>
+    </row>
+    <row r="159" spans="1:18">
+      <c r="A159" s="1">
+        <v>44874.3125</v>
+      </c>
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159"/>
+      <c r="G159"/>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+      <c r="K159"/>
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159"/>
+      <c r="P159"/>
+      <c r="Q159"/>
+      <c r="R159"/>
+    </row>
+    <row r="160" spans="1:18">
+      <c r="A160" s="1">
+        <v>44874.322916666664</v>
+      </c>
+      <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160"/>
+      <c r="K160"/>
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="O160"/>
+      <c r="P160"/>
+      <c r="Q160"/>
+      <c r="R160"/>
+    </row>
+    <row r="161" spans="1:18">
+      <c r="A161" s="1">
+        <v>44874.333333333336</v>
+      </c>
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+      <c r="K161"/>
+      <c r="L161"/>
+      <c r="M161"/>
+      <c r="N161"/>
+      <c r="O161"/>
+      <c r="P161"/>
+      <c r="Q161"/>
+      <c r="R161"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/必开燃机列表.xlsx
+++ b/assets/必开燃机列表.xlsx
@@ -431,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:R161"/>
+  <dimension ref="A1:R148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,7 +495,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1">
-        <v>44872.677083333336</v>
+        <v>44872.8125</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -517,7 +517,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
-        <v>44872.6875</v>
+        <v>44872.822916666664</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -539,7 +539,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
-        <v>44872.697916666664</v>
+        <v>44872.833333333336</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -561,7 +561,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
-        <v>44872.708333333336</v>
+        <v>44872.84375</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -583,7 +583,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
-        <v>44872.71875</v>
+        <v>44872.854166666664</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -605,7 +605,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
-        <v>44872.729166666664</v>
+        <v>44872.864583333336</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -627,7 +627,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
-        <v>44872.739583333336</v>
+        <v>44872.875</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -649,7 +649,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
-        <v>44872.75</v>
+        <v>44872.885416666664</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -671,7 +671,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
-        <v>44872.760416666664</v>
+        <v>44872.895833333336</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -693,7 +693,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
-        <v>44872.770833333336</v>
+        <v>44872.90625</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -715,7 +715,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
-        <v>44872.78125</v>
+        <v>44872.916666666664</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -737,7 +737,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
-        <v>44872.791666666664</v>
+        <v>44872.927083333336</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -759,7 +759,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1">
-        <v>44872.802083333336</v>
+        <v>44872.9375</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -781,7 +781,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1">
-        <v>44872.8125</v>
+        <v>44872.947916666664</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -803,7 +803,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1">
-        <v>44872.822916666664</v>
+        <v>44872.958333333336</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -825,7 +825,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1">
-        <v>44872.833333333336</v>
+        <v>44872.96875</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -847,7 +847,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1">
-        <v>44872.84375</v>
+        <v>44872.979166666664</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -869,7 +869,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1">
-        <v>44872.854166666664</v>
+        <v>44872.989583333336</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -891,7 +891,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1">
-        <v>44872.864583333336</v>
+        <v>44873.0</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -913,7 +913,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1">
-        <v>44872.875</v>
+        <v>44873.010416666664</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -922,7 +922,9 @@
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21"/>
+      <c r="I21">
+        <v>1</v>
+      </c>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
@@ -935,7 +937,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1">
-        <v>44872.885416666664</v>
+        <v>44873.020833333336</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -944,7 +946,9 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="I22"/>
+      <c r="I22">
+        <v>1</v>
+      </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
@@ -957,7 +961,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1">
-        <v>44872.895833333336</v>
+        <v>44873.03125</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -966,7 +970,9 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="I23"/>
+      <c r="I23">
+        <v>1</v>
+      </c>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
@@ -979,7 +985,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1">
-        <v>44872.90625</v>
+        <v>44873.041666666664</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -988,7 +994,9 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="I24"/>
+      <c r="I24">
+        <v>1</v>
+      </c>
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
@@ -1001,7 +1009,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1">
-        <v>44872.916666666664</v>
+        <v>44873.052083333336</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -1010,7 +1018,9 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="I25"/>
+      <c r="I25">
+        <v>1</v>
+      </c>
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
@@ -1023,7 +1033,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1">
-        <v>44872.927083333336</v>
+        <v>44873.0625</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -1032,7 +1042,9 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="I26"/>
+      <c r="I26">
+        <v>1</v>
+      </c>
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
@@ -1045,7 +1057,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1">
-        <v>44872.9375</v>
+        <v>44873.072916666664</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -1054,7 +1066,9 @@
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="I27"/>
+      <c r="I27">
+        <v>1</v>
+      </c>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
@@ -1067,7 +1081,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1">
-        <v>44872.947916666664</v>
+        <v>44873.083333333336</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -1076,7 +1090,9 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="I28"/>
+      <c r="I28">
+        <v>1</v>
+      </c>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
@@ -1089,7 +1105,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1">
-        <v>44872.958333333336</v>
+        <v>44873.09375</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -1098,7 +1114,9 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="I29"/>
+      <c r="I29">
+        <v>1</v>
+      </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
@@ -1111,7 +1129,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="1">
-        <v>44872.96875</v>
+        <v>44873.104166666664</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -1120,7 +1138,9 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="I30"/>
+      <c r="I30">
+        <v>1</v>
+      </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
@@ -1133,7 +1153,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1">
-        <v>44872.979166666664</v>
+        <v>44873.114583333336</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -1142,7 +1162,9 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="I31"/>
+      <c r="I31">
+        <v>1</v>
+      </c>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
@@ -1155,7 +1177,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="1">
-        <v>44872.989583333336</v>
+        <v>44873.125</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -1164,7 +1186,9 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="I32"/>
+      <c r="I32">
+        <v>1</v>
+      </c>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
@@ -1177,7 +1201,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="1">
-        <v>44873.0</v>
+        <v>44873.135416666664</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -1186,7 +1210,9 @@
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
-      <c r="I33"/>
+      <c r="I33">
+        <v>1</v>
+      </c>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
@@ -1199,7 +1225,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="1">
-        <v>44873.010416666664</v>
+        <v>44873.145833333336</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -1223,7 +1249,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="1">
-        <v>44873.020833333336</v>
+        <v>44873.15625</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
@@ -1247,7 +1273,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="1">
-        <v>44873.03125</v>
+        <v>44873.166666666664</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
@@ -1271,7 +1297,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="1">
-        <v>44873.041666666664</v>
+        <v>44873.177083333336</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
@@ -1295,7 +1321,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="1">
-        <v>44873.052083333336</v>
+        <v>44873.1875</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
@@ -1319,7 +1345,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="1">
-        <v>44873.0625</v>
+        <v>44873.197916666664</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
@@ -1343,7 +1369,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="1">
-        <v>44873.072916666664</v>
+        <v>44873.208333333336</v>
       </c>
       <c r="B40"/>
       <c r="C40"/>
@@ -1367,7 +1393,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="1">
-        <v>44873.083333333336</v>
+        <v>44873.21875</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
@@ -1391,7 +1417,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="1">
-        <v>44873.09375</v>
+        <v>44873.229166666664</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
@@ -1415,7 +1441,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="1">
-        <v>44873.104166666664</v>
+        <v>44873.239583333336</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
@@ -1439,7 +1465,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="1">
-        <v>44873.114583333336</v>
+        <v>44873.25</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
@@ -1463,7 +1489,7 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="1">
-        <v>44873.125</v>
+        <v>44873.260416666664</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -1487,7 +1513,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="1">
-        <v>44873.135416666664</v>
+        <v>44873.270833333336</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
@@ -1511,7 +1537,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="1">
-        <v>44873.145833333336</v>
+        <v>44873.28125</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -1535,7 +1561,7 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="1">
-        <v>44873.15625</v>
+        <v>44873.291666666664</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
@@ -1559,7 +1585,7 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="1">
-        <v>44873.166666666664</v>
+        <v>44873.302083333336</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
@@ -1583,7 +1609,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="1">
-        <v>44873.177083333336</v>
+        <v>44873.3125</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
@@ -1607,7 +1633,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="1">
-        <v>44873.1875</v>
+        <v>44873.322916666664</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
@@ -1631,7 +1657,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="1">
-        <v>44873.197916666664</v>
+        <v>44873.333333333336</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
@@ -1655,7 +1681,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="1">
-        <v>44873.208333333336</v>
+        <v>44873.34375</v>
       </c>
       <c r="B53"/>
       <c r="C53"/>
@@ -1664,9 +1690,7 @@
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
-      <c r="I53">
-        <v>1</v>
-      </c>
+      <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
@@ -1679,7 +1703,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="1">
-        <v>44873.21875</v>
+        <v>44873.354166666664</v>
       </c>
       <c r="B54"/>
       <c r="C54"/>
@@ -1688,9 +1712,7 @@
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
-      <c r="I54">
-        <v>1</v>
-      </c>
+      <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
@@ -1703,7 +1725,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="1">
-        <v>44873.229166666664</v>
+        <v>44873.364583333336</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
@@ -1712,9 +1734,7 @@
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
-      <c r="I55">
-        <v>1</v>
-      </c>
+      <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
@@ -1727,7 +1747,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="1">
-        <v>44873.239583333336</v>
+        <v>44873.375</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
@@ -1736,9 +1756,7 @@
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
-      <c r="I56">
-        <v>1</v>
-      </c>
+      <c r="I56"/>
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
@@ -1751,7 +1769,7 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="1">
-        <v>44873.25</v>
+        <v>44873.385416666664</v>
       </c>
       <c r="B57"/>
       <c r="C57"/>
@@ -1760,9 +1778,7 @@
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57"/>
-      <c r="I57">
-        <v>1</v>
-      </c>
+      <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
@@ -1775,7 +1791,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="1">
-        <v>44873.260416666664</v>
+        <v>44873.395833333336</v>
       </c>
       <c r="B58"/>
       <c r="C58"/>
@@ -1784,9 +1800,7 @@
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58"/>
-      <c r="I58">
-        <v>1</v>
-      </c>
+      <c r="I58"/>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
@@ -1799,7 +1813,7 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="1">
-        <v>44873.270833333336</v>
+        <v>44873.40625</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
@@ -1808,9 +1822,7 @@
       <c r="F59"/>
       <c r="G59"/>
       <c r="H59"/>
-      <c r="I59">
-        <v>1</v>
-      </c>
+      <c r="I59"/>
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
@@ -1823,7 +1835,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="1">
-        <v>44873.28125</v>
+        <v>44873.416666666664</v>
       </c>
       <c r="B60"/>
       <c r="C60"/>
@@ -1832,9 +1844,7 @@
       <c r="F60"/>
       <c r="G60"/>
       <c r="H60"/>
-      <c r="I60">
-        <v>1</v>
-      </c>
+      <c r="I60"/>
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
@@ -1847,7 +1857,7 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="1">
-        <v>44873.291666666664</v>
+        <v>44873.427083333336</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
@@ -1856,9 +1866,7 @@
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
-      <c r="I61">
-        <v>1</v>
-      </c>
+      <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
@@ -1871,7 +1879,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="1">
-        <v>44873.302083333336</v>
+        <v>44873.4375</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
@@ -1880,9 +1888,7 @@
       <c r="F62"/>
       <c r="G62"/>
       <c r="H62"/>
-      <c r="I62">
-        <v>1</v>
-      </c>
+      <c r="I62"/>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
@@ -1895,7 +1901,7 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="1">
-        <v>44873.3125</v>
+        <v>44873.447916666664</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
@@ -1904,9 +1910,7 @@
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
-      <c r="I63">
-        <v>1</v>
-      </c>
+      <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
@@ -1919,7 +1923,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="1">
-        <v>44873.322916666664</v>
+        <v>44873.458333333336</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
@@ -1928,9 +1932,7 @@
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
-      <c r="I64">
-        <v>1</v>
-      </c>
+      <c r="I64"/>
       <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
@@ -1943,7 +1945,7 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="1">
-        <v>44873.333333333336</v>
+        <v>44873.46875</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
@@ -1952,9 +1954,7 @@
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
-      <c r="I65">
-        <v>1</v>
-      </c>
+      <c r="I65"/>
       <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="1">
-        <v>44873.34375</v>
+        <v>44873.479166666664</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="1">
-        <v>44873.354166666664</v>
+        <v>44873.489583333336</v>
       </c>
       <c r="B67"/>
       <c r="C67"/>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="1">
-        <v>44873.364583333336</v>
+        <v>44873.5</v>
       </c>
       <c r="B68"/>
       <c r="C68"/>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="1">
-        <v>44873.375</v>
+        <v>44873.510416666664</v>
       </c>
       <c r="B69"/>
       <c r="C69"/>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="1">
-        <v>44873.385416666664</v>
+        <v>44873.520833333336</v>
       </c>
       <c r="B70"/>
       <c r="C70"/>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="1">
-        <v>44873.395833333336</v>
+        <v>44873.53125</v>
       </c>
       <c r="B71"/>
       <c r="C71"/>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="1">
-        <v>44873.40625</v>
+        <v>44873.541666666664</v>
       </c>
       <c r="B72"/>
       <c r="C72"/>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="1">
-        <v>44873.416666666664</v>
+        <v>44873.552083333336</v>
       </c>
       <c r="B73"/>
       <c r="C73"/>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="1">
-        <v>44873.427083333336</v>
+        <v>44873.5625</v>
       </c>
       <c r="B74"/>
       <c r="C74"/>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="1">
-        <v>44873.4375</v>
+        <v>44873.572916666664</v>
       </c>
       <c r="B75"/>
       <c r="C75"/>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="1">
-        <v>44873.447916666664</v>
+        <v>44873.583333333336</v>
       </c>
       <c r="B76"/>
       <c r="C76"/>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="1">
-        <v>44873.458333333336</v>
+        <v>44873.59375</v>
       </c>
       <c r="B77"/>
       <c r="C77"/>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="1">
-        <v>44873.46875</v>
+        <v>44873.604166666664</v>
       </c>
       <c r="B78"/>
       <c r="C78"/>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="1">
-        <v>44873.479166666664</v>
+        <v>44873.614583333336</v>
       </c>
       <c r="B79"/>
       <c r="C79"/>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="1">
-        <v>44873.489583333336</v>
+        <v>44873.625</v>
       </c>
       <c r="B80"/>
       <c r="C80"/>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="1">
-        <v>44873.5</v>
+        <v>44873.635416666664</v>
       </c>
       <c r="B81"/>
       <c r="C81"/>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="1">
-        <v>44873.510416666664</v>
+        <v>44873.645833333336</v>
       </c>
       <c r="B82"/>
       <c r="C82"/>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="1">
-        <v>44873.520833333336</v>
+        <v>44873.65625</v>
       </c>
       <c r="B83"/>
       <c r="C83"/>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="1">
-        <v>44873.53125</v>
+        <v>44873.666666666664</v>
       </c>
       <c r="B84"/>
       <c r="C84"/>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="1">
-        <v>44873.541666666664</v>
+        <v>44873.677083333336</v>
       </c>
       <c r="B85"/>
       <c r="C85"/>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="1">
-        <v>44873.552083333336</v>
+        <v>44873.6875</v>
       </c>
       <c r="B86"/>
       <c r="C86"/>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="1">
-        <v>44873.5625</v>
+        <v>44873.697916666664</v>
       </c>
       <c r="B87"/>
       <c r="C87"/>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="1">
-        <v>44873.572916666664</v>
+        <v>44873.708333333336</v>
       </c>
       <c r="B88"/>
       <c r="C88"/>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="1">
-        <v>44873.583333333336</v>
+        <v>44873.71875</v>
       </c>
       <c r="B89"/>
       <c r="C89"/>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="1">
-        <v>44873.59375</v>
+        <v>44873.729166666664</v>
       </c>
       <c r="B90"/>
       <c r="C90"/>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="1">
-        <v>44873.604166666664</v>
+        <v>44873.739583333336</v>
       </c>
       <c r="B91"/>
       <c r="C91"/>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="1">
-        <v>44873.614583333336</v>
+        <v>44873.75</v>
       </c>
       <c r="B92"/>
       <c r="C92"/>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="1">
-        <v>44873.625</v>
+        <v>44873.760416666664</v>
       </c>
       <c r="B93"/>
       <c r="C93"/>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="1">
-        <v>44873.635416666664</v>
+        <v>44873.770833333336</v>
       </c>
       <c r="B94"/>
       <c r="C94"/>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="1">
-        <v>44873.645833333336</v>
+        <v>44873.78125</v>
       </c>
       <c r="B95"/>
       <c r="C95"/>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="1">
-        <v>44873.65625</v>
+        <v>44873.791666666664</v>
       </c>
       <c r="B96"/>
       <c r="C96"/>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="1">
-        <v>44873.666666666664</v>
+        <v>44873.802083333336</v>
       </c>
       <c r="B97"/>
       <c r="C97"/>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="1">
-        <v>44873.677083333336</v>
+        <v>44873.8125</v>
       </c>
       <c r="B98"/>
       <c r="C98"/>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="1">
-        <v>44873.6875</v>
+        <v>44873.822916666664</v>
       </c>
       <c r="B99"/>
       <c r="C99"/>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="1">
-        <v>44873.697916666664</v>
+        <v>44873.833333333336</v>
       </c>
       <c r="B100"/>
       <c r="C100"/>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="1">
-        <v>44873.708333333336</v>
+        <v>44873.84375</v>
       </c>
       <c r="B101"/>
       <c r="C101"/>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="1">
-        <v>44873.71875</v>
+        <v>44873.854166666664</v>
       </c>
       <c r="B102"/>
       <c r="C102"/>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="1">
-        <v>44873.729166666664</v>
+        <v>44873.864583333336</v>
       </c>
       <c r="B103"/>
       <c r="C103"/>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="1">
-        <v>44873.739583333336</v>
+        <v>44873.875</v>
       </c>
       <c r="B104"/>
       <c r="C104"/>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="1">
-        <v>44873.75</v>
+        <v>44873.885416666664</v>
       </c>
       <c r="B105"/>
       <c r="C105"/>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="1">
-        <v>44873.760416666664</v>
+        <v>44873.895833333336</v>
       </c>
       <c r="B106"/>
       <c r="C106"/>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="1">
-        <v>44873.770833333336</v>
+        <v>44873.90625</v>
       </c>
       <c r="B107"/>
       <c r="C107"/>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="1">
-        <v>44873.78125</v>
+        <v>44873.916666666664</v>
       </c>
       <c r="B108"/>
       <c r="C108"/>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="1">
-        <v>44873.791666666664</v>
+        <v>44873.927083333336</v>
       </c>
       <c r="B109"/>
       <c r="C109"/>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="1">
-        <v>44873.802083333336</v>
+        <v>44873.9375</v>
       </c>
       <c r="B110"/>
       <c r="C110"/>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="1">
-        <v>44873.8125</v>
+        <v>44873.947916666664</v>
       </c>
       <c r="B111"/>
       <c r="C111"/>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="1">
-        <v>44873.822916666664</v>
+        <v>44873.958333333336</v>
       </c>
       <c r="B112"/>
       <c r="C112"/>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113" s="1">
-        <v>44873.833333333336</v>
+        <v>44873.96875</v>
       </c>
       <c r="B113"/>
       <c r="C113"/>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="1">
-        <v>44873.84375</v>
+        <v>44873.979166666664</v>
       </c>
       <c r="B114"/>
       <c r="C114"/>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="1">
-        <v>44873.854166666664</v>
+        <v>44873.989583333336</v>
       </c>
       <c r="B115"/>
       <c r="C115"/>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="1">
-        <v>44873.864583333336</v>
+        <v>44874.0</v>
       </c>
       <c r="B116"/>
       <c r="C116"/>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="1">
-        <v>44873.875</v>
+        <v>44874.010416666664</v>
       </c>
       <c r="B117"/>
       <c r="C117"/>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="118" spans="1:18">
       <c r="A118" s="1">
-        <v>44873.885416666664</v>
+        <v>44874.020833333336</v>
       </c>
       <c r="B118"/>
       <c r="C118"/>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="119" spans="1:18">
       <c r="A119" s="1">
-        <v>44873.895833333336</v>
+        <v>44874.03125</v>
       </c>
       <c r="B119"/>
       <c r="C119"/>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="120" spans="1:18">
       <c r="A120" s="1">
-        <v>44873.90625</v>
+        <v>44874.041666666664</v>
       </c>
       <c r="B120"/>
       <c r="C120"/>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="121" spans="1:18">
       <c r="A121" s="1">
-        <v>44873.916666666664</v>
+        <v>44874.052083333336</v>
       </c>
       <c r="B121"/>
       <c r="C121"/>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="1">
-        <v>44873.927083333336</v>
+        <v>44874.0625</v>
       </c>
       <c r="B122"/>
       <c r="C122"/>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="123" spans="1:18">
       <c r="A123" s="1">
-        <v>44873.9375</v>
+        <v>44874.072916666664</v>
       </c>
       <c r="B123"/>
       <c r="C123"/>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="1">
-        <v>44873.947916666664</v>
+        <v>44874.083333333336</v>
       </c>
       <c r="B124"/>
       <c r="C124"/>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="1">
-        <v>44873.958333333336</v>
+        <v>44874.09375</v>
       </c>
       <c r="B125"/>
       <c r="C125"/>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="1">
-        <v>44873.96875</v>
+        <v>44874.104166666664</v>
       </c>
       <c r="B126"/>
       <c r="C126"/>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="127" spans="1:18">
       <c r="A127" s="1">
-        <v>44873.979166666664</v>
+        <v>44874.114583333336</v>
       </c>
       <c r="B127"/>
       <c r="C127"/>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="1">
-        <v>44873.989583333336</v>
+        <v>44874.125</v>
       </c>
       <c r="B128"/>
       <c r="C128"/>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="1">
-        <v>44874.0</v>
+        <v>44874.135416666664</v>
       </c>
       <c r="B129"/>
       <c r="C129"/>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="130" spans="1:18">
       <c r="A130" s="1">
-        <v>44874.010416666664</v>
+        <v>44874.145833333336</v>
       </c>
       <c r="B130"/>
       <c r="C130"/>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="131" spans="1:18">
       <c r="A131" s="1">
-        <v>44874.020833333336</v>
+        <v>44874.15625</v>
       </c>
       <c r="B131"/>
       <c r="C131"/>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="132" spans="1:18">
       <c r="A132" s="1">
-        <v>44874.03125</v>
+        <v>44874.166666666664</v>
       </c>
       <c r="B132"/>
       <c r="C132"/>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="133" spans="1:18">
       <c r="A133" s="1">
-        <v>44874.041666666664</v>
+        <v>44874.177083333336</v>
       </c>
       <c r="B133"/>
       <c r="C133"/>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="134" spans="1:18">
       <c r="A134" s="1">
-        <v>44874.052083333336</v>
+        <v>44874.1875</v>
       </c>
       <c r="B134"/>
       <c r="C134"/>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="135" spans="1:18">
       <c r="A135" s="1">
-        <v>44874.0625</v>
+        <v>44874.197916666664</v>
       </c>
       <c r="B135"/>
       <c r="C135"/>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="136" spans="1:18">
       <c r="A136" s="1">
-        <v>44874.072916666664</v>
+        <v>44874.208333333336</v>
       </c>
       <c r="B136"/>
       <c r="C136"/>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="137" spans="1:18">
       <c r="A137" s="1">
-        <v>44874.083333333336</v>
+        <v>44874.21875</v>
       </c>
       <c r="B137"/>
       <c r="C137"/>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="138" spans="1:18">
       <c r="A138" s="1">
-        <v>44874.09375</v>
+        <v>44874.229166666664</v>
       </c>
       <c r="B138"/>
       <c r="C138"/>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="139" spans="1:18">
       <c r="A139" s="1">
-        <v>44874.104166666664</v>
+        <v>44874.239583333336</v>
       </c>
       <c r="B139"/>
       <c r="C139"/>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="140" spans="1:18">
       <c r="A140" s="1">
-        <v>44874.114583333336</v>
+        <v>44874.25</v>
       </c>
       <c r="B140"/>
       <c r="C140"/>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="141" spans="1:18">
       <c r="A141" s="1">
-        <v>44874.125</v>
+        <v>44874.260416666664</v>
       </c>
       <c r="B141"/>
       <c r="C141"/>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="1">
-        <v>44874.135416666664</v>
+        <v>44874.270833333336</v>
       </c>
       <c r="B142"/>
       <c r="C142"/>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="143" spans="1:18">
       <c r="A143" s="1">
-        <v>44874.145833333336</v>
+        <v>44874.28125</v>
       </c>
       <c r="B143"/>
       <c r="C143"/>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="144" spans="1:18">
       <c r="A144" s="1">
-        <v>44874.15625</v>
+        <v>44874.291666666664</v>
       </c>
       <c r="B144"/>
       <c r="C144"/>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="145" spans="1:18">
       <c r="A145" s="1">
-        <v>44874.166666666664</v>
+        <v>44874.302083333336</v>
       </c>
       <c r="B145"/>
       <c r="C145"/>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="1">
-        <v>44874.177083333336</v>
+        <v>44874.3125</v>
       </c>
       <c r="B146"/>
       <c r="C146"/>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="147" spans="1:18">
       <c r="A147" s="1">
-        <v>44874.1875</v>
+        <v>44874.322916666664</v>
       </c>
       <c r="B147"/>
       <c r="C147"/>
@@ -3771,7 +3771,7 @@
     </row>
     <row r="148" spans="1:18">
       <c r="A148" s="1">
-        <v>44874.197916666664</v>
+        <v>44874.333333333336</v>
       </c>
       <c r="B148"/>
       <c r="C148"/>
@@ -3791,292 +3791,6 @@
       <c r="Q148"/>
       <c r="R148"/>
     </row>
-    <row r="149" spans="1:18">
-      <c r="A149" s="1">
-        <v>44874.208333333336</v>
-      </c>
-      <c r="B149"/>
-      <c r="C149"/>
-      <c r="D149"/>
-      <c r="E149"/>
-      <c r="F149"/>
-      <c r="G149"/>
-      <c r="H149"/>
-      <c r="I149"/>
-      <c r="J149"/>
-      <c r="K149"/>
-      <c r="L149"/>
-      <c r="M149"/>
-      <c r="N149"/>
-      <c r="O149"/>
-      <c r="P149"/>
-      <c r="Q149"/>
-      <c r="R149"/>
-    </row>
-    <row r="150" spans="1:18">
-      <c r="A150" s="1">
-        <v>44874.21875</v>
-      </c>
-      <c r="B150"/>
-      <c r="C150"/>
-      <c r="D150"/>
-      <c r="E150"/>
-      <c r="F150"/>
-      <c r="G150"/>
-      <c r="H150"/>
-      <c r="I150"/>
-      <c r="J150"/>
-      <c r="K150"/>
-      <c r="L150"/>
-      <c r="M150"/>
-      <c r="N150"/>
-      <c r="O150"/>
-      <c r="P150"/>
-      <c r="Q150"/>
-      <c r="R150"/>
-    </row>
-    <row r="151" spans="1:18">
-      <c r="A151" s="1">
-        <v>44874.229166666664</v>
-      </c>
-      <c r="B151"/>
-      <c r="C151"/>
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="F151"/>
-      <c r="G151"/>
-      <c r="H151"/>
-      <c r="I151"/>
-      <c r="J151"/>
-      <c r="K151"/>
-      <c r="L151"/>
-      <c r="M151"/>
-      <c r="N151"/>
-      <c r="O151"/>
-      <c r="P151"/>
-      <c r="Q151"/>
-      <c r="R151"/>
-    </row>
-    <row r="152" spans="1:18">
-      <c r="A152" s="1">
-        <v>44874.239583333336</v>
-      </c>
-      <c r="B152"/>
-      <c r="C152"/>
-      <c r="D152"/>
-      <c r="E152"/>
-      <c r="F152"/>
-      <c r="G152"/>
-      <c r="H152"/>
-      <c r="I152"/>
-      <c r="J152"/>
-      <c r="K152"/>
-      <c r="L152"/>
-      <c r="M152"/>
-      <c r="N152"/>
-      <c r="O152"/>
-      <c r="P152"/>
-      <c r="Q152"/>
-      <c r="R152"/>
-    </row>
-    <row r="153" spans="1:18">
-      <c r="A153" s="1">
-        <v>44874.25</v>
-      </c>
-      <c r="B153"/>
-      <c r="C153"/>
-      <c r="D153"/>
-      <c r="E153"/>
-      <c r="F153"/>
-      <c r="G153"/>
-      <c r="H153"/>
-      <c r="I153"/>
-      <c r="J153"/>
-      <c r="K153"/>
-      <c r="L153"/>
-      <c r="M153"/>
-      <c r="N153"/>
-      <c r="O153"/>
-      <c r="P153"/>
-      <c r="Q153"/>
-      <c r="R153"/>
-    </row>
-    <row r="154" spans="1:18">
-      <c r="A154" s="1">
-        <v>44874.260416666664</v>
-      </c>
-      <c r="B154"/>
-      <c r="C154"/>
-      <c r="D154"/>
-      <c r="E154"/>
-      <c r="F154"/>
-      <c r="G154"/>
-      <c r="H154"/>
-      <c r="I154"/>
-      <c r="J154"/>
-      <c r="K154"/>
-      <c r="L154"/>
-      <c r="M154"/>
-      <c r="N154"/>
-      <c r="O154"/>
-      <c r="P154"/>
-      <c r="Q154"/>
-      <c r="R154"/>
-    </row>
-    <row r="155" spans="1:18">
-      <c r="A155" s="1">
-        <v>44874.270833333336</v>
-      </c>
-      <c r="B155"/>
-      <c r="C155"/>
-      <c r="D155"/>
-      <c r="E155"/>
-      <c r="F155"/>
-      <c r="G155"/>
-      <c r="H155"/>
-      <c r="I155"/>
-      <c r="J155"/>
-      <c r="K155"/>
-      <c r="L155"/>
-      <c r="M155"/>
-      <c r="N155"/>
-      <c r="O155"/>
-      <c r="P155"/>
-      <c r="Q155"/>
-      <c r="R155"/>
-    </row>
-    <row r="156" spans="1:18">
-      <c r="A156" s="1">
-        <v>44874.28125</v>
-      </c>
-      <c r="B156"/>
-      <c r="C156"/>
-      <c r="D156"/>
-      <c r="E156"/>
-      <c r="F156"/>
-      <c r="G156"/>
-      <c r="H156"/>
-      <c r="I156"/>
-      <c r="J156"/>
-      <c r="K156"/>
-      <c r="L156"/>
-      <c r="M156"/>
-      <c r="N156"/>
-      <c r="O156"/>
-      <c r="P156"/>
-      <c r="Q156"/>
-      <c r="R156"/>
-    </row>
-    <row r="157" spans="1:18">
-      <c r="A157" s="1">
-        <v>44874.291666666664</v>
-      </c>
-      <c r="B157"/>
-      <c r="C157"/>
-      <c r="D157"/>
-      <c r="E157"/>
-      <c r="F157"/>
-      <c r="G157"/>
-      <c r="H157"/>
-      <c r="I157"/>
-      <c r="J157"/>
-      <c r="K157"/>
-      <c r="L157"/>
-      <c r="M157"/>
-      <c r="N157"/>
-      <c r="O157"/>
-      <c r="P157"/>
-      <c r="Q157"/>
-      <c r="R157"/>
-    </row>
-    <row r="158" spans="1:18">
-      <c r="A158" s="1">
-        <v>44874.302083333336</v>
-      </c>
-      <c r="B158"/>
-      <c r="C158"/>
-      <c r="D158"/>
-      <c r="E158"/>
-      <c r="F158"/>
-      <c r="G158"/>
-      <c r="H158"/>
-      <c r="I158"/>
-      <c r="J158"/>
-      <c r="K158"/>
-      <c r="L158"/>
-      <c r="M158"/>
-      <c r="N158"/>
-      <c r="O158"/>
-      <c r="P158"/>
-      <c r="Q158"/>
-      <c r="R158"/>
-    </row>
-    <row r="159" spans="1:18">
-      <c r="A159" s="1">
-        <v>44874.3125</v>
-      </c>
-      <c r="B159"/>
-      <c r="C159"/>
-      <c r="D159"/>
-      <c r="E159"/>
-      <c r="F159"/>
-      <c r="G159"/>
-      <c r="H159"/>
-      <c r="I159"/>
-      <c r="J159"/>
-      <c r="K159"/>
-      <c r="L159"/>
-      <c r="M159"/>
-      <c r="N159"/>
-      <c r="O159"/>
-      <c r="P159"/>
-      <c r="Q159"/>
-      <c r="R159"/>
-    </row>
-    <row r="160" spans="1:18">
-      <c r="A160" s="1">
-        <v>44874.322916666664</v>
-      </c>
-      <c r="B160"/>
-      <c r="C160"/>
-      <c r="D160"/>
-      <c r="E160"/>
-      <c r="F160"/>
-      <c r="G160"/>
-      <c r="H160"/>
-      <c r="I160"/>
-      <c r="J160"/>
-      <c r="K160"/>
-      <c r="L160"/>
-      <c r="M160"/>
-      <c r="N160"/>
-      <c r="O160"/>
-      <c r="P160"/>
-      <c r="Q160"/>
-      <c r="R160"/>
-    </row>
-    <row r="161" spans="1:18">
-      <c r="A161" s="1">
-        <v>44874.333333333336</v>
-      </c>
-      <c r="B161"/>
-      <c r="C161"/>
-      <c r="D161"/>
-      <c r="E161"/>
-      <c r="F161"/>
-      <c r="G161"/>
-      <c r="H161"/>
-      <c r="I161"/>
-      <c r="J161"/>
-      <c r="K161"/>
-      <c r="L161"/>
-      <c r="M161"/>
-      <c r="N161"/>
-      <c r="O161"/>
-      <c r="P161"/>
-      <c r="Q161"/>
-      <c r="R161"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/必开燃机列表.xlsx
+++ b/assets/必开燃机列表.xlsx
@@ -431,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:R148"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,7 +495,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1">
-        <v>44872.8125</v>
+        <v>44872.989583333336</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -517,7 +517,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
-        <v>44872.822916666664</v>
+        <v>44873.0</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -539,7 +539,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
-        <v>44872.833333333336</v>
+        <v>44873.010416666664</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -548,7 +548,9 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4"/>
+      <c r="I4">
+        <v>1</v>
+      </c>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -561,7 +563,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
-        <v>44872.84375</v>
+        <v>44873.020833333336</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -570,7 +572,9 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5"/>
+      <c r="I5">
+        <v>1</v>
+      </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -583,7 +587,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
-        <v>44872.854166666664</v>
+        <v>44873.03125</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -592,7 +596,9 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6"/>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -605,7 +611,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
-        <v>44872.864583333336</v>
+        <v>44873.041666666664</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -614,7 +620,9 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7"/>
+      <c r="I7">
+        <v>1</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -627,7 +635,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
-        <v>44872.875</v>
+        <v>44873.052083333336</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -636,7 +644,9 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8"/>
+      <c r="I8">
+        <v>1</v>
+      </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
@@ -649,7 +659,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
-        <v>44872.885416666664</v>
+        <v>44873.0625</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -658,7 +668,9 @@
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="I9"/>
+      <c r="I9">
+        <v>1</v>
+      </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -671,7 +683,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
-        <v>44872.895833333336</v>
+        <v>44873.072916666664</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -680,7 +692,9 @@
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="I10"/>
+      <c r="I10">
+        <v>1</v>
+      </c>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
@@ -693,7 +707,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
-        <v>44872.90625</v>
+        <v>44873.083333333336</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -702,7 +716,9 @@
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="I11"/>
+      <c r="I11">
+        <v>1</v>
+      </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
@@ -715,7 +731,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
-        <v>44872.916666666664</v>
+        <v>44873.09375</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -724,7 +740,9 @@
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
-      <c r="I12"/>
+      <c r="I12">
+        <v>1</v>
+      </c>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
@@ -737,7 +755,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
-        <v>44872.927083333336</v>
+        <v>44873.104166666664</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -746,7 +764,9 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="I13"/>
+      <c r="I13">
+        <v>1</v>
+      </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
@@ -759,7 +779,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1">
-        <v>44872.9375</v>
+        <v>44873.114583333336</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -768,7 +788,9 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="I14"/>
+      <c r="I14">
+        <v>1</v>
+      </c>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
@@ -781,7 +803,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1">
-        <v>44872.947916666664</v>
+        <v>44873.125</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -790,7 +812,9 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="I15"/>
+      <c r="I15">
+        <v>1</v>
+      </c>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
@@ -803,7 +827,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1">
-        <v>44872.958333333336</v>
+        <v>44873.135416666664</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -812,7 +836,9 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16"/>
+      <c r="I16">
+        <v>1</v>
+      </c>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -825,7 +851,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="1">
-        <v>44872.96875</v>
+        <v>44873.145833333336</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -834,7 +860,9 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17"/>
+      <c r="I17">
+        <v>1</v>
+      </c>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -847,7 +875,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="1">
-        <v>44872.979166666664</v>
+        <v>44873.15625</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -856,7 +884,9 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18"/>
+      <c r="I18">
+        <v>1</v>
+      </c>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -869,7 +899,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1">
-        <v>44872.989583333336</v>
+        <v>44873.166666666664</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -878,7 +908,9 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19"/>
+      <c r="I19">
+        <v>1</v>
+      </c>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
@@ -891,7 +923,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1">
-        <v>44873.0</v>
+        <v>44873.177083333336</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -900,7 +932,9 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="I20"/>
+      <c r="I20">
+        <v>1</v>
+      </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -913,7 +947,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1">
-        <v>44873.010416666664</v>
+        <v>44873.1875</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -937,7 +971,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1">
-        <v>44873.020833333336</v>
+        <v>44873.197916666664</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -961,7 +995,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1">
-        <v>44873.03125</v>
+        <v>44873.208333333336</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -985,7 +1019,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="1">
-        <v>44873.041666666664</v>
+        <v>44873.21875</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -1009,7 +1043,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="1">
-        <v>44873.052083333336</v>
+        <v>44873.229166666664</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -1033,7 +1067,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1">
-        <v>44873.0625</v>
+        <v>44873.239583333336</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -1057,7 +1091,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="1">
-        <v>44873.072916666664</v>
+        <v>44873.25</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -1081,7 +1115,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="1">
-        <v>44873.083333333336</v>
+        <v>44873.260416666664</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -1105,7 +1139,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="1">
-        <v>44873.09375</v>
+        <v>44873.270833333336</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -1129,7 +1163,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="1">
-        <v>44873.104166666664</v>
+        <v>44873.28125</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -1153,7 +1187,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="1">
-        <v>44873.114583333336</v>
+        <v>44873.291666666664</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -1177,7 +1211,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="1">
-        <v>44873.125</v>
+        <v>44873.302083333336</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -1201,7 +1235,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="1">
-        <v>44873.135416666664</v>
+        <v>44873.3125</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -1225,7 +1259,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="1">
-        <v>44873.145833333336</v>
+        <v>44873.322916666664</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -1249,7 +1283,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="1">
-        <v>44873.15625</v>
+        <v>44873.333333333336</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
@@ -1273,7 +1307,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="1">
-        <v>44873.166666666664</v>
+        <v>44873.34375</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
@@ -1282,9 +1316,7 @@
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
-      <c r="I36">
-        <v>1</v>
-      </c>
+      <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
@@ -1297,7 +1329,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="1">
-        <v>44873.177083333336</v>
+        <v>44873.354166666664</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
@@ -1306,9 +1338,7 @@
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37"/>
-      <c r="I37">
-        <v>1</v>
-      </c>
+      <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
@@ -1321,7 +1351,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="1">
-        <v>44873.1875</v>
+        <v>44873.364583333336</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
@@ -1330,9 +1360,7 @@
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
-      <c r="I38">
-        <v>1</v>
-      </c>
+      <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
@@ -1345,7 +1373,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="1">
-        <v>44873.197916666664</v>
+        <v>44873.375</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
@@ -1354,9 +1382,7 @@
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
-      <c r="I39">
-        <v>1</v>
-      </c>
+      <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
@@ -1369,7 +1395,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="1">
-        <v>44873.208333333336</v>
+        <v>44873.385416666664</v>
       </c>
       <c r="B40"/>
       <c r="C40"/>
@@ -1378,9 +1404,7 @@
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40"/>
-      <c r="I40">
-        <v>1</v>
-      </c>
+      <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
@@ -1393,7 +1417,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="1">
-        <v>44873.21875</v>
+        <v>44873.395833333336</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
@@ -1402,9 +1426,7 @@
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
-      <c r="I41">
-        <v>1</v>
-      </c>
+      <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
@@ -1417,7 +1439,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="1">
-        <v>44873.229166666664</v>
+        <v>44873.40625</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
@@ -1426,9 +1448,7 @@
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
-      <c r="I42">
-        <v>1</v>
-      </c>
+      <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
       <c r="L42"/>
@@ -1441,7 +1461,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="1">
-        <v>44873.239583333336</v>
+        <v>44873.416666666664</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
@@ -1450,9 +1470,7 @@
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43"/>
-      <c r="I43">
-        <v>1</v>
-      </c>
+      <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43"/>
@@ -1465,7 +1483,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="1">
-        <v>44873.25</v>
+        <v>44873.427083333336</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
@@ -1474,9 +1492,7 @@
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
-      <c r="I44">
-        <v>1</v>
-      </c>
+      <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44"/>
@@ -1489,7 +1505,7 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="1">
-        <v>44873.260416666664</v>
+        <v>44873.4375</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -1498,9 +1514,7 @@
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
-      <c r="I45">
-        <v>1</v>
-      </c>
+      <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
@@ -1513,7 +1527,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="1">
-        <v>44873.270833333336</v>
+        <v>44873.447916666664</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
@@ -1522,9 +1536,7 @@
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46"/>
-      <c r="I46">
-        <v>1</v>
-      </c>
+      <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
@@ -1537,7 +1549,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="1">
-        <v>44873.28125</v>
+        <v>44873.458333333336</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -1546,9 +1558,7 @@
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47"/>
-      <c r="I47">
-        <v>1</v>
-      </c>
+      <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
@@ -1561,7 +1571,7 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="1">
-        <v>44873.291666666664</v>
+        <v>44873.46875</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
@@ -1570,9 +1580,7 @@
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
-      <c r="I48">
-        <v>1</v>
-      </c>
+      <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
@@ -1585,7 +1593,7 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="1">
-        <v>44873.302083333336</v>
+        <v>44873.479166666664</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
@@ -1594,9 +1602,7 @@
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
-      <c r="I49">
-        <v>1</v>
-      </c>
+      <c r="I49"/>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
@@ -1609,7 +1615,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="1">
-        <v>44873.3125</v>
+        <v>44873.489583333336</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
@@ -1618,9 +1624,7 @@
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50"/>
-      <c r="I50">
-        <v>1</v>
-      </c>
+      <c r="I50"/>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
@@ -1633,7 +1637,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="1">
-        <v>44873.322916666664</v>
+        <v>44873.5</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
@@ -1642,9 +1646,7 @@
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
-      <c r="I51">
-        <v>1</v>
-      </c>
+      <c r="I51"/>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
@@ -1657,7 +1659,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="1">
-        <v>44873.333333333336</v>
+        <v>44873.510416666664</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
@@ -1666,9 +1668,7 @@
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
-      <c r="I52">
-        <v>1</v>
-      </c>
+      <c r="I52"/>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52"/>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="1">
-        <v>44873.34375</v>
+        <v>44873.520833333336</v>
       </c>
       <c r="B53"/>
       <c r="C53"/>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="1">
-        <v>44873.354166666664</v>
+        <v>44873.53125</v>
       </c>
       <c r="B54"/>
       <c r="C54"/>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="1">
-        <v>44873.364583333336</v>
+        <v>44873.541666666664</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="1">
-        <v>44873.375</v>
+        <v>44873.552083333336</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="1">
-        <v>44873.385416666664</v>
+        <v>44873.5625</v>
       </c>
       <c r="B57"/>
       <c r="C57"/>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="1">
-        <v>44873.395833333336</v>
+        <v>44873.572916666664</v>
       </c>
       <c r="B58"/>
       <c r="C58"/>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="1">
-        <v>44873.40625</v>
+        <v>44873.583333333336</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="1">
-        <v>44873.416666666664</v>
+        <v>44873.59375</v>
       </c>
       <c r="B60"/>
       <c r="C60"/>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="1">
-        <v>44873.427083333336</v>
+        <v>44873.604166666664</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="1">
-        <v>44873.4375</v>
+        <v>44873.614583333336</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="1">
-        <v>44873.447916666664</v>
+        <v>44873.625</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="1">
-        <v>44873.458333333336</v>
+        <v>44873.635416666664</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="1">
-        <v>44873.46875</v>
+        <v>44873.645833333336</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="1">
-        <v>44873.479166666664</v>
+        <v>44873.65625</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="1">
-        <v>44873.489583333336</v>
+        <v>44873.666666666664</v>
       </c>
       <c r="B67"/>
       <c r="C67"/>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="1">
-        <v>44873.5</v>
+        <v>44873.677083333336</v>
       </c>
       <c r="B68"/>
       <c r="C68"/>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="1">
-        <v>44873.510416666664</v>
+        <v>44873.6875</v>
       </c>
       <c r="B69"/>
       <c r="C69"/>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="1">
-        <v>44873.520833333336</v>
+        <v>44873.697916666664</v>
       </c>
       <c r="B70"/>
       <c r="C70"/>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="1">
-        <v>44873.53125</v>
+        <v>44873.708333333336</v>
       </c>
       <c r="B71"/>
       <c r="C71"/>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="1">
-        <v>44873.541666666664</v>
+        <v>44873.71875</v>
       </c>
       <c r="B72"/>
       <c r="C72"/>
@@ -2121,7 +2121,7 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="1">
-        <v>44873.552083333336</v>
+        <v>44873.729166666664</v>
       </c>
       <c r="B73"/>
       <c r="C73"/>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="1">
-        <v>44873.5625</v>
+        <v>44873.739583333336</v>
       </c>
       <c r="B74"/>
       <c r="C74"/>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="1">
-        <v>44873.572916666664</v>
+        <v>44873.75</v>
       </c>
       <c r="B75"/>
       <c r="C75"/>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="1">
-        <v>44873.583333333336</v>
+        <v>44873.760416666664</v>
       </c>
       <c r="B76"/>
       <c r="C76"/>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="1">
-        <v>44873.59375</v>
+        <v>44873.770833333336</v>
       </c>
       <c r="B77"/>
       <c r="C77"/>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="1">
-        <v>44873.604166666664</v>
+        <v>44873.78125</v>
       </c>
       <c r="B78"/>
       <c r="C78"/>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="1">
-        <v>44873.614583333336</v>
+        <v>44873.791666666664</v>
       </c>
       <c r="B79"/>
       <c r="C79"/>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="1">
-        <v>44873.625</v>
+        <v>44873.802083333336</v>
       </c>
       <c r="B80"/>
       <c r="C80"/>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="81" spans="1:18">
       <c r="A81" s="1">
-        <v>44873.635416666664</v>
+        <v>44873.8125</v>
       </c>
       <c r="B81"/>
       <c r="C81"/>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="1">
-        <v>44873.645833333336</v>
+        <v>44873.822916666664</v>
       </c>
       <c r="B82"/>
       <c r="C82"/>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="1">
-        <v>44873.65625</v>
+        <v>44873.833333333336</v>
       </c>
       <c r="B83"/>
       <c r="C83"/>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="1">
-        <v>44873.666666666664</v>
+        <v>44873.84375</v>
       </c>
       <c r="B84"/>
       <c r="C84"/>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="1">
-        <v>44873.677083333336</v>
+        <v>44873.854166666664</v>
       </c>
       <c r="B85"/>
       <c r="C85"/>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="86" spans="1:18">
       <c r="A86" s="1">
-        <v>44873.6875</v>
+        <v>44873.864583333336</v>
       </c>
       <c r="B86"/>
       <c r="C86"/>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="1">
-        <v>44873.697916666664</v>
+        <v>44873.875</v>
       </c>
       <c r="B87"/>
       <c r="C87"/>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="1">
-        <v>44873.708333333336</v>
+        <v>44873.885416666664</v>
       </c>
       <c r="B88"/>
       <c r="C88"/>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="89" spans="1:18">
       <c r="A89" s="1">
-        <v>44873.71875</v>
+        <v>44873.895833333336</v>
       </c>
       <c r="B89"/>
       <c r="C89"/>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" s="1">
-        <v>44873.729166666664</v>
+        <v>44873.90625</v>
       </c>
       <c r="B90"/>
       <c r="C90"/>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="91" spans="1:18">
       <c r="A91" s="1">
-        <v>44873.739583333336</v>
+        <v>44873.916666666664</v>
       </c>
       <c r="B91"/>
       <c r="C91"/>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="1">
-        <v>44873.75</v>
+        <v>44873.927083333336</v>
       </c>
       <c r="B92"/>
       <c r="C92"/>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="1">
-        <v>44873.760416666664</v>
+        <v>44873.9375</v>
       </c>
       <c r="B93"/>
       <c r="C93"/>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="1">
-        <v>44873.770833333336</v>
+        <v>44873.947916666664</v>
       </c>
       <c r="B94"/>
       <c r="C94"/>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="1">
-        <v>44873.78125</v>
+        <v>44873.958333333336</v>
       </c>
       <c r="B95"/>
       <c r="C95"/>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="1">
-        <v>44873.791666666664</v>
+        <v>44873.96875</v>
       </c>
       <c r="B96"/>
       <c r="C96"/>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="1">
-        <v>44873.802083333336</v>
+        <v>44873.979166666664</v>
       </c>
       <c r="B97"/>
       <c r="C97"/>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="1">
-        <v>44873.8125</v>
+        <v>44873.989583333336</v>
       </c>
       <c r="B98"/>
       <c r="C98"/>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="1">
-        <v>44873.822916666664</v>
+        <v>44874.0</v>
       </c>
       <c r="B99"/>
       <c r="C99"/>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="1">
-        <v>44873.833333333336</v>
+        <v>44874.010416666664</v>
       </c>
       <c r="B100"/>
       <c r="C100"/>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="1">
-        <v>44873.84375</v>
+        <v>44874.020833333336</v>
       </c>
       <c r="B101"/>
       <c r="C101"/>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="1">
-        <v>44873.854166666664</v>
+        <v>44874.03125</v>
       </c>
       <c r="B102"/>
       <c r="C102"/>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="1">
-        <v>44873.864583333336</v>
+        <v>44874.041666666664</v>
       </c>
       <c r="B103"/>
       <c r="C103"/>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="1">
-        <v>44873.875</v>
+        <v>44874.052083333336</v>
       </c>
       <c r="B104"/>
       <c r="C104"/>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="1">
-        <v>44873.885416666664</v>
+        <v>44874.0625</v>
       </c>
       <c r="B105"/>
       <c r="C105"/>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="1">
-        <v>44873.895833333336</v>
+        <v>44874.072916666664</v>
       </c>
       <c r="B106"/>
       <c r="C106"/>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="1">
-        <v>44873.90625</v>
+        <v>44874.083333333336</v>
       </c>
       <c r="B107"/>
       <c r="C107"/>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="1">
-        <v>44873.916666666664</v>
+        <v>44874.09375</v>
       </c>
       <c r="B108"/>
       <c r="C108"/>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="1">
-        <v>44873.927083333336</v>
+        <v>44874.104166666664</v>
       </c>
       <c r="B109"/>
       <c r="C109"/>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="1">
-        <v>44873.9375</v>
+        <v>44874.114583333336</v>
       </c>
       <c r="B110"/>
       <c r="C110"/>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="1">
-        <v>44873.947916666664</v>
+        <v>44874.125</v>
       </c>
       <c r="B111"/>
       <c r="C111"/>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="1">
-        <v>44873.958333333336</v>
+        <v>44874.135416666664</v>
       </c>
       <c r="B112"/>
       <c r="C112"/>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113" s="1">
-        <v>44873.96875</v>
+        <v>44874.145833333336</v>
       </c>
       <c r="B113"/>
       <c r="C113"/>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="1">
-        <v>44873.979166666664</v>
+        <v>44874.15625</v>
       </c>
       <c r="B114"/>
       <c r="C114"/>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="1">
-        <v>44873.989583333336</v>
+        <v>44874.166666666664</v>
       </c>
       <c r="B115"/>
       <c r="C115"/>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="1">
-        <v>44874.0</v>
+        <v>44874.177083333336</v>
       </c>
       <c r="B116"/>
       <c r="C116"/>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="1">
-        <v>44874.010416666664</v>
+        <v>44874.1875</v>
       </c>
       <c r="B117"/>
       <c r="C117"/>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="118" spans="1:18">
       <c r="A118" s="1">
-        <v>44874.020833333336</v>
+        <v>44874.197916666664</v>
       </c>
       <c r="B118"/>
       <c r="C118"/>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="119" spans="1:18">
       <c r="A119" s="1">
-        <v>44874.03125</v>
+        <v>44874.208333333336</v>
       </c>
       <c r="B119"/>
       <c r="C119"/>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="120" spans="1:18">
       <c r="A120" s="1">
-        <v>44874.041666666664</v>
+        <v>44874.21875</v>
       </c>
       <c r="B120"/>
       <c r="C120"/>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="121" spans="1:18">
       <c r="A121" s="1">
-        <v>44874.052083333336</v>
+        <v>44874.229166666664</v>
       </c>
       <c r="B121"/>
       <c r="C121"/>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="1">
-        <v>44874.0625</v>
+        <v>44874.239583333336</v>
       </c>
       <c r="B122"/>
       <c r="C122"/>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="123" spans="1:18">
       <c r="A123" s="1">
-        <v>44874.072916666664</v>
+        <v>44874.25</v>
       </c>
       <c r="B123"/>
       <c r="C123"/>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="1">
-        <v>44874.083333333336</v>
+        <v>44874.260416666664</v>
       </c>
       <c r="B124"/>
       <c r="C124"/>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="1">
-        <v>44874.09375</v>
+        <v>44874.270833333336</v>
       </c>
       <c r="B125"/>
       <c r="C125"/>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="1">
-        <v>44874.104166666664</v>
+        <v>44874.28125</v>
       </c>
       <c r="B126"/>
       <c r="C126"/>
@@ -3309,7 +3309,7 @@
     </row>
     <row r="127" spans="1:18">
       <c r="A127" s="1">
-        <v>44874.114583333336</v>
+        <v>44874.291666666664</v>
       </c>
       <c r="B127"/>
       <c r="C127"/>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="1">
-        <v>44874.125</v>
+        <v>44874.302083333336</v>
       </c>
       <c r="B128"/>
       <c r="C128"/>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="129" spans="1:18">
       <c r="A129" s="1">
-        <v>44874.135416666664</v>
+        <v>44874.3125</v>
       </c>
       <c r="B129"/>
       <c r="C129"/>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="130" spans="1:18">
       <c r="A130" s="1">
-        <v>44874.145833333336</v>
+        <v>44874.322916666664</v>
       </c>
       <c r="B130"/>
       <c r="C130"/>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="131" spans="1:18">
       <c r="A131" s="1">
-        <v>44874.15625</v>
+        <v>44874.333333333336</v>
       </c>
       <c r="B131"/>
       <c r="C131"/>
@@ -3417,380 +3417,6 @@
       <c r="Q131"/>
       <c r="R131"/>
     </row>
-    <row r="132" spans="1:18">
-      <c r="A132" s="1">
-        <v>44874.166666666664</v>
-      </c>
-      <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132"/>
-      <c r="E132"/>
-      <c r="F132"/>
-      <c r="G132"/>
-      <c r="H132"/>
-      <c r="I132"/>
-      <c r="J132"/>
-      <c r="K132"/>
-      <c r="L132"/>
-      <c r="M132"/>
-      <c r="N132"/>
-      <c r="O132"/>
-      <c r="P132"/>
-      <c r="Q132"/>
-      <c r="R132"/>
-    </row>
-    <row r="133" spans="1:18">
-      <c r="A133" s="1">
-        <v>44874.177083333336</v>
-      </c>
-      <c r="B133"/>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133"/>
-      <c r="F133"/>
-      <c r="G133"/>
-      <c r="H133"/>
-      <c r="I133"/>
-      <c r="J133"/>
-      <c r="K133"/>
-      <c r="L133"/>
-      <c r="M133"/>
-      <c r="N133"/>
-      <c r="O133"/>
-      <c r="P133"/>
-      <c r="Q133"/>
-      <c r="R133"/>
-    </row>
-    <row r="134" spans="1:18">
-      <c r="A134" s="1">
-        <v>44874.1875</v>
-      </c>
-      <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134"/>
-      <c r="F134"/>
-      <c r="G134"/>
-      <c r="H134"/>
-      <c r="I134"/>
-      <c r="J134"/>
-      <c r="K134"/>
-      <c r="L134"/>
-      <c r="M134"/>
-      <c r="N134"/>
-      <c r="O134"/>
-      <c r="P134"/>
-      <c r="Q134"/>
-      <c r="R134"/>
-    </row>
-    <row r="135" spans="1:18">
-      <c r="A135" s="1">
-        <v>44874.197916666664</v>
-      </c>
-      <c r="B135"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="E135"/>
-      <c r="F135"/>
-      <c r="G135"/>
-      <c r="H135"/>
-      <c r="I135"/>
-      <c r="J135"/>
-      <c r="K135"/>
-      <c r="L135"/>
-      <c r="M135"/>
-      <c r="N135"/>
-      <c r="O135"/>
-      <c r="P135"/>
-      <c r="Q135"/>
-      <c r="R135"/>
-    </row>
-    <row r="136" spans="1:18">
-      <c r="A136" s="1">
-        <v>44874.208333333336</v>
-      </c>
-      <c r="B136"/>
-      <c r="C136"/>
-      <c r="D136"/>
-      <c r="E136"/>
-      <c r="F136"/>
-      <c r="G136"/>
-      <c r="H136"/>
-      <c r="I136"/>
-      <c r="J136"/>
-      <c r="K136"/>
-      <c r="L136"/>
-      <c r="M136"/>
-      <c r="N136"/>
-      <c r="O136"/>
-      <c r="P136"/>
-      <c r="Q136"/>
-      <c r="R136"/>
-    </row>
-    <row r="137" spans="1:18">
-      <c r="A137" s="1">
-        <v>44874.21875</v>
-      </c>
-      <c r="B137"/>
-      <c r="C137"/>
-      <c r="D137"/>
-      <c r="E137"/>
-      <c r="F137"/>
-      <c r="G137"/>
-      <c r="H137"/>
-      <c r="I137"/>
-      <c r="J137"/>
-      <c r="K137"/>
-      <c r="L137"/>
-      <c r="M137"/>
-      <c r="N137"/>
-      <c r="O137"/>
-      <c r="P137"/>
-      <c r="Q137"/>
-      <c r="R137"/>
-    </row>
-    <row r="138" spans="1:18">
-      <c r="A138" s="1">
-        <v>44874.229166666664</v>
-      </c>
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138"/>
-      <c r="F138"/>
-      <c r="G138"/>
-      <c r="H138"/>
-      <c r="I138"/>
-      <c r="J138"/>
-      <c r="K138"/>
-      <c r="L138"/>
-      <c r="M138"/>
-      <c r="N138"/>
-      <c r="O138"/>
-      <c r="P138"/>
-      <c r="Q138"/>
-      <c r="R138"/>
-    </row>
-    <row r="139" spans="1:18">
-      <c r="A139" s="1">
-        <v>44874.239583333336</v>
-      </c>
-      <c r="B139"/>
-      <c r="C139"/>
-      <c r="D139"/>
-      <c r="E139"/>
-      <c r="F139"/>
-      <c r="G139"/>
-      <c r="H139"/>
-      <c r="I139"/>
-      <c r="J139"/>
-      <c r="K139"/>
-      <c r="L139"/>
-      <c r="M139"/>
-      <c r="N139"/>
-      <c r="O139"/>
-      <c r="P139"/>
-      <c r="Q139"/>
-      <c r="R139"/>
-    </row>
-    <row r="140" spans="1:18">
-      <c r="A140" s="1">
-        <v>44874.25</v>
-      </c>
-      <c r="B140"/>
-      <c r="C140"/>
-      <c r="D140"/>
-      <c r="E140"/>
-      <c r="F140"/>
-      <c r="G140"/>
-      <c r="H140"/>
-      <c r="I140"/>
-      <c r="J140"/>
-      <c r="K140"/>
-      <c r="L140"/>
-      <c r="M140"/>
-      <c r="N140"/>
-      <c r="O140"/>
-      <c r="P140"/>
-      <c r="Q140"/>
-      <c r="R140"/>
-    </row>
-    <row r="141" spans="1:18">
-      <c r="A141" s="1">
-        <v>44874.260416666664</v>
-      </c>
-      <c r="B141"/>
-      <c r="C141"/>
-      <c r="D141"/>
-      <c r="E141"/>
-      <c r="F141"/>
-      <c r="G141"/>
-      <c r="H141"/>
-      <c r="I141"/>
-      <c r="J141"/>
-      <c r="K141"/>
-      <c r="L141"/>
-      <c r="M141"/>
-      <c r="N141"/>
-      <c r="O141"/>
-      <c r="P141"/>
-      <c r="Q141"/>
-      <c r="R141"/>
-    </row>
-    <row r="142" spans="1:18">
-      <c r="A142" s="1">
-        <v>44874.270833333336</v>
-      </c>
-      <c r="B142"/>
-      <c r="C142"/>
-      <c r="D142"/>
-      <c r="E142"/>
-      <c r="F142"/>
-      <c r="G142"/>
-      <c r="H142"/>
-      <c r="I142"/>
-      <c r="J142"/>
-      <c r="K142"/>
-      <c r="L142"/>
-      <c r="M142"/>
-      <c r="N142"/>
-      <c r="O142"/>
-      <c r="P142"/>
-      <c r="Q142"/>
-      <c r="R142"/>
-    </row>
-    <row r="143" spans="1:18">
-      <c r="A143" s="1">
-        <v>44874.28125</v>
-      </c>
-      <c r="B143"/>
-      <c r="C143"/>
-      <c r="D143"/>
-      <c r="E143"/>
-      <c r="F143"/>
-      <c r="G143"/>
-      <c r="H143"/>
-      <c r="I143"/>
-      <c r="J143"/>
-      <c r="K143"/>
-      <c r="L143"/>
-      <c r="M143"/>
-      <c r="N143"/>
-      <c r="O143"/>
-      <c r="P143"/>
-      <c r="Q143"/>
-      <c r="R143"/>
-    </row>
-    <row r="144" spans="1:18">
-      <c r="A144" s="1">
-        <v>44874.291666666664</v>
-      </c>
-      <c r="B144"/>
-      <c r="C144"/>
-      <c r="D144"/>
-      <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144"/>
-      <c r="H144"/>
-      <c r="I144"/>
-      <c r="J144"/>
-      <c r="K144"/>
-      <c r="L144"/>
-      <c r="M144"/>
-      <c r="N144"/>
-      <c r="O144"/>
-      <c r="P144"/>
-      <c r="Q144"/>
-      <c r="R144"/>
-    </row>
-    <row r="145" spans="1:18">
-      <c r="A145" s="1">
-        <v>44874.302083333336</v>
-      </c>
-      <c r="B145"/>
-      <c r="C145"/>
-      <c r="D145"/>
-      <c r="E145"/>
-      <c r="F145"/>
-      <c r="G145"/>
-      <c r="H145"/>
-      <c r="I145"/>
-      <c r="J145"/>
-      <c r="K145"/>
-      <c r="L145"/>
-      <c r="M145"/>
-      <c r="N145"/>
-      <c r="O145"/>
-      <c r="P145"/>
-      <c r="Q145"/>
-      <c r="R145"/>
-    </row>
-    <row r="146" spans="1:18">
-      <c r="A146" s="1">
-        <v>44874.3125</v>
-      </c>
-      <c r="B146"/>
-      <c r="C146"/>
-      <c r="D146"/>
-      <c r="E146"/>
-      <c r="F146"/>
-      <c r="G146"/>
-      <c r="H146"/>
-      <c r="I146"/>
-      <c r="J146"/>
-      <c r="K146"/>
-      <c r="L146"/>
-      <c r="M146"/>
-      <c r="N146"/>
-      <c r="O146"/>
-      <c r="P146"/>
-      <c r="Q146"/>
-      <c r="R146"/>
-    </row>
-    <row r="147" spans="1:18">
-      <c r="A147" s="1">
-        <v>44874.322916666664</v>
-      </c>
-      <c r="B147"/>
-      <c r="C147"/>
-      <c r="D147"/>
-      <c r="E147"/>
-      <c r="F147"/>
-      <c r="G147"/>
-      <c r="H147"/>
-      <c r="I147"/>
-      <c r="J147"/>
-      <c r="K147"/>
-      <c r="L147"/>
-      <c r="M147"/>
-      <c r="N147"/>
-      <c r="O147"/>
-      <c r="P147"/>
-      <c r="Q147"/>
-      <c r="R147"/>
-    </row>
-    <row r="148" spans="1:18">
-      <c r="A148" s="1">
-        <v>44874.333333333336</v>
-      </c>
-      <c r="B148"/>
-      <c r="C148"/>
-      <c r="D148"/>
-      <c r="E148"/>
-      <c r="F148"/>
-      <c r="G148"/>
-      <c r="H148"/>
-      <c r="I148"/>
-      <c r="J148"/>
-      <c r="K148"/>
-      <c r="L148"/>
-      <c r="M148"/>
-      <c r="N148"/>
-      <c r="O148"/>
-      <c r="P148"/>
-      <c r="Q148"/>
-      <c r="R148"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
